--- a/owlcms/src/main/resources/templates/competitionBook/SnatchCJTotal-LETTER.xlsx
+++ b/owlcms/src/main/resources/templates/competitionBook/SnatchCJTotal-LETTER.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lamyj\git\owlcms4\owlcms\src\main\resources\templates\competitionBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{131569E4-B243-48BE-89A7-ABFA93ED8486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{127D338E-AD0C-46D1-8454-536F12F5FD0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="2805" windowWidth="21600" windowHeight="11295" tabRatio="519"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="519" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C" sheetId="35" r:id="rId1"/>
@@ -38,7 +38,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="8">WR!$1:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="6">WS!$1:$2</definedName>
   </definedNames>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="166">
   <si>
     <t>${l.lastName}</t>
   </si>
@@ -546,21 +546,27 @@
   </si>
   <si>
     <t>${l.qPoints}</t>
+  </si>
+  <si>
+    <t>&lt;jx:forEach items="${mQPoints}" var="l" varStatus="lifterLoop"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;jx:forEach items="${wQPoints}" var="l" varStatus="lifterLoop"&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="8">
-    <numFmt numFmtId="180" formatCode="0.0;&quot;&quot;"/>
-    <numFmt numFmtId="181" formatCode="0;\(0\);\-"/>
-    <numFmt numFmtId="182" formatCode="0.000;&quot;&quot;;\-"/>
-    <numFmt numFmtId="183" formatCode="#,##0&quot;     &quot;;&quot; (&quot;#,##0&quot;)    &quot;;&quot; -&quot;#&quot;     &quot;;@\ "/>
-    <numFmt numFmtId="184" formatCode="#"/>
-    <numFmt numFmtId="185" formatCode="0;&quot;&quot;"/>
-    <numFmt numFmtId="187" formatCode="0;&quot;&quot;;\-"/>
-    <numFmt numFmtId="190" formatCode="_-#,##0;[Red]\(#,##0\);\-"/>
+    <numFmt numFmtId="164" formatCode="0.0;&quot;&quot;"/>
+    <numFmt numFmtId="165" formatCode="0;\(0\);\-"/>
+    <numFmt numFmtId="166" formatCode="0.000;&quot;&quot;;\-"/>
+    <numFmt numFmtId="167" formatCode="#,##0&quot;     &quot;;&quot; (&quot;#,##0&quot;)    &quot;;&quot; -&quot;#&quot;     &quot;;@\ "/>
+    <numFmt numFmtId="168" formatCode="#"/>
+    <numFmt numFmtId="169" formatCode="0;&quot;&quot;"/>
+    <numFmt numFmtId="170" formatCode="0;&quot;&quot;;\-"/>
+    <numFmt numFmtId="171" formatCode="_-#,##0;[Red]\(#,##0\);\-"/>
   </numFmts>
   <fonts count="26" x14ac:knownFonts="1">
     <font>
@@ -1260,7 +1266,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1269,27 +1275,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1302,7 +1301,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1314,7 +1313,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1328,13 +1327,13 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1369,13 +1368,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="187" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1391,16 +1390,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="187" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1438,11 +1434,11 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="16" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="17" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1450,10 +1446,10 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="181" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="190" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1468,14 +1464,14 @@
     <xf numFmtId="0" fontId="19" fillId="9" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1549,12 +1545,35 @@
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -1588,49 +1607,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1661,49 +1637,45 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
-    <cellStyle name="Emphase 1" xfId="1"/>
-    <cellStyle name="Emphase 2" xfId="2"/>
-    <cellStyle name="Emphase 3" xfId="3"/>
-    <cellStyle name="Lien hypertexte 2" xfId="4"/>
+    <cellStyle name="Emphase 1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Emphase 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Emphase 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Lien hypertexte 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="5"/>
-    <cellStyle name="Normal 3" xfId="6"/>
-    <cellStyle name="Titre 1" xfId="7"/>
-    <cellStyle name="Titre 1 1" xfId="8"/>
-    <cellStyle name="Titre 1 1 1" xfId="9"/>
-    <cellStyle name="Titre de la feuille" xfId="10"/>
+    <cellStyle name="Normal 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 3" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Titre 1" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Titre 1 1" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Titre 1 1 1" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Titre de la feuille" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
   </cellStyles>
-  <dxfs count="20">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="34"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="34"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="34"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="17">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2268,7 +2240,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2281,76 +2253,76 @@
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="13" width="8.7109375" customWidth="1"/>
-    <col min="14" max="14" width="8.7109375" style="30" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" style="25" customWidth="1"/>
     <col min="15" max="17" width="8.7109375" style="1" customWidth="1"/>
     <col min="18" max="18" width="8.7109375" customWidth="1"/>
-    <col min="19" max="19" width="16.5703125" style="30" customWidth="1"/>
+    <col min="19" max="19" width="16.5703125" style="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="114" t="s">
+      <c r="B1" s="108" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57" t="s">
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="K1" s="58" t="s">
+      <c r="K1" s="52" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="109" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57" t="s">
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="K2" s="58" t="s">
+      <c r="K2" s="52" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="B3" s="115" t="s">
+      <c r="B3" s="109" t="s">
         <v>123</v>
       </c>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="57"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="51"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="57"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="H4" s="57"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="H4" s="51"/>
     </row>
     <row r="5" spans="1:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="59"/>
+      <c r="A5" s="53"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="N6"/>
@@ -2365,117 +2337,117 @@
       </c>
     </row>
     <row r="8" spans="1:19" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61" t="s">
+      <c r="B8" s="55"/>
+      <c r="C8" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="D8" s="58" t="s">
+      <c r="D8" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
       <c r="I8" t="s">
         <v>94</v>
       </c>
-      <c r="J8" s="61"/>
-      <c r="L8" s="62"/>
-      <c r="O8" s="63"/>
-      <c r="P8" s="63"/>
-      <c r="Q8" s="61"/>
+      <c r="J8" s="55"/>
+      <c r="L8" s="56"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="55"/>
     </row>
     <row r="9" spans="1:19" s="3" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="64"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="58"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
+      <c r="A9" s="58"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="52"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
       <c r="K9"/>
-      <c r="L9" s="61"/>
-      <c r="N9" s="62"/>
-      <c r="Q9" s="63"/>
-      <c r="R9" s="63"/>
-      <c r="S9" s="61"/>
-    </row>
-    <row r="10" spans="1:19" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="57" t="s">
+      <c r="L9" s="55"/>
+      <c r="N9" s="56"/>
+      <c r="Q9" s="57"/>
+      <c r="R9" s="57"/>
+      <c r="S9" s="55"/>
+    </row>
+    <row r="10" spans="1:19" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="D10" s="58" t="s">
+      <c r="D10" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="H10" s="57" t="s">
+      <c r="H10" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="I10" s="58" t="s">
+      <c r="I10" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="L10" s="57" t="s">
+      <c r="L10" s="51" t="s">
         <v>128</v>
       </c>
-      <c r="M10" s="58" t="s">
+      <c r="M10" s="52" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="C11" s="57" t="s">
+      <c r="C11" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="D11" s="58" t="s">
+      <c r="D11" s="52" t="s">
         <v>101</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="H11" s="57" t="s">
+      <c r="H11" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="I11" s="58" t="s">
+      <c r="I11" s="52" t="s">
         <v>103</v>
       </c>
-      <c r="J11" s="58"/>
+      <c r="J11" s="52"/>
       <c r="K11" s="1"/>
-      <c r="M11" s="58" t="s">
+      <c r="M11" s="52" t="s">
         <v>104</v>
       </c>
       <c r="N11" s="1"/>
       <c r="P11"/>
-      <c r="Q11" s="58"/>
-      <c r="R11" s="65"/>
+      <c r="Q11" s="52"/>
+      <c r="R11" s="59"/>
       <c r="S11"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="C12" s="57" t="s">
+      <c r="C12" s="51" t="s">
         <v>105</v>
       </c>
-      <c r="D12" s="58" t="s">
+      <c r="D12" s="52" t="s">
         <v>106</v>
       </c>
       <c r="E12" s="1"/>
-      <c r="H12" s="57" t="s">
+      <c r="H12" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="I12" s="58" t="s">
+      <c r="I12" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="J12" s="58"/>
+      <c r="J12" s="52"/>
       <c r="K12" s="1"/>
-      <c r="M12" s="58" t="s">
+      <c r="M12" s="52" t="s">
         <v>109</v>
       </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="58"/>
-      <c r="Q12" s="66"/>
-      <c r="R12" s="65"/>
+      <c r="O12" s="52"/>
+      <c r="Q12" s="60"/>
+      <c r="R12" s="59"/>
       <c r="S12"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="C13" s="57" t="s">
+      <c r="C13" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="D13" s="65" t="s">
+      <c r="D13" s="59" t="s">
         <v>111</v>
       </c>
       <c r="J13" s="1"/>
@@ -2487,37 +2459,37 @@
       <c r="S13"/>
     </row>
     <row r="14" spans="1:19" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="58"/>
-      <c r="M14" s="58" t="s">
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="N14" s="58"/>
-      <c r="O14" s="58"/>
-      <c r="P14" s="58"/>
-      <c r="Q14" s="58"/>
-      <c r="R14" s="58"/>
-      <c r="S14" s="58"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="52"/>
+      <c r="R14" s="52"/>
+      <c r="S14" s="52"/>
     </row>
     <row r="15" spans="1:19" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="58"/>
-      <c r="N15" s="58"/>
-      <c r="O15" s="58"/>
-      <c r="P15" s="58"/>
-      <c r="Q15" s="58"/>
-      <c r="R15" s="58"/>
-      <c r="S15" s="58"/>
+      <c r="E15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="52"/>
+      <c r="P15" s="52"/>
+      <c r="Q15" s="52"/>
+      <c r="R15" s="52"/>
+      <c r="S15" s="52"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -2543,9 +2515,9 @@
       <c r="K17"/>
       <c r="L17"/>
       <c r="M17"/>
-      <c r="N17" s="30"/>
+      <c r="N17" s="25"/>
       <c r="R17"/>
-      <c r="S17" s="30"/>
+      <c r="S17" s="25"/>
     </row>
     <row r="18" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18"/>
@@ -2561,9 +2533,9 @@
       <c r="K18"/>
       <c r="L18"/>
       <c r="M18"/>
-      <c r="N18" s="30"/>
+      <c r="N18" s="25"/>
       <c r="R18"/>
-      <c r="S18" s="30"/>
+      <c r="S18" s="25"/>
     </row>
     <row r="19" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19"/>
@@ -2579,9 +2551,9 @@
       <c r="K19"/>
       <c r="L19"/>
       <c r="M19"/>
-      <c r="N19" s="30"/>
+      <c r="N19" s="25"/>
       <c r="R19"/>
-      <c r="S19" s="30"/>
+      <c r="S19" s="25"/>
     </row>
     <row r="20" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20"/>
@@ -2597,9 +2569,9 @@
       <c r="K20"/>
       <c r="L20"/>
       <c r="M20"/>
-      <c r="N20" s="30"/>
+      <c r="N20" s="25"/>
       <c r="R20"/>
-      <c r="S20" s="30"/>
+      <c r="S20" s="25"/>
     </row>
     <row r="21" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21"/>
@@ -2615,9 +2587,9 @@
       <c r="K21"/>
       <c r="L21"/>
       <c r="M21"/>
-      <c r="N21" s="30"/>
+      <c r="N21" s="25"/>
       <c r="R21"/>
-      <c r="S21" s="30"/>
+      <c r="S21" s="25"/>
     </row>
     <row r="22" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22"/>
@@ -2633,9 +2605,9 @@
       <c r="K22"/>
       <c r="L22"/>
       <c r="M22"/>
-      <c r="N22" s="30"/>
+      <c r="N22" s="25"/>
       <c r="R22"/>
-      <c r="S22" s="30"/>
+      <c r="S22" s="25"/>
     </row>
     <row r="23" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23"/>
@@ -2651,9 +2623,9 @@
       <c r="K23"/>
       <c r="L23"/>
       <c r="M23"/>
-      <c r="N23" s="30"/>
+      <c r="N23" s="25"/>
       <c r="R23"/>
-      <c r="S23" s="30"/>
+      <c r="S23" s="25"/>
     </row>
     <row r="24" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24"/>
@@ -2669,9 +2641,9 @@
       <c r="K24"/>
       <c r="L24"/>
       <c r="M24"/>
-      <c r="N24" s="30"/>
+      <c r="N24" s="25"/>
       <c r="R24"/>
-      <c r="S24" s="30"/>
+      <c r="S24" s="25"/>
     </row>
     <row r="25" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25"/>
@@ -2687,9 +2659,9 @@
       <c r="K25"/>
       <c r="L25"/>
       <c r="M25"/>
-      <c r="N25" s="30"/>
+      <c r="N25" s="25"/>
       <c r="R25"/>
-      <c r="S25" s="30"/>
+      <c r="S25" s="25"/>
     </row>
     <row r="26" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26"/>
@@ -2705,9 +2677,9 @@
       <c r="K26"/>
       <c r="L26"/>
       <c r="M26"/>
-      <c r="N26" s="30"/>
+      <c r="N26" s="25"/>
       <c r="R26"/>
-      <c r="S26" s="30"/>
+      <c r="S26" s="25"/>
     </row>
     <row r="27" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27"/>
@@ -2723,9 +2695,9 @@
       <c r="K27"/>
       <c r="L27"/>
       <c r="M27"/>
-      <c r="N27" s="30"/>
+      <c r="N27" s="25"/>
       <c r="R27"/>
-      <c r="S27" s="30"/>
+      <c r="S27" s="25"/>
     </row>
     <row r="28" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28"/>
@@ -2741,9 +2713,9 @@
       <c r="K28"/>
       <c r="L28"/>
       <c r="M28"/>
-      <c r="N28" s="30"/>
+      <c r="N28" s="25"/>
       <c r="R28"/>
-      <c r="S28" s="30"/>
+      <c r="S28" s="25"/>
     </row>
     <row r="29" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29"/>
@@ -2759,9 +2731,9 @@
       <c r="K29"/>
       <c r="L29"/>
       <c r="M29"/>
-      <c r="N29" s="30"/>
+      <c r="N29" s="25"/>
       <c r="R29"/>
-      <c r="S29" s="30"/>
+      <c r="S29" s="25"/>
     </row>
     <row r="30" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30"/>
@@ -2777,9 +2749,9 @@
       <c r="K30"/>
       <c r="L30"/>
       <c r="M30"/>
-      <c r="N30" s="30"/>
+      <c r="N30" s="25"/>
       <c r="R30"/>
-      <c r="S30" s="30"/>
+      <c r="S30" s="25"/>
     </row>
     <row r="31" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31"/>
@@ -2795,9 +2767,9 @@
       <c r="K31"/>
       <c r="L31"/>
       <c r="M31"/>
-      <c r="N31" s="30"/>
+      <c r="N31" s="25"/>
       <c r="R31"/>
-      <c r="S31" s="30"/>
+      <c r="S31" s="25"/>
     </row>
     <row r="32" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32"/>
@@ -2813,9 +2785,9 @@
       <c r="K32"/>
       <c r="L32"/>
       <c r="M32"/>
-      <c r="N32" s="30"/>
+      <c r="N32" s="25"/>
       <c r="R32"/>
-      <c r="S32" s="30"/>
+      <c r="S32" s="25"/>
     </row>
     <row r="33" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33"/>
@@ -2831,9 +2803,9 @@
       <c r="K33"/>
       <c r="L33"/>
       <c r="M33"/>
-      <c r="N33" s="30"/>
+      <c r="N33" s="25"/>
       <c r="R33"/>
-      <c r="S33" s="30"/>
+      <c r="S33" s="25"/>
     </row>
     <row r="34" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34"/>
@@ -2849,9 +2821,9 @@
       <c r="K34"/>
       <c r="L34"/>
       <c r="M34"/>
-      <c r="N34" s="30"/>
+      <c r="N34" s="25"/>
       <c r="R34"/>
-      <c r="S34" s="30"/>
+      <c r="S34" s="25"/>
     </row>
     <row r="35" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35"/>
@@ -2867,9 +2839,9 @@
       <c r="K35"/>
       <c r="L35"/>
       <c r="M35"/>
-      <c r="N35" s="30"/>
+      <c r="N35" s="25"/>
       <c r="R35"/>
-      <c r="S35" s="30"/>
+      <c r="S35" s="25"/>
     </row>
     <row r="36" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36"/>
@@ -2885,9 +2857,9 @@
       <c r="K36"/>
       <c r="L36"/>
       <c r="M36"/>
-      <c r="N36" s="30"/>
+      <c r="N36" s="25"/>
       <c r="R36"/>
-      <c r="S36" s="30"/>
+      <c r="S36" s="25"/>
     </row>
     <row r="37" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37"/>
@@ -2903,9 +2875,9 @@
       <c r="K37"/>
       <c r="L37"/>
       <c r="M37"/>
-      <c r="N37" s="30"/>
+      <c r="N37" s="25"/>
       <c r="R37"/>
-      <c r="S37" s="30"/>
+      <c r="S37" s="25"/>
     </row>
     <row r="38" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38"/>
@@ -2921,9 +2893,9 @@
       <c r="K38"/>
       <c r="L38"/>
       <c r="M38"/>
-      <c r="N38" s="30"/>
+      <c r="N38" s="25"/>
       <c r="R38"/>
-      <c r="S38" s="30"/>
+      <c r="S38" s="25"/>
     </row>
     <row r="39" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39"/>
@@ -2939,9 +2911,9 @@
       <c r="K39"/>
       <c r="L39"/>
       <c r="M39"/>
-      <c r="N39" s="30"/>
+      <c r="N39" s="25"/>
       <c r="R39"/>
-      <c r="S39" s="30"/>
+      <c r="S39" s="25"/>
     </row>
     <row r="40" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40"/>
@@ -2957,9 +2929,9 @@
       <c r="K40"/>
       <c r="L40"/>
       <c r="M40"/>
-      <c r="N40" s="30"/>
+      <c r="N40" s="25"/>
       <c r="R40"/>
-      <c r="S40" s="30"/>
+      <c r="S40" s="25"/>
     </row>
     <row r="41" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41"/>
@@ -2975,9 +2947,9 @@
       <c r="K41"/>
       <c r="L41"/>
       <c r="M41"/>
-      <c r="N41" s="30"/>
+      <c r="N41" s="25"/>
       <c r="R41"/>
-      <c r="S41" s="30"/>
+      <c r="S41" s="25"/>
     </row>
     <row r="42" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42"/>
@@ -2993,9 +2965,9 @@
       <c r="K42"/>
       <c r="L42"/>
       <c r="M42"/>
-      <c r="N42" s="30"/>
+      <c r="N42" s="25"/>
       <c r="R42"/>
-      <c r="S42" s="30"/>
+      <c r="S42" s="25"/>
     </row>
     <row r="43" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43"/>
@@ -3011,9 +2983,9 @@
       <c r="K43"/>
       <c r="L43"/>
       <c r="M43"/>
-      <c r="N43" s="30"/>
+      <c r="N43" s="25"/>
       <c r="R43"/>
-      <c r="S43" s="30"/>
+      <c r="S43" s="25"/>
     </row>
     <row r="44" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44"/>
@@ -3029,9 +3001,9 @@
       <c r="K44"/>
       <c r="L44"/>
       <c r="M44"/>
-      <c r="N44" s="30"/>
+      <c r="N44" s="25"/>
       <c r="R44"/>
-      <c r="S44" s="30"/>
+      <c r="S44" s="25"/>
     </row>
     <row r="45" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45"/>
@@ -3047,9 +3019,9 @@
       <c r="K45"/>
       <c r="L45"/>
       <c r="M45"/>
-      <c r="N45" s="30"/>
+      <c r="N45" s="25"/>
       <c r="R45"/>
-      <c r="S45" s="30"/>
+      <c r="S45" s="25"/>
     </row>
     <row r="46" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46"/>
@@ -3065,9 +3037,9 @@
       <c r="K46"/>
       <c r="L46"/>
       <c r="M46"/>
-      <c r="N46" s="30"/>
+      <c r="N46" s="25"/>
       <c r="R46"/>
-      <c r="S46" s="30"/>
+      <c r="S46" s="25"/>
     </row>
     <row r="47" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47"/>
@@ -3083,9 +3055,9 @@
       <c r="K47"/>
       <c r="L47"/>
       <c r="M47"/>
-      <c r="N47" s="30"/>
+      <c r="N47" s="25"/>
       <c r="R47"/>
-      <c r="S47" s="30"/>
+      <c r="S47" s="25"/>
     </row>
     <row r="48" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48"/>
@@ -3101,9 +3073,9 @@
       <c r="K48"/>
       <c r="L48"/>
       <c r="M48"/>
-      <c r="N48" s="30"/>
+      <c r="N48" s="25"/>
       <c r="R48"/>
-      <c r="S48" s="30"/>
+      <c r="S48" s="25"/>
     </row>
     <row r="49" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49"/>
@@ -3119,9 +3091,9 @@
       <c r="K49"/>
       <c r="L49"/>
       <c r="M49"/>
-      <c r="N49" s="30"/>
+      <c r="N49" s="25"/>
       <c r="R49"/>
-      <c r="S49" s="30"/>
+      <c r="S49" s="25"/>
     </row>
     <row r="50" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50"/>
@@ -3137,9 +3109,9 @@
       <c r="K50"/>
       <c r="L50"/>
       <c r="M50"/>
-      <c r="N50" s="30"/>
+      <c r="N50" s="25"/>
       <c r="R50"/>
-      <c r="S50" s="30"/>
+      <c r="S50" s="25"/>
     </row>
     <row r="51" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51"/>
@@ -3155,9 +3127,9 @@
       <c r="K51"/>
       <c r="L51"/>
       <c r="M51"/>
-      <c r="N51" s="30"/>
+      <c r="N51" s="25"/>
       <c r="R51"/>
-      <c r="S51" s="30"/>
+      <c r="S51" s="25"/>
     </row>
     <row r="52" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52"/>
@@ -3173,9 +3145,9 @@
       <c r="K52"/>
       <c r="L52"/>
       <c r="M52"/>
-      <c r="N52" s="30"/>
+      <c r="N52" s="25"/>
       <c r="R52"/>
-      <c r="S52" s="30"/>
+      <c r="S52" s="25"/>
     </row>
     <row r="53" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53"/>
@@ -3191,9 +3163,9 @@
       <c r="K53"/>
       <c r="L53"/>
       <c r="M53"/>
-      <c r="N53" s="30"/>
+      <c r="N53" s="25"/>
       <c r="R53"/>
-      <c r="S53" s="30"/>
+      <c r="S53" s="25"/>
     </row>
     <row r="54" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54"/>
@@ -3209,9 +3181,9 @@
       <c r="K54"/>
       <c r="L54"/>
       <c r="M54"/>
-      <c r="N54" s="30"/>
+      <c r="N54" s="25"/>
       <c r="R54"/>
-      <c r="S54" s="30"/>
+      <c r="S54" s="25"/>
     </row>
     <row r="55" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55"/>
@@ -3227,9 +3199,9 @@
       <c r="K55"/>
       <c r="L55"/>
       <c r="M55"/>
-      <c r="N55" s="30"/>
+      <c r="N55" s="25"/>
       <c r="R55"/>
-      <c r="S55" s="30"/>
+      <c r="S55" s="25"/>
     </row>
     <row r="56" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56"/>
@@ -3245,9 +3217,9 @@
       <c r="K56"/>
       <c r="L56"/>
       <c r="M56"/>
-      <c r="N56" s="30"/>
+      <c r="N56" s="25"/>
       <c r="R56"/>
-      <c r="S56" s="30"/>
+      <c r="S56" s="25"/>
     </row>
     <row r="57" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57"/>
@@ -3263,9 +3235,9 @@
       <c r="K57"/>
       <c r="L57"/>
       <c r="M57"/>
-      <c r="N57" s="30"/>
+      <c r="N57" s="25"/>
       <c r="R57"/>
-      <c r="S57" s="30"/>
+      <c r="S57" s="25"/>
     </row>
     <row r="58" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58"/>
@@ -3281,9 +3253,9 @@
       <c r="K58"/>
       <c r="L58"/>
       <c r="M58"/>
-      <c r="N58" s="30"/>
+      <c r="N58" s="25"/>
       <c r="R58"/>
-      <c r="S58" s="30"/>
+      <c r="S58" s="25"/>
     </row>
     <row r="59" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59"/>
@@ -3299,9 +3271,9 @@
       <c r="K59"/>
       <c r="L59"/>
       <c r="M59"/>
-      <c r="N59" s="30"/>
+      <c r="N59" s="25"/>
       <c r="R59"/>
-      <c r="S59" s="30"/>
+      <c r="S59" s="25"/>
     </row>
     <row r="60" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60"/>
@@ -3317,9 +3289,9 @@
       <c r="K60"/>
       <c r="L60"/>
       <c r="M60"/>
-      <c r="N60" s="30"/>
+      <c r="N60" s="25"/>
       <c r="R60"/>
-      <c r="S60" s="30"/>
+      <c r="S60" s="25"/>
     </row>
     <row r="61" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61"/>
@@ -3335,9 +3307,9 @@
       <c r="K61"/>
       <c r="L61"/>
       <c r="M61"/>
-      <c r="N61" s="30"/>
+      <c r="N61" s="25"/>
       <c r="R61"/>
-      <c r="S61" s="30"/>
+      <c r="S61" s="25"/>
     </row>
     <row r="62" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62"/>
@@ -3353,9 +3325,9 @@
       <c r="K62"/>
       <c r="L62"/>
       <c r="M62"/>
-      <c r="N62" s="30"/>
+      <c r="N62" s="25"/>
       <c r="R62"/>
-      <c r="S62" s="30"/>
+      <c r="S62" s="25"/>
     </row>
     <row r="63" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63"/>
@@ -3371,9 +3343,9 @@
       <c r="K63"/>
       <c r="L63"/>
       <c r="M63"/>
-      <c r="N63" s="30"/>
+      <c r="N63" s="25"/>
       <c r="R63"/>
-      <c r="S63" s="30"/>
+      <c r="S63" s="25"/>
     </row>
     <row r="64" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64"/>
@@ -3389,9 +3361,9 @@
       <c r="K64"/>
       <c r="L64"/>
       <c r="M64"/>
-      <c r="N64" s="30"/>
+      <c r="N64" s="25"/>
       <c r="R64"/>
-      <c r="S64" s="30"/>
+      <c r="S64" s="25"/>
     </row>
     <row r="65" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65"/>
@@ -3407,9 +3379,9 @@
       <c r="K65"/>
       <c r="L65"/>
       <c r="M65"/>
-      <c r="N65" s="30"/>
+      <c r="N65" s="25"/>
       <c r="R65"/>
-      <c r="S65" s="30"/>
+      <c r="S65" s="25"/>
     </row>
     <row r="66" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66"/>
@@ -3425,9 +3397,9 @@
       <c r="K66"/>
       <c r="L66"/>
       <c r="M66"/>
-      <c r="N66" s="30"/>
+      <c r="N66" s="25"/>
       <c r="R66"/>
-      <c r="S66" s="30"/>
+      <c r="S66" s="25"/>
     </row>
     <row r="67" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67"/>
@@ -3443,9 +3415,9 @@
       <c r="K67"/>
       <c r="L67"/>
       <c r="M67"/>
-      <c r="N67" s="30"/>
+      <c r="N67" s="25"/>
       <c r="R67"/>
-      <c r="S67" s="30"/>
+      <c r="S67" s="25"/>
     </row>
     <row r="68" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68"/>
@@ -3461,9 +3433,9 @@
       <c r="K68"/>
       <c r="L68"/>
       <c r="M68"/>
-      <c r="N68" s="30"/>
+      <c r="N68" s="25"/>
       <c r="R68"/>
-      <c r="S68" s="30"/>
+      <c r="S68" s="25"/>
     </row>
     <row r="69" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69"/>
@@ -3479,9 +3451,9 @@
       <c r="K69"/>
       <c r="L69"/>
       <c r="M69"/>
-      <c r="N69" s="30"/>
+      <c r="N69" s="25"/>
       <c r="R69"/>
-      <c r="S69" s="30"/>
+      <c r="S69" s="25"/>
     </row>
     <row r="70" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70"/>
@@ -3497,9 +3469,9 @@
       <c r="K70"/>
       <c r="L70"/>
       <c r="M70"/>
-      <c r="N70" s="30"/>
+      <c r="N70" s="25"/>
       <c r="R70"/>
-      <c r="S70" s="30"/>
+      <c r="S70" s="25"/>
     </row>
     <row r="71" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71"/>
@@ -3515,9 +3487,9 @@
       <c r="K71"/>
       <c r="L71"/>
       <c r="M71"/>
-      <c r="N71" s="30"/>
+      <c r="N71" s="25"/>
       <c r="R71"/>
-      <c r="S71" s="30"/>
+      <c r="S71" s="25"/>
     </row>
     <row r="72" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72"/>
@@ -3533,9 +3505,9 @@
       <c r="K72"/>
       <c r="L72"/>
       <c r="M72"/>
-      <c r="N72" s="30"/>
+      <c r="N72" s="25"/>
       <c r="R72"/>
-      <c r="S72" s="30"/>
+      <c r="S72" s="25"/>
     </row>
     <row r="73" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73"/>
@@ -3551,9 +3523,9 @@
       <c r="K73"/>
       <c r="L73"/>
       <c r="M73"/>
-      <c r="N73" s="30"/>
+      <c r="N73" s="25"/>
       <c r="R73"/>
-      <c r="S73" s="30"/>
+      <c r="S73" s="25"/>
     </row>
     <row r="74" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74"/>
@@ -3569,9 +3541,9 @@
       <c r="K74"/>
       <c r="L74"/>
       <c r="M74"/>
-      <c r="N74" s="30"/>
+      <c r="N74" s="25"/>
       <c r="R74"/>
-      <c r="S74" s="30"/>
+      <c r="S74" s="25"/>
     </row>
     <row r="75" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75"/>
@@ -3587,9 +3559,9 @@
       <c r="K75"/>
       <c r="L75"/>
       <c r="M75"/>
-      <c r="N75" s="30"/>
+      <c r="N75" s="25"/>
       <c r="R75"/>
-      <c r="S75" s="30"/>
+      <c r="S75" s="25"/>
     </row>
     <row r="76" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76"/>
@@ -3605,9 +3577,9 @@
       <c r="K76"/>
       <c r="L76"/>
       <c r="M76"/>
-      <c r="N76" s="30"/>
+      <c r="N76" s="25"/>
       <c r="R76"/>
-      <c r="S76" s="30"/>
+      <c r="S76" s="25"/>
     </row>
     <row r="77" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77"/>
@@ -3623,9 +3595,9 @@
       <c r="K77"/>
       <c r="L77"/>
       <c r="M77"/>
-      <c r="N77" s="30"/>
+      <c r="N77" s="25"/>
       <c r="R77"/>
-      <c r="S77" s="30"/>
+      <c r="S77" s="25"/>
     </row>
     <row r="78" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78"/>
@@ -3641,9 +3613,9 @@
       <c r="K78"/>
       <c r="L78"/>
       <c r="M78"/>
-      <c r="N78" s="30"/>
+      <c r="N78" s="25"/>
       <c r="R78"/>
-      <c r="S78" s="30"/>
+      <c r="S78" s="25"/>
     </row>
     <row r="79" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79"/>
@@ -3659,9 +3631,9 @@
       <c r="K79"/>
       <c r="L79"/>
       <c r="M79"/>
-      <c r="N79" s="30"/>
+      <c r="N79" s="25"/>
       <c r="R79"/>
-      <c r="S79" s="30"/>
+      <c r="S79" s="25"/>
     </row>
     <row r="80" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80"/>
@@ -3677,9 +3649,9 @@
       <c r="K80"/>
       <c r="L80"/>
       <c r="M80"/>
-      <c r="N80" s="30"/>
+      <c r="N80" s="25"/>
       <c r="R80"/>
-      <c r="S80" s="30"/>
+      <c r="S80" s="25"/>
     </row>
     <row r="81" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81"/>
@@ -3695,9 +3667,9 @@
       <c r="K81"/>
       <c r="L81"/>
       <c r="M81"/>
-      <c r="N81" s="30"/>
+      <c r="N81" s="25"/>
       <c r="R81"/>
-      <c r="S81" s="30"/>
+      <c r="S81" s="25"/>
     </row>
     <row r="82" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82"/>
@@ -3713,9 +3685,9 @@
       <c r="K82"/>
       <c r="L82"/>
       <c r="M82"/>
-      <c r="N82" s="30"/>
+      <c r="N82" s="25"/>
       <c r="R82"/>
-      <c r="S82" s="30"/>
+      <c r="S82" s="25"/>
     </row>
     <row r="83" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83"/>
@@ -3731,9 +3703,9 @@
       <c r="K83"/>
       <c r="L83"/>
       <c r="M83"/>
-      <c r="N83" s="30"/>
+      <c r="N83" s="25"/>
       <c r="R83"/>
-      <c r="S83" s="30"/>
+      <c r="S83" s="25"/>
     </row>
     <row r="84" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84"/>
@@ -3749,9 +3721,9 @@
       <c r="K84"/>
       <c r="L84"/>
       <c r="M84"/>
-      <c r="N84" s="30"/>
+      <c r="N84" s="25"/>
       <c r="R84"/>
-      <c r="S84" s="30"/>
+      <c r="S84" s="25"/>
     </row>
     <row r="85" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85"/>
@@ -3767,9 +3739,9 @@
       <c r="K85"/>
       <c r="L85"/>
       <c r="M85"/>
-      <c r="N85" s="30"/>
+      <c r="N85" s="25"/>
       <c r="R85"/>
-      <c r="S85" s="30"/>
+      <c r="S85" s="25"/>
     </row>
     <row r="86" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86"/>
@@ -3785,9 +3757,9 @@
       <c r="K86"/>
       <c r="L86"/>
       <c r="M86"/>
-      <c r="N86" s="30"/>
+      <c r="N86" s="25"/>
       <c r="R86"/>
-      <c r="S86" s="30"/>
+      <c r="S86" s="25"/>
     </row>
     <row r="87" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87"/>
@@ -3803,9 +3775,9 @@
       <c r="K87"/>
       <c r="L87"/>
       <c r="M87"/>
-      <c r="N87" s="30"/>
+      <c r="N87" s="25"/>
       <c r="R87"/>
-      <c r="S87" s="30"/>
+      <c r="S87" s="25"/>
     </row>
     <row r="88" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88"/>
@@ -3821,9 +3793,9 @@
       <c r="K88"/>
       <c r="L88"/>
       <c r="M88"/>
-      <c r="N88" s="30"/>
+      <c r="N88" s="25"/>
       <c r="R88"/>
-      <c r="S88" s="30"/>
+      <c r="S88" s="25"/>
     </row>
     <row r="89" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89"/>
@@ -3839,9 +3811,9 @@
       <c r="K89"/>
       <c r="L89"/>
       <c r="M89"/>
-      <c r="N89" s="30"/>
+      <c r="N89" s="25"/>
       <c r="R89"/>
-      <c r="S89" s="30"/>
+      <c r="S89" s="25"/>
     </row>
     <row r="90" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90"/>
@@ -3857,9 +3829,9 @@
       <c r="K90"/>
       <c r="L90"/>
       <c r="M90"/>
-      <c r="N90" s="30"/>
+      <c r="N90" s="25"/>
       <c r="R90"/>
-      <c r="S90" s="30"/>
+      <c r="S90" s="25"/>
     </row>
     <row r="91" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91"/>
@@ -3875,9 +3847,9 @@
       <c r="K91"/>
       <c r="L91"/>
       <c r="M91"/>
-      <c r="N91" s="30"/>
+      <c r="N91" s="25"/>
       <c r="R91"/>
-      <c r="S91" s="30"/>
+      <c r="S91" s="25"/>
     </row>
     <row r="92" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92"/>
@@ -3893,9 +3865,9 @@
       <c r="K92"/>
       <c r="L92"/>
       <c r="M92"/>
-      <c r="N92" s="30"/>
+      <c r="N92" s="25"/>
       <c r="R92"/>
-      <c r="S92" s="30"/>
+      <c r="S92" s="25"/>
     </row>
     <row r="93" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93"/>
@@ -3911,9 +3883,9 @@
       <c r="K93"/>
       <c r="L93"/>
       <c r="M93"/>
-      <c r="N93" s="30"/>
+      <c r="N93" s="25"/>
       <c r="R93"/>
-      <c r="S93" s="30"/>
+      <c r="S93" s="25"/>
     </row>
     <row r="94" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94"/>
@@ -3929,9 +3901,9 @@
       <c r="K94"/>
       <c r="L94"/>
       <c r="M94"/>
-      <c r="N94" s="30"/>
+      <c r="N94" s="25"/>
       <c r="R94"/>
-      <c r="S94" s="30"/>
+      <c r="S94" s="25"/>
     </row>
     <row r="95" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95"/>
@@ -3947,9 +3919,9 @@
       <c r="K95"/>
       <c r="L95"/>
       <c r="M95"/>
-      <c r="N95" s="30"/>
+      <c r="N95" s="25"/>
       <c r="R95"/>
-      <c r="S95" s="30"/>
+      <c r="S95" s="25"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -3959,11 +3931,11 @@
     <mergeCell ref="B3:G3"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="H16 H8:H9">
+    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="H16 H8:H9" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
       <formula2>200</formula2>
     </dataValidation>
-    <dataValidation showErrorMessage="1" sqref="Q11 I10:I12 D10:D13 N11:N12 R11:R12"/>
+    <dataValidation showErrorMessage="1" sqref="Q11 I10:I12 D10:D13 N11:N12 R11:R12" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.43307086614173229" header="0.23622047244094491" footer="0.15748031496062992"/>
@@ -3976,7 +3948,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4001,7 +3973,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="15" t="s">
         <v>63</v>
       </c>
       <c r="B1" s="3"/>
@@ -4012,28 +3984,28 @@
       <c r="P2"/>
     </row>
     <row r="3" spans="1:19" s="8" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="81" t="s">
+      <c r="D3" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="M3" s="56" t="s">
+      <c r="M3" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="N3" s="55" t="s">
+      <c r="N3" s="49" t="s">
         <v>159</v>
       </c>
-      <c r="O3" s="81" t="s">
+      <c r="O3" s="75" t="s">
         <v>160</v>
       </c>
-      <c r="P3" s="81" t="s">
+      <c r="P3" s="75" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4041,66 +4013,62 @@
       <c r="A4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="21"/>
+      <c r="B4" s="16"/>
       <c r="M4"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
       <c r="P4"/>
       <c r="Q4"/>
       <c r="R4"/>
       <c r="S4"/>
     </row>
-    <row r="5" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="54" t="s">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="78" t="s">
+      <c r="D5" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="54" t="s">
+      <c r="M5" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="53" t="s">
+      <c r="N5" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="O5" s="53" t="s">
+      <c r="O5" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="P5" s="113" t="s">
+      <c r="P5" s="107" t="s">
         <v>153</v>
       </c>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
     </row>
     <row r="6" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="9"/>
       <c r="M6"/>
       <c r="N6"/>
       <c r="O6"/>
       <c r="P6"/>
       <c r="Q6"/>
-      <c r="R6" s="9"/>
+      <c r="R6"/>
       <c r="S6"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
@@ -4111,16 +4079,16 @@
     </row>
     <row r="9" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:19" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="80" t="s">
+      <c r="A10" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="52" t="s">
+      <c r="C10" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="52" t="s">
+      <c r="D10" s="6" t="s">
         <v>58</v>
       </c>
       <c r="E10" s="6" t="s">
@@ -4132,31 +4100,31 @@
       <c r="G10" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="K10" s="10" t="s">
+      <c r="K10" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="L10" s="10" t="s">
+      <c r="L10" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="M10" s="51" t="s">
+      <c r="M10" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="N10" s="81" t="s">
+      <c r="N10" s="75" t="s">
         <v>159</v>
       </c>
-      <c r="O10" s="81" t="s">
+      <c r="O10" s="75" t="s">
         <v>160</v>
       </c>
-      <c r="P10" s="81" t="s">
+      <c r="P10" s="75" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4172,58 +4140,55 @@
       <c r="R11"/>
       <c r="S11"/>
     </row>
-    <row r="12" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="17" t="s">
+      <c r="C12" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="H12" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="16" t="s">
+      <c r="I12" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J12" s="16" t="s">
+      <c r="J12" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="K12" s="16" t="s">
+      <c r="K12" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="L12" s="16" t="s">
+      <c r="L12" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="M12" s="79" t="s">
+      <c r="M12" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="N12" s="79" t="s">
+      <c r="N12" s="73" t="s">
         <v>155</v>
       </c>
-      <c r="O12" s="79" t="s">
+      <c r="O12" s="73" t="s">
         <v>156</v>
       </c>
-      <c r="P12" s="79" t="s">
+      <c r="P12" s="73" t="s">
         <v>157</v>
       </c>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15"/>
     </row>
     <row r="13" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -4235,28 +4200,28 @@
       <c r="P13"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
-      <c r="B14" s="13" t="str">
+      <c r="A14" s="9"/>
+      <c r="B14" s="10" t="str">
         <f ca="1">IF(A14&gt;0,SUMIF(OFFSET($A$12,0,0,$C$15,1),A14,OFFSET($A$12,0,9,$C$15,1)),"")</f>
         <v/>
       </c>
-      <c r="C14" s="12" t="str">
+      <c r="C14" s="9" t="str">
         <f ca="1">IF(A14&gt;0,RANK(B14,OFFSET(A$5,0,0,#REF!,2)),"")</f>
         <v/>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -4286,7 +4251,7 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="G6">
+    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="G6" xr:uid="{00000000-0002-0000-0900-000000000000}">
       <formula1>0</formula1>
       <formula2>200</formula2>
     </dataValidation>
@@ -4305,7 +4270,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4330,7 +4295,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="15" t="s">
         <v>64</v>
       </c>
       <c r="B1" s="3"/>
@@ -4341,28 +4306,28 @@
       <c r="P2"/>
     </row>
     <row r="3" spans="1:19" s="8" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="81" t="s">
+      <c r="D3" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="M3" s="56" t="s">
+      <c r="M3" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="N3" s="55" t="s">
+      <c r="N3" s="49" t="s">
         <v>159</v>
       </c>
-      <c r="O3" s="81" t="s">
+      <c r="O3" s="75" t="s">
         <v>160</v>
       </c>
-      <c r="P3" s="81" t="s">
+      <c r="P3" s="75" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4370,66 +4335,62 @@
       <c r="A4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="21"/>
+      <c r="B4" s="16"/>
       <c r="M4"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
       <c r="P4"/>
       <c r="Q4"/>
       <c r="R4"/>
       <c r="S4"/>
     </row>
-    <row r="5" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="54" t="s">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="78" t="s">
+      <c r="D5" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="M5" s="54" t="s">
+      <c r="M5" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="53" t="s">
+      <c r="N5" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="O5" s="53" t="s">
+      <c r="O5" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="P5" s="113" t="s">
+      <c r="P5" s="107" t="s">
         <v>153</v>
       </c>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
     </row>
     <row r="6" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="9"/>
       <c r="M6"/>
       <c r="N6"/>
       <c r="O6"/>
       <c r="P6"/>
       <c r="Q6"/>
-      <c r="R6" s="9"/>
+      <c r="R6"/>
       <c r="S6"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
@@ -4440,16 +4401,16 @@
     </row>
     <row r="9" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:19" ht="40.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="80" t="s">
+      <c r="A10" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="52" t="s">
+      <c r="C10" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="52" t="s">
+      <c r="D10" s="6" t="s">
         <v>58</v>
       </c>
       <c r="E10" s="6" t="s">
@@ -4461,31 +4422,31 @@
       <c r="G10" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="K10" s="10" t="s">
+      <c r="K10" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="L10" s="10" t="s">
+      <c r="L10" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="M10" s="51" t="s">
+      <c r="M10" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="N10" s="81" t="s">
+      <c r="N10" s="75" t="s">
         <v>159</v>
       </c>
-      <c r="O10" s="81" t="s">
+      <c r="O10" s="75" t="s">
         <v>160</v>
       </c>
-      <c r="P10" s="81" t="s">
+      <c r="P10" s="75" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4501,58 +4462,55 @@
       <c r="R11"/>
       <c r="S11"/>
     </row>
-    <row r="12" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="17" t="s">
+      <c r="C12" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="H12" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="16" t="s">
+      <c r="I12" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J12" s="16" t="s">
+      <c r="J12" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="K12" s="16" t="s">
+      <c r="K12" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="L12" s="16" t="s">
+      <c r="L12" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="M12" s="79" t="s">
+      <c r="M12" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="N12" s="79" t="s">
+      <c r="N12" s="73" t="s">
         <v>155</v>
       </c>
-      <c r="O12" s="79" t="s">
+      <c r="O12" s="73" t="s">
         <v>156</v>
       </c>
-      <c r="P12" s="79" t="s">
+      <c r="P12" s="73" t="s">
         <v>157</v>
       </c>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15"/>
     </row>
     <row r="13" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -4564,28 +4522,28 @@
       <c r="P13"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
-      <c r="B14" s="13" t="str">
+      <c r="A14" s="9"/>
+      <c r="B14" s="10" t="str">
         <f ca="1">IF(A14&gt;0,SUMIF(OFFSET($A$12,0,0,$C$15,1),A14,OFFSET($A$12,0,9,$C$15,1)),"")</f>
         <v/>
       </c>
-      <c r="C14" s="12" t="str">
+      <c r="C14" s="9" t="str">
         <f ca="1">IF(A14&gt;0,RANK(B14,OFFSET(A$5,0,0,#REF!,2)),"")</f>
         <v/>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -4615,7 +4573,7 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="G6">
+    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="G6" xr:uid="{00000000-0002-0000-0A00-000000000000}">
       <formula1>0</formula1>
       <formula2>200</formula2>
     </dataValidation>
@@ -4634,7 +4592,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4659,7 +4617,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="15" t="s">
         <v>65</v>
       </c>
       <c r="B1" s="3"/>
@@ -4670,31 +4628,31 @@
       <c r="P2"/>
     </row>
     <row r="3" spans="1:19" s="8" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="55" t="s">
+      <c r="D3" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="81" t="s">
+      <c r="E3" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="M3" s="56" t="s">
+      <c r="M3" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="N3" s="55" t="s">
+      <c r="N3" s="49" t="s">
         <v>159</v>
       </c>
-      <c r="O3" s="81" t="s">
+      <c r="O3" s="75" t="s">
         <v>160</v>
       </c>
-      <c r="P3" s="81" t="s">
+      <c r="P3" s="75" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4702,70 +4660,66 @@
       <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="21"/>
+      <c r="B4" s="16"/>
       <c r="M4"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
       <c r="P4"/>
       <c r="Q4"/>
       <c r="R4"/>
       <c r="S4"/>
     </row>
-    <row r="5" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="54" t="s">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="53" t="s">
+      <c r="D5" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="113" t="s">
+      <c r="E5" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="M5" s="54" t="s">
+      <c r="M5" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="53" t="s">
+      <c r="N5" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="O5" s="53" t="s">
+      <c r="O5" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="P5" s="113" t="s">
+      <c r="P5" s="107" t="s">
         <v>153</v>
       </c>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
     </row>
     <row r="6" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="9"/>
       <c r="M6"/>
       <c r="N6"/>
       <c r="O6"/>
       <c r="P6"/>
       <c r="Q6"/>
-      <c r="R6" s="9"/>
+      <c r="R6"/>
       <c r="S6"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
@@ -4777,16 +4731,16 @@
     </row>
     <row r="9" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:19" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="80" t="s">
+      <c r="A10" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="52" t="s">
+      <c r="C10" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="52" t="s">
+      <c r="D10" s="6" t="s">
         <v>58</v>
       </c>
       <c r="E10" s="6" t="s">
@@ -4798,31 +4752,31 @@
       <c r="G10" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="K10" s="10" t="s">
+      <c r="K10" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="L10" s="10" t="s">
+      <c r="L10" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="M10" s="51" t="s">
+      <c r="M10" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="N10" s="81" t="s">
+      <c r="N10" s="75" t="s">
         <v>159</v>
       </c>
-      <c r="O10" s="81" t="s">
+      <c r="O10" s="75" t="s">
         <v>160</v>
       </c>
-      <c r="P10" s="81" t="s">
+      <c r="P10" s="75" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4838,58 +4792,55 @@
       <c r="R11"/>
       <c r="S11"/>
     </row>
-    <row r="12" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="17" t="s">
+      <c r="C12" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="H12" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="16" t="s">
+      <c r="I12" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J12" s="16" t="s">
+      <c r="J12" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="K12" s="16" t="s">
+      <c r="K12" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="L12" s="16" t="s">
+      <c r="L12" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="M12" s="79" t="s">
+      <c r="M12" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="N12" s="79" t="s">
+      <c r="N12" s="73" t="s">
         <v>155</v>
       </c>
-      <c r="O12" s="79" t="s">
+      <c r="O12" s="73" t="s">
         <v>156</v>
       </c>
-      <c r="P12" s="79" t="s">
+      <c r="P12" s="73" t="s">
         <v>157</v>
       </c>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15"/>
     </row>
     <row r="13" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -4901,28 +4852,28 @@
       <c r="P13"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
-      <c r="B14" s="13" t="str">
+      <c r="A14" s="9"/>
+      <c r="B14" s="10" t="str">
         <f ca="1">IF(A14&gt;0,SUMIF(OFFSET($A$12,0,0,$C$15,1),A14,OFFSET($A$12,0,9,$C$15,1)),"")</f>
         <v/>
       </c>
-      <c r="C14" s="12" t="str">
+      <c r="C14" s="9" t="str">
         <f ca="1">IF(A14&gt;0,RANK(B14,OFFSET(A$5,0,0,#REF!,2)),"")</f>
         <v/>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -4960,7 +4911,7 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="G6">
+    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="G6" xr:uid="{00000000-0002-0000-0B00-000000000000}">
       <formula1>0</formula1>
       <formula2>200</formula2>
     </dataValidation>
@@ -4979,7 +4930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5013,207 +4964,205 @@
       </c>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:24" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+    <row r="2" spans="1:24" s="76" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="76" t="s">
         <v>130</v>
       </c>
-      <c r="J2" s="83"/>
-    </row>
-    <row r="3" spans="1:24" s="82" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="84"/>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
-      <c r="M3" s="84"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="84"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="85"/>
-      <c r="S3" s="84"/>
-      <c r="T3" s="84"/>
-      <c r="U3" s="85"/>
-      <c r="V3" s="85"/>
-    </row>
-    <row r="4" spans="1:24" s="95" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A4" s="86" t="s">
+      <c r="J2" s="77"/>
+    </row>
+    <row r="3" spans="1:24" s="76" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="78"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="78"/>
+      <c r="T3" s="78"/>
+      <c r="U3" s="79"/>
+      <c r="V3" s="79"/>
+    </row>
+    <row r="4" spans="1:24" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A4" s="80" t="s">
         <v>131</v>
       </c>
-      <c r="B4" s="87"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="89" t="s">
+      <c r="B4" s="81"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="83" t="s">
         <v>132</v>
       </c>
-      <c r="E4" s="90" t="s">
+      <c r="E4" s="84" t="s">
         <v>133</v>
       </c>
-      <c r="F4" s="89" t="s">
+      <c r="F4" s="83" t="s">
         <v>67</v>
       </c>
-      <c r="G4" s="91" t="s">
+      <c r="G4" s="85" t="s">
         <v>134</v>
       </c>
-      <c r="H4" s="92"/>
-      <c r="I4" s="89" t="s">
+      <c r="H4" s="86"/>
+      <c r="I4" s="83" t="s">
         <v>135</v>
       </c>
-      <c r="J4" s="86" t="s">
+      <c r="J4" s="80" t="s">
         <v>136</v>
       </c>
-      <c r="K4" s="93"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="86" t="s">
+      <c r="K4" s="87"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="82"/>
+      <c r="N4" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="O4" s="87"/>
-      <c r="P4" s="94"/>
-      <c r="Q4" s="86" t="s">
+      <c r="O4" s="81"/>
+      <c r="P4" s="88"/>
+      <c r="Q4" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="R4" s="87"/>
-      <c r="S4" s="86" t="s">
+      <c r="R4" s="81"/>
+      <c r="S4" s="80" t="s">
         <v>137</v>
       </c>
-      <c r="T4" s="93"/>
-      <c r="U4" s="86" t="s">
+      <c r="T4" s="87"/>
+      <c r="U4" s="80" t="s">
         <v>138</v>
       </c>
-      <c r="V4" s="94"/>
-      <c r="X4" s="88"/>
-    </row>
-    <row r="5" spans="1:24" s="100" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="96" t="s">
+      <c r="V4" s="88"/>
+      <c r="X4" s="82"/>
+    </row>
+    <row r="5" spans="1:24" s="94" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="90" t="s">
         <v>139</v>
       </c>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="98"/>
-      <c r="H5" s="97"/>
-      <c r="I5" s="98"/>
-      <c r="J5" s="97"/>
-      <c r="K5" s="99"/>
-      <c r="M5" s="99"/>
-    </row>
-    <row r="6" spans="1:24" s="109" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="101" t="s">
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="91"/>
+      <c r="K5" s="93"/>
+      <c r="M5" s="93"/>
+    </row>
+    <row r="6" spans="1:24" s="103" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="95" t="s">
         <v>140</v>
       </c>
-      <c r="B6" s="102"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="104" t="s">
+      <c r="B6" s="96"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="98" t="s">
         <v>141</v>
       </c>
-      <c r="E6" s="105" t="s">
+      <c r="E6" s="99" t="s">
         <v>142</v>
       </c>
-      <c r="F6" s="101" t="s">
+      <c r="F6" s="95" t="s">
         <v>143</v>
       </c>
-      <c r="G6" s="105" t="s">
+      <c r="G6" s="99" t="s">
         <v>150</v>
       </c>
-      <c r="H6" s="103"/>
-      <c r="I6" s="107" t="s">
+      <c r="H6" s="97"/>
+      <c r="I6" s="101" t="s">
         <v>144</v>
       </c>
-      <c r="J6" s="105" t="s">
+      <c r="J6" s="99" t="s">
         <v>151</v>
       </c>
-      <c r="K6" s="102"/>
-      <c r="L6" s="102"/>
-      <c r="M6" s="103"/>
-      <c r="N6" s="105" t="s">
+      <c r="K6" s="96"/>
+      <c r="L6" s="96"/>
+      <c r="M6" s="97"/>
+      <c r="N6" s="99" t="s">
         <v>145</v>
       </c>
-      <c r="O6" s="102"/>
-      <c r="P6" s="103"/>
-      <c r="Q6" s="101" t="s">
+      <c r="O6" s="96"/>
+      <c r="P6" s="97"/>
+      <c r="Q6" s="95" t="s">
         <v>146</v>
       </c>
-      <c r="R6" s="102"/>
-      <c r="S6" s="106" t="s">
+      <c r="R6" s="96"/>
+      <c r="S6" s="100" t="s">
         <v>147</v>
       </c>
-      <c r="T6" s="102"/>
-      <c r="U6" s="108" t="s">
+      <c r="T6" s="96"/>
+      <c r="U6" s="102" t="s">
         <v>148</v>
       </c>
-      <c r="V6" s="103"/>
-      <c r="X6" s="103"/>
-    </row>
-    <row r="7" spans="1:24" s="109" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="109" t="s">
+      <c r="V6" s="97"/>
+      <c r="X6" s="97"/>
+    </row>
+    <row r="7" spans="1:24" s="103" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="97"/>
-      <c r="C7" s="97"/>
-      <c r="D7" s="97"/>
-      <c r="E7" s="98"/>
-      <c r="F7" s="98"/>
-      <c r="G7" s="98"/>
-      <c r="H7" s="98"/>
-      <c r="I7" s="110"/>
-      <c r="J7" s="111"/>
-      <c r="K7" s="110"/>
-      <c r="L7" s="112"/>
-      <c r="M7" s="110"/>
-      <c r="N7" s="112"/>
-      <c r="O7" s="97"/>
+      <c r="B7" s="91"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="92"/>
+      <c r="H7" s="92"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="106"/>
+      <c r="M7" s="104"/>
+      <c r="N7" s="106"/>
+      <c r="O7" s="91"/>
       <c r="W7"/>
     </row>
-    <row r="8" spans="1:24" s="109" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="109" t="s">
+    <row r="8" spans="1:24" s="103" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="103" t="s">
         <v>149</v>
       </c>
-      <c r="B8" s="97"/>
-      <c r="C8" s="97"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="110"/>
-      <c r="J8" s="111"/>
-      <c r="K8" s="110"/>
-      <c r="L8" s="112"/>
-      <c r="M8" s="110"/>
-      <c r="N8" s="112"/>
-      <c r="O8" s="97"/>
+      <c r="B8" s="91"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="92"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="106"/>
+      <c r="M8" s="104"/>
+      <c r="N8" s="106"/>
+      <c r="O8" s="91"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:F3">
-    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
+  <conditionalFormatting sqref="C5:D5">
+    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
       <formula>AND((#REF!),#REF!,#REF!)</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5:D5">
     <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>AND((#REF!),#REF!,#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:D5">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+  <conditionalFormatting sqref="D1:F3">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>AND((#REF!),#REF!,#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5" xr:uid="{00000000-0002-0000-0C00-000000000000}">
       <formula1>0</formula1>
       <formula2>200</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="H1:H3">
+    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="H1:H3" xr:uid="{00000000-0002-0000-0C00-000001000000}">
       <formula1>0</formula1>
       <formula2>200</formula2>
     </dataValidation>
@@ -5229,7 +5178,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -6869,7 +6818,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -6894,7 +6843,7 @@
     <col min="11" max="11" width="6.28515625" style="1" customWidth="1"/>
     <col min="12" max="12" width="6.140625" style="1" customWidth="1"/>
     <col min="13" max="13" width="6.140625" customWidth="1"/>
-    <col min="14" max="14" width="7" style="30" customWidth="1"/>
+    <col min="14" max="14" width="7" style="25" customWidth="1"/>
     <col min="15" max="15" width="6.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="6.42578125" style="1" customWidth="1"/>
     <col min="17" max="17" width="6.5703125" style="1" customWidth="1"/>
@@ -6905,146 +6854,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="117" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="118" t="s">
+      <c r="B1" s="119" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="120" t="s">
+      <c r="C1" s="121" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="122" t="s">
+      <c r="D1" s="123" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="124" t="s">
+      <c r="E1" s="110" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="124" t="s">
+      <c r="F1" s="110" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="124" t="s">
+      <c r="G1" s="110" t="s">
         <v>69</v>
       </c>
-      <c r="H1" s="124" t="s">
+      <c r="H1" s="110" t="s">
         <v>70</v>
       </c>
-      <c r="I1" s="126" t="s">
+      <c r="I1" s="112" t="s">
         <v>71</v>
       </c>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="126" t="s">
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
+      <c r="M1" s="113"/>
+      <c r="N1" s="112" t="s">
         <v>72</v>
       </c>
-      <c r="O1" s="127"/>
-      <c r="P1" s="127"/>
-      <c r="Q1" s="127"/>
-      <c r="R1" s="127"/>
-      <c r="S1" s="128" t="s">
+      <c r="O1" s="113"/>
+      <c r="P1" s="113"/>
+      <c r="Q1" s="113"/>
+      <c r="R1" s="113"/>
+      <c r="S1" s="114" t="s">
         <v>73</v>
       </c>
-      <c r="T1" s="129"/>
+      <c r="T1" s="115"/>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="117"/>
-      <c r="B2" s="119"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="125"/>
-      <c r="I2" s="41">
+      <c r="A2" s="118"/>
+      <c r="B2" s="120"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="36">
         <v>1</v>
       </c>
-      <c r="J2" s="22">
+      <c r="J2" s="17">
         <v>2</v>
       </c>
-      <c r="K2" s="22">
+      <c r="K2" s="17">
         <v>3</v>
       </c>
-      <c r="L2" s="40" t="s">
+      <c r="L2" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="M2" s="69" t="s">
+      <c r="M2" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="N2" s="22">
+      <c r="N2" s="17">
         <v>1</v>
       </c>
-      <c r="O2" s="22">
+      <c r="O2" s="17">
         <v>2</v>
       </c>
-      <c r="P2" s="22">
+      <c r="P2" s="17">
         <v>3</v>
       </c>
-      <c r="Q2" s="40" t="s">
+      <c r="Q2" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="R2" s="69" t="s">
+      <c r="R2" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="S2" s="39" t="s">
+      <c r="S2" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="T2" s="69" t="s">
+      <c r="T2" s="63" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:23" s="24" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="70" t="s">
+    <row r="3" spans="1:23" s="19" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="73"/>
-    </row>
-    <row r="4" spans="1:23" s="24" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="71"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="73"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="67"/>
+    </row>
+    <row r="4" spans="1:23" s="19" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="65"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="67"/>
     </row>
     <row r="5" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="B5" s="75"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="77"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="70"/>
+      <c r="T5" s="71"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
@@ -7069,63 +7018,63 @@
       <c r="R6"/>
       <c r="T6"/>
     </row>
-    <row r="7" spans="1:23" s="24" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="38" t="s">
+    <row r="7" spans="1:23" s="19" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="37" t="s">
+      <c r="B7" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="35" t="s">
+      <c r="D7" s="18"/>
+      <c r="E7" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="36" t="s">
+      <c r="F7" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="35" t="s">
+      <c r="G7" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="34" t="s">
+      <c r="H7" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="I7" s="33" t="s">
+      <c r="I7" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="J7" s="33" t="s">
+      <c r="J7" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="K7" s="33" t="s">
+      <c r="K7" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="L7" s="32" t="s">
+      <c r="L7" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="68" t="s">
+      <c r="M7" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="N7" s="33" t="s">
+      <c r="N7" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="O7" s="33" t="s">
+      <c r="O7" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="P7" s="33" t="s">
+      <c r="P7" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="Q7" s="32" t="s">
+      <c r="Q7" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="R7" s="68" t="s">
+      <c r="R7" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="S7" s="31" t="s">
+      <c r="S7" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="T7" s="67" t="s">
+      <c r="T7" s="61" t="s">
         <v>117</v>
       </c>
     </row>
@@ -7177,7 +7126,7 @@
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B13" s="25"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
@@ -7185,11 +7134,11 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1"/>
-      <c r="R15" s="130"/>
+      <c r="R15" s="116"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C16" s="1"/>
-      <c r="R16" s="130"/>
+      <c r="R16" s="116"/>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C17" s="1"/>
@@ -7467,11 +7416,6 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="12">
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="S1:T1"/>
     <mergeCell ref="R15:R16"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -7479,33 +7423,36 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="S1:T1"/>
   </mergeCells>
   <conditionalFormatting sqref="B8:C8">
-    <cfRule type="expression" dxfId="19" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="4" stopIfTrue="1">
+      <formula>AND((#REF!),#REF!,#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9:C9">
+    <cfRule type="expression" dxfId="15" priority="1" stopIfTrue="1">
       <formula>AND((#REF!),#REF!,#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:D4">
-    <cfRule type="expression" dxfId="18" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="2" stopIfTrue="1">
       <formula>AND((#REF!),#REF!,#REF!)</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3:D4">
-    <cfRule type="expression" dxfId="17" priority="2" stopIfTrue="1">
-      <formula>AND((#REF!),#REF!,#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9:C9">
-    <cfRule type="expression" dxfId="16" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="3" stopIfTrue="1">
       <formula>AND((#REF!),#REF!,#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I4">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>0</formula1>
       <formula2>200</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="F7:F9">
+    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="F7:F9" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>0</formula1>
       <formula2>200</formula2>
     </dataValidation>
@@ -7521,7 +7468,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -7543,105 +7490,105 @@
     <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
     <col min="9" max="12" width="7.7109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="7.7109375" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" style="30" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" style="25" customWidth="1"/>
     <col min="15" max="17" width="7.7109375" style="1" customWidth="1"/>
     <col min="18" max="18" width="10" style="1" customWidth="1"/>
     <col min="19" max="19" width="10" customWidth="1"/>
-    <col min="20" max="20" width="8.42578125" style="30" customWidth="1"/>
+    <col min="20" max="20" width="8.42578125" style="25" customWidth="1"/>
     <col min="21" max="22" width="10.140625" style="1" customWidth="1"/>
     <col min="23" max="23" width="0" style="1" hidden="1" customWidth="1"/>
     <col min="24" max="24" width="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="125" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="136" t="s">
+      <c r="B1" s="125" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="138" t="s">
+      <c r="C1" s="127" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="122" t="s">
+      <c r="D1" s="123" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="124" t="s">
+      <c r="E1" s="110" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="131" t="s">
+      <c r="F1" s="133" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="132" t="s">
+      <c r="G1" s="134" t="s">
         <v>69</v>
       </c>
-      <c r="H1" s="133" t="s">
+      <c r="H1" s="135" t="s">
         <v>70</v>
       </c>
-      <c r="I1" s="135" t="s">
+      <c r="I1" s="137" t="s">
         <v>71</v>
       </c>
-      <c r="J1" s="135"/>
-      <c r="K1" s="135"/>
-      <c r="L1" s="135"/>
-      <c r="M1" s="135" t="s">
+      <c r="J1" s="137"/>
+      <c r="K1" s="137"/>
+      <c r="L1" s="137"/>
+      <c r="M1" s="137" t="s">
         <v>72</v>
       </c>
-      <c r="N1" s="135"/>
-      <c r="O1" s="135"/>
-      <c r="P1" s="135"/>
-      <c r="Q1" s="141" t="s">
+      <c r="N1" s="137"/>
+      <c r="O1" s="137"/>
+      <c r="P1" s="137"/>
+      <c r="Q1" s="130" t="s">
         <v>73</v>
       </c>
-      <c r="R1" s="143" t="s">
+      <c r="R1" s="132" t="s">
         <v>76</v>
       </c>
-      <c r="S1" s="143"/>
-      <c r="T1" s="143"/>
+      <c r="S1" s="132"/>
+      <c r="T1" s="132"/>
       <c r="V1"/>
       <c r="W1"/>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="137"/>
-      <c r="B2" s="137"/>
-      <c r="C2" s="139"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="132"/>
-      <c r="H2" s="134"/>
-      <c r="I2" s="22">
+      <c r="A2" s="126"/>
+      <c r="B2" s="126"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="17">
         <v>1</v>
       </c>
-      <c r="J2" s="22">
+      <c r="J2" s="17">
         <v>2</v>
       </c>
-      <c r="K2" s="22">
+      <c r="K2" s="17">
         <v>3</v>
       </c>
-      <c r="L2" s="40" t="s">
+      <c r="L2" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="22">
+      <c r="M2" s="17">
         <v>1</v>
       </c>
-      <c r="N2" s="22">
+      <c r="N2" s="17">
         <v>2</v>
       </c>
-      <c r="O2" s="22">
+      <c r="O2" s="17">
         <v>3</v>
       </c>
-      <c r="P2" s="49" t="s">
+      <c r="P2" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="142"/>
-      <c r="R2" s="48" t="s">
+      <c r="Q2" s="131"/>
+      <c r="R2" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="S2" s="42" t="s">
+      <c r="S2" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="T2" s="47" t="s">
+      <c r="T2" s="42" t="s">
         <v>75</v>
       </c>
     </row>
@@ -7668,66 +7615,66 @@
       <c r="V3"/>
       <c r="W3"/>
     </row>
-    <row r="4" spans="1:23" s="24" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="38" t="s">
+    <row r="4" spans="1:23" s="19" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="46" t="s">
+      <c r="B4" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="35" t="s">
+      <c r="D4" s="18"/>
+      <c r="E4" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="36" t="s">
+      <c r="F4" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="35" t="s">
+      <c r="G4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="34" t="s">
+      <c r="H4" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="33" t="s">
+      <c r="I4" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="33" t="s">
+      <c r="J4" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="33" t="s">
+      <c r="K4" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="32" t="s">
+      <c r="L4" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="33" t="s">
+      <c r="M4" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="N4" s="33" t="s">
+      <c r="N4" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="O4" s="33" t="s">
+      <c r="O4" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="P4" s="32" t="s">
+      <c r="P4" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="Q4" s="31" t="s">
+      <c r="Q4" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="R4" s="44" t="s">
+      <c r="R4" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="S4" s="45" t="s">
+      <c r="S4" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="T4" s="43" t="s">
+      <c r="T4" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="W4" s="26" t="s">
+      <c r="W4" s="21" t="s">
         <v>44</v>
       </c>
     </row>
@@ -7761,7 +7708,7 @@
       <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B8" s="25"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
@@ -7769,11 +7716,11 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1"/>
-      <c r="R10" s="130"/>
+      <c r="R10" s="116"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1"/>
-      <c r="R11" s="130"/>
+      <c r="R11" s="116"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1"/>
@@ -8051,11 +7998,6 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="13">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="R1:T1"/>
     <mergeCell ref="R10:R11"/>
     <mergeCell ref="E1:E2"/>
@@ -8064,14 +8006,19 @@
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:L1"/>
     <mergeCell ref="M1:P1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:C4">
-    <cfRule type="expression" dxfId="15" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="1" stopIfTrue="1">
       <formula>AND(("$'Hommes Sinclair'.$#REF!$#REF!"),"$'Hommes Sinclair'.$#REF!$#REF!","$'Hommes Sinclair'.$#REF!$#REF!")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="F4:F5">
+    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="F4:F5" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>0</formula1>
       <formula2>200</formula2>
     </dataValidation>
@@ -8087,7 +8034,563 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:V102"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="23" customWidth="1"/>
+    <col min="9" max="12" width="7.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" style="25" customWidth="1"/>
+    <col min="15" max="17" width="7.7109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10" style="1" customWidth="1"/>
+    <col min="19" max="19" width="10" customWidth="1"/>
+    <col min="20" max="21" width="10.140625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="125" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="125" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="127" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="123" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="110" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="133" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="134" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="138" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="137" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" s="137"/>
+      <c r="K1" s="137"/>
+      <c r="L1" s="137"/>
+      <c r="M1" s="137" t="s">
+        <v>72</v>
+      </c>
+      <c r="N1" s="137"/>
+      <c r="O1" s="137"/>
+      <c r="P1" s="137"/>
+      <c r="Q1" s="130" t="s">
+        <v>73</v>
+      </c>
+      <c r="R1" s="132" t="s">
+        <v>162</v>
+      </c>
+      <c r="S1" s="132"/>
+      <c r="U1"/>
+      <c r="V1"/>
+    </row>
+    <row r="2" spans="1:22" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="126"/>
+      <c r="B2" s="126"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="17">
+        <v>1</v>
+      </c>
+      <c r="J2" s="17">
+        <v>2</v>
+      </c>
+      <c r="K2" s="17">
+        <v>3</v>
+      </c>
+      <c r="L2" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="17">
+        <v>1</v>
+      </c>
+      <c r="N2" s="17">
+        <v>2</v>
+      </c>
+      <c r="O2" s="17">
+        <v>3</v>
+      </c>
+      <c r="P2" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" s="131"/>
+      <c r="R2" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="S2" s="42" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3" s="22"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+    </row>
+    <row r="4" spans="1:22" s="19" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="18"/>
+      <c r="E4" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="P4" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q4" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="R4" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="S4" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="V4" s="21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5" s="22"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B8" s="20"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C10" s="1"/>
+      <c r="R10" s="116"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C11" s="1"/>
+      <c r="R11" s="116"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C40" s="1"/>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C41" s="1"/>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C43" s="1"/>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C44" s="1"/>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C45" s="1"/>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C46" s="1"/>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C47" s="1"/>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C48" s="1"/>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C49" s="1"/>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C50" s="1"/>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C51" s="1"/>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C52" s="1"/>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C53" s="1"/>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C54" s="1"/>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C55" s="1"/>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C56" s="1"/>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C57" s="1"/>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C58" s="1"/>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C59" s="1"/>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C60" s="1"/>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C61" s="1"/>
+    </row>
+    <row r="62" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C62" s="1"/>
+    </row>
+    <row r="63" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C63" s="1"/>
+    </row>
+    <row r="64" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C64" s="1"/>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C65" s="1"/>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C66" s="1"/>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C67" s="1"/>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C68" s="1"/>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C69" s="1"/>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C70" s="1"/>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C71" s="1"/>
+    </row>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C72" s="1"/>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C73" s="1"/>
+    </row>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C74" s="1"/>
+    </row>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C75" s="1"/>
+    </row>
+    <row r="76" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C76" s="1"/>
+    </row>
+    <row r="77" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C77" s="1"/>
+    </row>
+    <row r="78" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C78" s="1"/>
+    </row>
+    <row r="79" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C79" s="1"/>
+    </row>
+    <row r="80" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C80" s="1"/>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C81" s="1"/>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C82" s="1"/>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C83" s="1"/>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C84" s="1"/>
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C85" s="1"/>
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C86" s="1"/>
+    </row>
+    <row r="87" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C87" s="1"/>
+    </row>
+    <row r="88" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C88" s="1"/>
+    </row>
+    <row r="89" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C89" s="1"/>
+    </row>
+    <row r="90" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C90" s="1"/>
+    </row>
+    <row r="91" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C91" s="1"/>
+    </row>
+    <row r="92" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C92" s="1"/>
+    </row>
+    <row r="93" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C93" s="1"/>
+    </row>
+    <row r="94" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C94" s="1"/>
+    </row>
+    <row r="95" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C95" s="1"/>
+    </row>
+    <row r="96" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C96" s="1"/>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C97" s="1"/>
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C98" s="1"/>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C99" s="1"/>
+    </row>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C100" s="1"/>
+    </row>
+    <row r="101" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C101" s="1"/>
+    </row>
+    <row r="102" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C102" s="1"/>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <mergeCells count="13">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:S1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B4:C4">
+    <cfRule type="expression" dxfId="11" priority="1" stopIfTrue="1">
+      <formula>AND(("$'Hommes Sinclair'.$#REF!$#REF!"),"$'Hommes Sinclair'.$#REF!$#REF!","$'Hommes Sinclair'.$#REF!$#REF!")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="F4:F5" xr:uid="{00000000-0002-0000-0300-000000000000}">
+      <formula1>0</formula1>
+      <formula2>200</formula2>
+    </dataValidation>
+  </dataValidations>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.43307086614173229" header="0.23622047244094491" footer="0.15748031496062992"/>
+  <pageSetup scale="73" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;L&amp;14Classement Sinclair - Sinclair Ranking&amp;R&amp;14Hommes - Men</oddHeader>
+    <oddFooter>&amp;R&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -8106,10 +8609,10 @@
     <col min="5" max="5" width="9.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="7.28515625" style="1" customWidth="1"/>
     <col min="7" max="7" width="7.42578125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="28" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="23" customWidth="1"/>
     <col min="9" max="12" width="7.7109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="7.7109375" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" style="30" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" style="25" customWidth="1"/>
     <col min="15" max="17" width="7.7109375" style="1" customWidth="1"/>
     <col min="18" max="18" width="10" style="1" customWidth="1"/>
     <col min="19" max="19" width="10" customWidth="1"/>
@@ -8119,90 +8622,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="125" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="136" t="s">
+      <c r="B1" s="125" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="138" t="s">
+      <c r="C1" s="127" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="122" t="s">
+      <c r="D1" s="123" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="124" t="s">
+      <c r="E1" s="110" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="131" t="s">
+      <c r="F1" s="133" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="132" t="s">
+      <c r="G1" s="134" t="s">
         <v>69</v>
       </c>
-      <c r="H1" s="144" t="s">
+      <c r="H1" s="138" t="s">
         <v>70</v>
       </c>
-      <c r="I1" s="135" t="s">
+      <c r="I1" s="137" t="s">
         <v>71</v>
       </c>
-      <c r="J1" s="135"/>
-      <c r="K1" s="135"/>
-      <c r="L1" s="135"/>
-      <c r="M1" s="135" t="s">
+      <c r="J1" s="137"/>
+      <c r="K1" s="137"/>
+      <c r="L1" s="137"/>
+      <c r="M1" s="137" t="s">
         <v>72</v>
       </c>
-      <c r="N1" s="135"/>
-      <c r="O1" s="135"/>
-      <c r="P1" s="135"/>
-      <c r="Q1" s="141" t="s">
+      <c r="N1" s="137"/>
+      <c r="O1" s="137"/>
+      <c r="P1" s="137"/>
+      <c r="Q1" s="130" t="s">
         <v>73</v>
       </c>
-      <c r="R1" s="143" t="s">
-        <v>162</v>
-      </c>
-      <c r="S1" s="143"/>
+      <c r="R1" s="132" t="s">
+        <v>53</v>
+      </c>
+      <c r="S1" s="132"/>
       <c r="U1"/>
       <c r="V1"/>
     </row>
     <row r="2" spans="1:22" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="137"/>
-      <c r="B2" s="137"/>
-      <c r="C2" s="139"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="132"/>
-      <c r="H2" s="144"/>
-      <c r="I2" s="22">
+      <c r="A2" s="126"/>
+      <c r="B2" s="126"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="17">
         <v>1</v>
       </c>
-      <c r="J2" s="22">
+      <c r="J2" s="17">
         <v>2</v>
       </c>
-      <c r="K2" s="22">
+      <c r="K2" s="17">
         <v>3</v>
       </c>
-      <c r="L2" s="40" t="s">
+      <c r="L2" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="22">
+      <c r="M2" s="17">
         <v>1</v>
       </c>
-      <c r="N2" s="22">
+      <c r="N2" s="17">
         <v>2</v>
       </c>
-      <c r="O2" s="22">
+      <c r="O2" s="17">
         <v>3</v>
       </c>
-      <c r="P2" s="49" t="s">
+      <c r="P2" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="142"/>
-      <c r="R2" s="48" t="s">
-        <v>162</v>
-      </c>
-      <c r="S2" s="47" t="s">
+      <c r="Q2" s="131"/>
+      <c r="R2" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="S2" s="42" t="s">
         <v>75</v>
       </c>
     </row>
@@ -8214,7 +8717,7 @@
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3"/>
-      <c r="H3" s="27"/>
+      <c r="H3" s="22"/>
       <c r="I3"/>
       <c r="J3"/>
       <c r="K3"/>
@@ -8228,63 +8731,63 @@
       <c r="U3"/>
       <c r="V3"/>
     </row>
-    <row r="4" spans="1:22" s="24" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="38" t="s">
+    <row r="4" spans="1:22" s="19" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="46" t="s">
+      <c r="B4" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="35" t="s">
+      <c r="D4" s="18"/>
+      <c r="E4" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="36" t="s">
+      <c r="F4" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="35" t="s">
+      <c r="G4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="34" t="s">
+      <c r="H4" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="33" t="s">
+      <c r="I4" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="33" t="s">
+      <c r="J4" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="33" t="s">
+      <c r="K4" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="32" t="s">
+      <c r="L4" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="33" t="s">
+      <c r="M4" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="N4" s="33" t="s">
+      <c r="N4" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="O4" s="33" t="s">
+      <c r="O4" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="P4" s="32" t="s">
+      <c r="P4" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="Q4" s="31" t="s">
+      <c r="Q4" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="R4" s="45" t="s">
-        <v>163</v>
-      </c>
-      <c r="S4" s="50" t="s">
+      <c r="R4" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="S4" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="V4" s="26" t="s">
+      <c r="V4" s="21" t="s">
         <v>44</v>
       </c>
     </row>
@@ -8296,7 +8799,7 @@
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5"/>
-      <c r="H5" s="27"/>
+      <c r="H5" s="22"/>
       <c r="I5"/>
       <c r="J5"/>
       <c r="K5"/>
@@ -8317,7 +8820,7 @@
       <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B8" s="25"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
@@ -8325,11 +8828,11 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1"/>
-      <c r="R10" s="130"/>
+      <c r="R10" s="116"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1"/>
-      <c r="R11" s="130"/>
+      <c r="R11" s="116"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1"/>
@@ -8607,567 +9110,6 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="13">
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-  </mergeCells>
-  <conditionalFormatting sqref="B4:C4">
-    <cfRule type="expression" dxfId="14" priority="1" stopIfTrue="1">
-      <formula>AND(("$'Hommes Sinclair'.$#REF!$#REF!"),"$'Hommes Sinclair'.$#REF!$#REF!","$'Hommes Sinclair'.$#REF!$#REF!")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="F4:F5">
-      <formula1>0</formula1>
-      <formula2>200</formula2>
-    </dataValidation>
-  </dataValidations>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.43307086614173229" header="0.23622047244094491" footer="0.15748031496062992"/>
-  <pageSetup scale="73" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;14Classement Sinclair - Sinclair Ranking&amp;R&amp;14Hommes - Men</oddHeader>
-    <oddFooter>&amp;R&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:V102"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5.28515625" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="28" customWidth="1"/>
-    <col min="9" max="12" width="7.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="7.7109375" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" style="30" customWidth="1"/>
-    <col min="15" max="17" width="7.7109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="10" style="1" customWidth="1"/>
-    <col min="19" max="19" width="10" customWidth="1"/>
-    <col min="20" max="21" width="10.140625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="136" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="136" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" s="138" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="122" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="124" t="s">
-        <v>67</v>
-      </c>
-      <c r="F1" s="131" t="s">
-        <v>68</v>
-      </c>
-      <c r="G1" s="132" t="s">
-        <v>69</v>
-      </c>
-      <c r="H1" s="144" t="s">
-        <v>70</v>
-      </c>
-      <c r="I1" s="135" t="s">
-        <v>71</v>
-      </c>
-      <c r="J1" s="135"/>
-      <c r="K1" s="135"/>
-      <c r="L1" s="135"/>
-      <c r="M1" s="135" t="s">
-        <v>72</v>
-      </c>
-      <c r="N1" s="135"/>
-      <c r="O1" s="135"/>
-      <c r="P1" s="135"/>
-      <c r="Q1" s="141" t="s">
-        <v>73</v>
-      </c>
-      <c r="R1" s="143" t="s">
-        <v>53</v>
-      </c>
-      <c r="S1" s="143"/>
-      <c r="U1"/>
-      <c r="V1"/>
-    </row>
-    <row r="2" spans="1:22" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="137"/>
-      <c r="B2" s="137"/>
-      <c r="C2" s="139"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="132"/>
-      <c r="H2" s="144"/>
-      <c r="I2" s="22">
-        <v>1</v>
-      </c>
-      <c r="J2" s="22">
-        <v>2</v>
-      </c>
-      <c r="K2" s="22">
-        <v>3</v>
-      </c>
-      <c r="L2" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" s="22">
-        <v>1</v>
-      </c>
-      <c r="N2" s="22">
-        <v>2</v>
-      </c>
-      <c r="O2" s="22">
-        <v>3</v>
-      </c>
-      <c r="P2" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q2" s="142"/>
-      <c r="R2" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="S2" s="47" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3" s="27"/>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="N3"/>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3"/>
-      <c r="T3"/>
-      <c r="U3"/>
-      <c r="V3"/>
-    </row>
-    <row r="4" spans="1:22" s="24" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="L4" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="M4" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="N4" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="O4" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="P4" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q4" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="R4" s="45" t="s">
-        <v>46</v>
-      </c>
-      <c r="S4" s="50" t="s">
-        <v>118</v>
-      </c>
-      <c r="V4" s="26" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5" s="27"/>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B8" s="25"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C10" s="1"/>
-      <c r="R10" s="130"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C11" s="1"/>
-      <c r="R11" s="130"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C31" s="1"/>
-    </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C32" s="1"/>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C33" s="1"/>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C34" s="1"/>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C35" s="1"/>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C36" s="1"/>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C37" s="1"/>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C38" s="1"/>
-    </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C39" s="1"/>
-    </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C40" s="1"/>
-    </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C41" s="1"/>
-    </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C42" s="1"/>
-    </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C43" s="1"/>
-    </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C44" s="1"/>
-    </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C45" s="1"/>
-    </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C46" s="1"/>
-    </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C47" s="1"/>
-    </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C48" s="1"/>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C49" s="1"/>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C50" s="1"/>
-    </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C51" s="1"/>
-    </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C52" s="1"/>
-    </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C53" s="1"/>
-    </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C54" s="1"/>
-    </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C55" s="1"/>
-    </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C56" s="1"/>
-    </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C57" s="1"/>
-    </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C58" s="1"/>
-    </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C59" s="1"/>
-    </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C60" s="1"/>
-    </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C61" s="1"/>
-    </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C62" s="1"/>
-    </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C63" s="1"/>
-    </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C64" s="1"/>
-    </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C65" s="1"/>
-    </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C66" s="1"/>
-    </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C67" s="1"/>
-    </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C68" s="1"/>
-    </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C69" s="1"/>
-    </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C70" s="1"/>
-    </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C71" s="1"/>
-    </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C72" s="1"/>
-    </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C73" s="1"/>
-    </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C74" s="1"/>
-    </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C75" s="1"/>
-    </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C76" s="1"/>
-    </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C77" s="1"/>
-    </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C78" s="1"/>
-    </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C79" s="1"/>
-    </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C80" s="1"/>
-    </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C81" s="1"/>
-    </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C82" s="1"/>
-    </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C83" s="1"/>
-    </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C84" s="1"/>
-    </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C85" s="1"/>
-    </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C86" s="1"/>
-    </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C87" s="1"/>
-    </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C88" s="1"/>
-    </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C89" s="1"/>
-    </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C90" s="1"/>
-    </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C91" s="1"/>
-    </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C92" s="1"/>
-    </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C93" s="1"/>
-    </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C94" s="1"/>
-    </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C95" s="1"/>
-    </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C96" s="1"/>
-    </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C97" s="1"/>
-    </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C98" s="1"/>
-    </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C99" s="1"/>
-    </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C100" s="1"/>
-    </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C101" s="1"/>
-    </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C102" s="1"/>
-    </row>
-  </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <mergeCells count="13">
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="R1:S1"/>
     <mergeCell ref="R10:R11"/>
     <mergeCell ref="E1:E2"/>
@@ -9176,14 +9118,19 @@
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:L1"/>
     <mergeCell ref="M1:P1"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:C4">
-    <cfRule type="expression" dxfId="13" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="1" stopIfTrue="1">
       <formula>AND(("$'Hommes Sinclair'.$#REF!$#REF!"),"$'Hommes Sinclair'.$#REF!$#REF!","$'Hommes Sinclair'.$#REF!$#REF!")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="F4:F5">
+    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="F4:F5" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>0</formula1>
       <formula2>200</formula2>
     </dataValidation>
@@ -9199,7 +9146,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -9234,146 +9181,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="117" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="118" t="s">
+      <c r="B1" s="119" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="120" t="s">
+      <c r="C1" s="121" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="122" t="s">
+      <c r="D1" s="123" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="124" t="s">
+      <c r="E1" s="110" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="124" t="s">
+      <c r="F1" s="110" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="124" t="s">
+      <c r="G1" s="110" t="s">
         <v>69</v>
       </c>
-      <c r="H1" s="124" t="s">
+      <c r="H1" s="110" t="s">
         <v>70</v>
       </c>
-      <c r="I1" s="126" t="s">
+      <c r="I1" s="112" t="s">
         <v>71</v>
       </c>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="126" t="s">
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
+      <c r="M1" s="113"/>
+      <c r="N1" s="112" t="s">
         <v>72</v>
       </c>
-      <c r="O1" s="127"/>
-      <c r="P1" s="127"/>
-      <c r="Q1" s="127"/>
-      <c r="R1" s="127"/>
-      <c r="S1" s="128" t="s">
+      <c r="O1" s="113"/>
+      <c r="P1" s="113"/>
+      <c r="Q1" s="113"/>
+      <c r="R1" s="113"/>
+      <c r="S1" s="114" t="s">
         <v>73</v>
       </c>
-      <c r="T1" s="129"/>
+      <c r="T1" s="115"/>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="117"/>
-      <c r="B2" s="119"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="125"/>
-      <c r="I2" s="41">
+      <c r="A2" s="118"/>
+      <c r="B2" s="120"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="36">
         <v>1</v>
       </c>
-      <c r="J2" s="22">
+      <c r="J2" s="17">
         <v>2</v>
       </c>
-      <c r="K2" s="22">
+      <c r="K2" s="17">
         <v>3</v>
       </c>
-      <c r="L2" s="40" t="s">
+      <c r="L2" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="M2" s="69" t="s">
+      <c r="M2" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="N2" s="22">
+      <c r="N2" s="17">
         <v>1</v>
       </c>
-      <c r="O2" s="22">
+      <c r="O2" s="17">
         <v>2</v>
       </c>
-      <c r="P2" s="22">
+      <c r="P2" s="17">
         <v>3</v>
       </c>
-      <c r="Q2" s="40" t="s">
+      <c r="Q2" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="R2" s="69" t="s">
+      <c r="R2" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="S2" s="39" t="s">
+      <c r="S2" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="T2" s="69" t="s">
+      <c r="T2" s="63" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:23" s="24" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="70" t="s">
+    <row r="3" spans="1:23" s="19" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="64" t="s">
         <v>122</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="73"/>
-    </row>
-    <row r="4" spans="1:23" s="24" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="71"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="73"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="67"/>
+    </row>
+    <row r="4" spans="1:23" s="19" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="65"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="67"/>
     </row>
     <row r="5" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="B5" s="75"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="77"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="70"/>
+      <c r="T5" s="71"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
@@ -9396,63 +9343,63 @@
       <c r="P6"/>
       <c r="R6"/>
     </row>
-    <row r="7" spans="1:23" s="24" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="38" t="s">
+    <row r="7" spans="1:23" s="19" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="37" t="s">
+      <c r="B7" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="35" t="s">
+      <c r="D7" s="18"/>
+      <c r="E7" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="36" t="s">
+      <c r="F7" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="35" t="s">
+      <c r="G7" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="34" t="s">
+      <c r="H7" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="I7" s="33" t="s">
+      <c r="I7" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="J7" s="33" t="s">
+      <c r="J7" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="K7" s="33" t="s">
+      <c r="K7" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="L7" s="32" t="s">
+      <c r="L7" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="68" t="s">
+      <c r="M7" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="N7" s="33" t="s">
+      <c r="N7" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="O7" s="33" t="s">
+      <c r="O7" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="P7" s="33" t="s">
+      <c r="P7" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="Q7" s="32" t="s">
+      <c r="Q7" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="R7" s="68" t="s">
+      <c r="R7" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="S7" s="31" t="s">
+      <c r="S7" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="T7" s="67" t="s">
+      <c r="T7" s="61" t="s">
         <v>117</v>
       </c>
     </row>
@@ -9505,7 +9452,7 @@
       <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B14" s="25"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
@@ -9513,11 +9460,11 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C16" s="1"/>
-      <c r="P16" s="130"/>
+      <c r="P16" s="116"/>
     </row>
     <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1"/>
-      <c r="P17" s="130"/>
+      <c r="P17" s="116"/>
     </row>
     <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1"/>
@@ -9795,11 +9742,6 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="12">
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="S1:T1"/>
     <mergeCell ref="P16:P17"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -9807,33 +9749,36 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="S1:T1"/>
   </mergeCells>
   <conditionalFormatting sqref="B8:C8">
-    <cfRule type="expression" dxfId="12" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="4" stopIfTrue="1">
+      <formula>AND((#REF!),#REF!,#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9:C9">
+    <cfRule type="expression" dxfId="8" priority="1" stopIfTrue="1">
       <formula>AND((#REF!),#REF!,#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:D4">
-    <cfRule type="expression" dxfId="11" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="2" stopIfTrue="1">
       <formula>AND((#REF!),#REF!,#REF!)</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3:D4">
-    <cfRule type="expression" dxfId="10" priority="2" stopIfTrue="1">
-      <formula>AND((#REF!),#REF!,#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9:C9">
-    <cfRule type="expression" dxfId="9" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="3" stopIfTrue="1">
       <formula>AND((#REF!),#REF!,#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I4">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I4" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>0</formula1>
       <formula2>200</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="F7:F9">
+    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="F7:F9" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>0</formula1>
       <formula2>200</formula2>
     </dataValidation>
@@ -9849,7 +9794,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -9871,104 +9816,104 @@
     <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
     <col min="9" max="12" width="7.7109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="7.7109375" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" style="30" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" style="25" customWidth="1"/>
     <col min="15" max="17" width="7.7109375" style="1" customWidth="1"/>
     <col min="18" max="18" width="10" style="1" customWidth="1"/>
     <col min="19" max="19" width="10" customWidth="1"/>
-    <col min="20" max="20" width="8.42578125" style="30" customWidth="1"/>
+    <col min="20" max="20" width="8.42578125" style="25" customWidth="1"/>
     <col min="21" max="23" width="0" style="1" hidden="1" customWidth="1"/>
     <col min="24" max="24" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="125" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="136" t="s">
+      <c r="B1" s="125" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="138" t="s">
+      <c r="C1" s="127" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="122" t="s">
+      <c r="D1" s="123" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="124" t="s">
+      <c r="E1" s="110" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="131" t="s">
+      <c r="F1" s="133" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="132" t="s">
+      <c r="G1" s="134" t="s">
         <v>69</v>
       </c>
-      <c r="H1" s="133" t="s">
+      <c r="H1" s="135" t="s">
         <v>70</v>
       </c>
-      <c r="I1" s="135" t="s">
+      <c r="I1" s="137" t="s">
         <v>71</v>
       </c>
-      <c r="J1" s="135"/>
-      <c r="K1" s="135"/>
-      <c r="L1" s="135"/>
-      <c r="M1" s="135" t="s">
+      <c r="J1" s="137"/>
+      <c r="K1" s="137"/>
+      <c r="L1" s="137"/>
+      <c r="M1" s="137" t="s">
         <v>72</v>
       </c>
-      <c r="N1" s="135"/>
-      <c r="O1" s="135"/>
-      <c r="P1" s="135"/>
-      <c r="Q1" s="141" t="s">
+      <c r="N1" s="137"/>
+      <c r="O1" s="137"/>
+      <c r="P1" s="137"/>
+      <c r="Q1" s="130" t="s">
         <v>73</v>
       </c>
-      <c r="R1" s="143" t="s">
+      <c r="R1" s="132" t="s">
         <v>76</v>
       </c>
-      <c r="S1" s="143"/>
-      <c r="T1" s="143"/>
+      <c r="S1" s="132"/>
+      <c r="T1" s="132"/>
       <c r="V1"/>
       <c r="W1"/>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="137"/>
-      <c r="B2" s="137"/>
-      <c r="C2" s="139"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="132"/>
-      <c r="H2" s="134"/>
-      <c r="I2" s="22">
+      <c r="A2" s="126"/>
+      <c r="B2" s="126"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="17">
         <v>1</v>
       </c>
-      <c r="J2" s="22">
+      <c r="J2" s="17">
         <v>2</v>
       </c>
-      <c r="K2" s="22">
+      <c r="K2" s="17">
         <v>3</v>
       </c>
-      <c r="L2" s="40" t="s">
+      <c r="L2" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="22">
+      <c r="M2" s="17">
         <v>1</v>
       </c>
-      <c r="N2" s="22">
+      <c r="N2" s="17">
         <v>2</v>
       </c>
-      <c r="O2" s="22">
+      <c r="O2" s="17">
         <v>3</v>
       </c>
-      <c r="P2" s="49" t="s">
+      <c r="P2" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="142"/>
-      <c r="R2" s="48" t="s">
+      <c r="Q2" s="131"/>
+      <c r="R2" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="S2" s="42" t="s">
+      <c r="S2" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="T2" s="47" t="s">
+      <c r="T2" s="42" t="s">
         <v>75</v>
       </c>
     </row>
@@ -9995,66 +9940,66 @@
       <c r="V3"/>
       <c r="W3"/>
     </row>
-    <row r="4" spans="1:23" s="24" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="38" t="s">
+    <row r="4" spans="1:23" s="19" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="46" t="s">
+      <c r="B4" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="35" t="s">
+      <c r="D4" s="18"/>
+      <c r="E4" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="35" t="s">
+      <c r="G4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="35" t="s">
+      <c r="H4" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="33" t="s">
+      <c r="I4" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="33" t="s">
+      <c r="J4" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="33" t="s">
+      <c r="K4" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="32" t="s">
+      <c r="L4" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="33" t="s">
+      <c r="M4" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="N4" s="33" t="s">
+      <c r="N4" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="O4" s="33" t="s">
+      <c r="O4" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="P4" s="32" t="s">
+      <c r="P4" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="Q4" s="31" t="s">
+      <c r="Q4" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="R4" s="44" t="s">
+      <c r="R4" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="S4" s="45" t="s">
+      <c r="S4" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="T4" s="50" t="s">
+      <c r="T4" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="W4" s="26" t="s">
+      <c r="W4" s="21" t="s">
         <v>44</v>
       </c>
     </row>
@@ -10361,11 +10306,6 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="12">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="M1:P1"/>
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="R1:T1"/>
     <mergeCell ref="E1:E2"/>
@@ -10373,19 +10313,19 @@
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:L1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="M1:P1"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:C4">
-    <cfRule type="expression" dxfId="8" priority="2" stopIfTrue="1">
-      <formula>AND(("$'Hommes Sinclair'.$#REF!$#REF!"),"$'Hommes Sinclair'.$#REF!$#REF!","$'Hommes Sinclair'.$#REF!$#REF!")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4:C4">
-    <cfRule type="expression" dxfId="7" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
       <formula>AND(("$'Hommes Sinclair'.$#REF!$#REF!"),"$'Hommes Sinclair'.$#REF!$#REF!","$'Hommes Sinclair'.$#REF!$#REF!")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="F4:F5">
+    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="F4:F5" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>0</formula1>
       <formula2>200</formula2>
     </dataValidation>
@@ -10401,7 +10341,546 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:V97"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="23" customWidth="1"/>
+    <col min="9" max="12" width="7.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" style="25" customWidth="1"/>
+    <col min="15" max="17" width="7.7109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.42578125" style="25" customWidth="1"/>
+    <col min="20" max="22" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="125" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="125" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="127" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="123" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="110" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="133" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="134" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="138" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="137" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" s="137"/>
+      <c r="K1" s="137"/>
+      <c r="L1" s="137"/>
+      <c r="M1" s="137" t="s">
+        <v>72</v>
+      </c>
+      <c r="N1" s="137"/>
+      <c r="O1" s="137"/>
+      <c r="P1" s="137"/>
+      <c r="Q1" s="130" t="s">
+        <v>73</v>
+      </c>
+      <c r="R1" s="132" t="s">
+        <v>162</v>
+      </c>
+      <c r="S1" s="132"/>
+      <c r="U1"/>
+      <c r="V1"/>
+    </row>
+    <row r="2" spans="1:22" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="126"/>
+      <c r="B2" s="126"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="17">
+        <v>1</v>
+      </c>
+      <c r="J2" s="17">
+        <v>2</v>
+      </c>
+      <c r="K2" s="17">
+        <v>3</v>
+      </c>
+      <c r="L2" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="17">
+        <v>1</v>
+      </c>
+      <c r="N2" s="17">
+        <v>2</v>
+      </c>
+      <c r="O2" s="17">
+        <v>3</v>
+      </c>
+      <c r="P2" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" s="131"/>
+      <c r="R2" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="S2" s="42" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3" s="22"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+    </row>
+    <row r="4" spans="1:22" s="19" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="18"/>
+      <c r="E4" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="P4" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q4" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="R4" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="S4" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="V4" s="21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5" s="22"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C6" s="1"/>
+      <c r="R6" s="8"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C40" s="1"/>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C41" s="1"/>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C43" s="1"/>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C44" s="1"/>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C45" s="1"/>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C46" s="1"/>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C47" s="1"/>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C48" s="1"/>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C49" s="1"/>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C50" s="1"/>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C51" s="1"/>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C52" s="1"/>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C53" s="1"/>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C54" s="1"/>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C55" s="1"/>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C56" s="1"/>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C57" s="1"/>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C58" s="1"/>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C59" s="1"/>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C60" s="1"/>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C61" s="1"/>
+    </row>
+    <row r="62" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C62" s="1"/>
+    </row>
+    <row r="63" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C63" s="1"/>
+    </row>
+    <row r="64" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C64" s="1"/>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C65" s="1"/>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C66" s="1"/>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C67" s="1"/>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C68" s="1"/>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C69" s="1"/>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C70" s="1"/>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C71" s="1"/>
+    </row>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C72" s="1"/>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C73" s="1"/>
+    </row>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C74" s="1"/>
+    </row>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C75" s="1"/>
+    </row>
+    <row r="76" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C76" s="1"/>
+    </row>
+    <row r="77" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C77" s="1"/>
+    </row>
+    <row r="78" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C78" s="1"/>
+    </row>
+    <row r="79" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C79" s="1"/>
+    </row>
+    <row r="80" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C80" s="1"/>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C81" s="1"/>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C82" s="1"/>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C83" s="1"/>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C84" s="1"/>
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C85" s="1"/>
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C86" s="1"/>
+    </row>
+    <row r="87" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C87" s="1"/>
+    </row>
+    <row r="88" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C88" s="1"/>
+    </row>
+    <row r="89" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C89" s="1"/>
+    </row>
+    <row r="90" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C90" s="1"/>
+    </row>
+    <row r="91" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C91" s="1"/>
+    </row>
+    <row r="92" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C92" s="1"/>
+    </row>
+    <row r="93" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C93" s="1"/>
+    </row>
+    <row r="94" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C94" s="1"/>
+    </row>
+    <row r="95" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C95" s="1"/>
+    </row>
+    <row r="96" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C96" s="1"/>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C97" s="1"/>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <mergeCells count="12">
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="Q1:Q2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B4:C4">
+    <cfRule type="expression" dxfId="4" priority="1" stopIfTrue="1">
+      <formula>AND(("$'Hommes Sinclair'.$#REF!$#REF!"),"$'Hommes Sinclair'.$#REF!$#REF!","$'Hommes Sinclair'.$#REF!$#REF!")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="F4:F5" xr:uid="{00000000-0002-0000-0700-000000000000}">
+      <formula1>0</formula1>
+      <formula2>200</formula2>
+    </dataValidation>
+  </dataValidations>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.43307086614173229" header="0.23622047244094491" footer="0.15748031496062992"/>
+  <pageSetup scale="73" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;L&amp;14Classement Sinclair - Sinclair Ranking&amp;R&amp;14Hommes - Men</oddHeader>
+    <oddFooter>&amp;R&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -10420,102 +10899,102 @@
     <col min="5" max="5" width="9.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="7.28515625" style="1" customWidth="1"/>
     <col min="7" max="7" width="7.42578125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="28" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="23" customWidth="1"/>
     <col min="9" max="12" width="7.7109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="7.7109375" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" style="30" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" style="25" customWidth="1"/>
     <col min="15" max="17" width="7.7109375" style="1" customWidth="1"/>
     <col min="18" max="18" width="10" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.42578125" style="30" customWidth="1"/>
+    <col min="19" max="19" width="8.42578125" style="25" customWidth="1"/>
     <col min="20" max="22" width="0" style="1" hidden="1" customWidth="1"/>
     <col min="23" max="23" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="125" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="136" t="s">
+      <c r="B1" s="125" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="138" t="s">
+      <c r="C1" s="127" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="122" t="s">
+      <c r="D1" s="123" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="124" t="s">
+      <c r="E1" s="110" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="131" t="s">
+      <c r="F1" s="133" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="132" t="s">
+      <c r="G1" s="134" t="s">
         <v>69</v>
       </c>
-      <c r="H1" s="144" t="s">
+      <c r="H1" s="138" t="s">
         <v>70</v>
       </c>
-      <c r="I1" s="135" t="s">
+      <c r="I1" s="137" t="s">
         <v>71</v>
       </c>
-      <c r="J1" s="135"/>
-      <c r="K1" s="135"/>
-      <c r="L1" s="135"/>
-      <c r="M1" s="135" t="s">
+      <c r="J1" s="137"/>
+      <c r="K1" s="137"/>
+      <c r="L1" s="137"/>
+      <c r="M1" s="137" t="s">
         <v>72</v>
       </c>
-      <c r="N1" s="135"/>
-      <c r="O1" s="135"/>
-      <c r="P1" s="135"/>
-      <c r="Q1" s="141" t="s">
+      <c r="N1" s="137"/>
+      <c r="O1" s="137"/>
+      <c r="P1" s="137"/>
+      <c r="Q1" s="130" t="s">
         <v>73</v>
       </c>
-      <c r="R1" s="143" t="s">
-        <v>162</v>
-      </c>
-      <c r="S1" s="143"/>
+      <c r="R1" s="132" t="s">
+        <v>53</v>
+      </c>
+      <c r="S1" s="132"/>
       <c r="U1"/>
       <c r="V1"/>
     </row>
     <row r="2" spans="1:22" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="137"/>
-      <c r="B2" s="137"/>
-      <c r="C2" s="139"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="132"/>
-      <c r="H2" s="144"/>
-      <c r="I2" s="22">
+      <c r="A2" s="126"/>
+      <c r="B2" s="126"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="17">
         <v>1</v>
       </c>
-      <c r="J2" s="22">
+      <c r="J2" s="17">
         <v>2</v>
       </c>
-      <c r="K2" s="22">
+      <c r="K2" s="17">
         <v>3</v>
       </c>
-      <c r="L2" s="40" t="s">
+      <c r="L2" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="22">
+      <c r="M2" s="17">
         <v>1</v>
       </c>
-      <c r="N2" s="22">
+      <c r="N2" s="17">
         <v>2</v>
       </c>
-      <c r="O2" s="22">
+      <c r="O2" s="17">
         <v>3</v>
       </c>
-      <c r="P2" s="49" t="s">
+      <c r="P2" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="142"/>
-      <c r="R2" s="48" t="s">
-        <v>162</v>
-      </c>
-      <c r="S2" s="47" t="s">
+      <c r="Q2" s="131"/>
+      <c r="R2" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="S2" s="42" t="s">
         <v>75</v>
       </c>
     </row>
@@ -10527,7 +11006,7 @@
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3"/>
-      <c r="H3" s="27"/>
+      <c r="H3" s="22"/>
       <c r="I3"/>
       <c r="J3"/>
       <c r="K3"/>
@@ -10542,63 +11021,63 @@
       <c r="U3"/>
       <c r="V3"/>
     </row>
-    <row r="4" spans="1:22" s="24" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="38" t="s">
+    <row r="4" spans="1:22" s="19" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="46" t="s">
+      <c r="B4" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="35" t="s">
+      <c r="D4" s="18"/>
+      <c r="E4" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="36" t="s">
+      <c r="F4" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="35" t="s">
+      <c r="G4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="34" t="s">
+      <c r="H4" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="33" t="s">
+      <c r="I4" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="33" t="s">
+      <c r="J4" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="33" t="s">
+      <c r="K4" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="32" t="s">
+      <c r="L4" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="33" t="s">
+      <c r="M4" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="N4" s="33" t="s">
+      <c r="N4" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="O4" s="33" t="s">
+      <c r="O4" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="P4" s="32" t="s">
+      <c r="P4" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="Q4" s="31" t="s">
+      <c r="Q4" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="R4" s="45" t="s">
-        <v>163</v>
-      </c>
-      <c r="S4" s="50" t="s">
+      <c r="R4" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="S4" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="V4" s="26" t="s">
+      <c r="V4" s="21" t="s">
         <v>44</v>
       </c>
     </row>
@@ -10610,7 +11089,7 @@
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5"/>
-      <c r="H5" s="27"/>
+      <c r="H5" s="22"/>
       <c r="I5"/>
       <c r="J5"/>
       <c r="K5"/>
@@ -10905,555 +11384,6 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="12">
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-  </mergeCells>
-  <conditionalFormatting sqref="B4:C4">
-    <cfRule type="expression" dxfId="6" priority="2" stopIfTrue="1">
-      <formula>AND(("$'Hommes Sinclair'.$#REF!$#REF!"),"$'Hommes Sinclair'.$#REF!$#REF!","$'Hommes Sinclair'.$#REF!$#REF!")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4:C4">
-    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
-      <formula>AND(("$'Hommes Sinclair'.$#REF!$#REF!"),"$'Hommes Sinclair'.$#REF!$#REF!","$'Hommes Sinclair'.$#REF!$#REF!")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="F4:F5">
-      <formula1>0</formula1>
-      <formula2>200</formula2>
-    </dataValidation>
-  </dataValidations>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.43307086614173229" header="0.23622047244094491" footer="0.15748031496062992"/>
-  <pageSetup scale="73" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;14Classement Sinclair - Sinclair Ranking&amp;R&amp;14Hommes - Men</oddHeader>
-    <oddFooter>&amp;R&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:V97"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5.28515625" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="28" customWidth="1"/>
-    <col min="9" max="12" width="7.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="7.7109375" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" style="30" customWidth="1"/>
-    <col min="15" max="17" width="7.7109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="10" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.42578125" style="30" customWidth="1"/>
-    <col min="20" max="22" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="0" hidden="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="136" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="136" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" s="138" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="122" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="124" t="s">
-        <v>67</v>
-      </c>
-      <c r="F1" s="131" t="s">
-        <v>68</v>
-      </c>
-      <c r="G1" s="132" t="s">
-        <v>69</v>
-      </c>
-      <c r="H1" s="144" t="s">
-        <v>70</v>
-      </c>
-      <c r="I1" s="135" t="s">
-        <v>71</v>
-      </c>
-      <c r="J1" s="135"/>
-      <c r="K1" s="135"/>
-      <c r="L1" s="135"/>
-      <c r="M1" s="135" t="s">
-        <v>72</v>
-      </c>
-      <c r="N1" s="135"/>
-      <c r="O1" s="135"/>
-      <c r="P1" s="135"/>
-      <c r="Q1" s="141" t="s">
-        <v>73</v>
-      </c>
-      <c r="R1" s="143" t="s">
-        <v>53</v>
-      </c>
-      <c r="S1" s="143"/>
-      <c r="U1"/>
-      <c r="V1"/>
-    </row>
-    <row r="2" spans="1:22" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="137"/>
-      <c r="B2" s="137"/>
-      <c r="C2" s="139"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="132"/>
-      <c r="H2" s="144"/>
-      <c r="I2" s="22">
-        <v>1</v>
-      </c>
-      <c r="J2" s="22">
-        <v>2</v>
-      </c>
-      <c r="K2" s="22">
-        <v>3</v>
-      </c>
-      <c r="L2" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" s="22">
-        <v>1</v>
-      </c>
-      <c r="N2" s="22">
-        <v>2</v>
-      </c>
-      <c r="O2" s="22">
-        <v>3</v>
-      </c>
-      <c r="P2" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q2" s="142"/>
-      <c r="R2" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="S2" s="47" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3" s="27"/>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="N3"/>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3"/>
-      <c r="U3"/>
-      <c r="V3"/>
-    </row>
-    <row r="4" spans="1:22" s="24" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="L4" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="M4" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="N4" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="O4" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="P4" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q4" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="R4" s="45" t="s">
-        <v>46</v>
-      </c>
-      <c r="S4" s="50" t="s">
-        <v>118</v>
-      </c>
-      <c r="V4" s="26" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5" s="27"/>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C6" s="1"/>
-      <c r="R6" s="8"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C31" s="1"/>
-    </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C32" s="1"/>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C33" s="1"/>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C34" s="1"/>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C35" s="1"/>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C36" s="1"/>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C37" s="1"/>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C38" s="1"/>
-    </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C39" s="1"/>
-    </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C40" s="1"/>
-    </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C41" s="1"/>
-    </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C42" s="1"/>
-    </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C43" s="1"/>
-    </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C44" s="1"/>
-    </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C45" s="1"/>
-    </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C46" s="1"/>
-    </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C47" s="1"/>
-    </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C48" s="1"/>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C49" s="1"/>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C50" s="1"/>
-    </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C51" s="1"/>
-    </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C52" s="1"/>
-    </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C53" s="1"/>
-    </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C54" s="1"/>
-    </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C55" s="1"/>
-    </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C56" s="1"/>
-    </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C57" s="1"/>
-    </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C58" s="1"/>
-    </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C59" s="1"/>
-    </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C60" s="1"/>
-    </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C61" s="1"/>
-    </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C62" s="1"/>
-    </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C63" s="1"/>
-    </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C64" s="1"/>
-    </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C65" s="1"/>
-    </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C66" s="1"/>
-    </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C67" s="1"/>
-    </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C68" s="1"/>
-    </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C69" s="1"/>
-    </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C70" s="1"/>
-    </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C71" s="1"/>
-    </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C72" s="1"/>
-    </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C73" s="1"/>
-    </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C74" s="1"/>
-    </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C75" s="1"/>
-    </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C76" s="1"/>
-    </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C77" s="1"/>
-    </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C78" s="1"/>
-    </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C79" s="1"/>
-    </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C80" s="1"/>
-    </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C81" s="1"/>
-    </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C82" s="1"/>
-    </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C83" s="1"/>
-    </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C84" s="1"/>
-    </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C85" s="1"/>
-    </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C86" s="1"/>
-    </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C87" s="1"/>
-    </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C88" s="1"/>
-    </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C89" s="1"/>
-    </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C90" s="1"/>
-    </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C91" s="1"/>
-    </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C92" s="1"/>
-    </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C93" s="1"/>
-    </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C94" s="1"/>
-    </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C95" s="1"/>
-    </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C96" s="1"/>
-    </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C97" s="1"/>
-    </row>
-  </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <mergeCells count="12">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="R1:S1"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
@@ -11461,19 +11391,19 @@
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:L1"/>
     <mergeCell ref="M1:P1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B4:C4">
-    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
-      <formula>AND(("$'Hommes Sinclair'.$#REF!$#REF!"),"$'Hommes Sinclair'.$#REF!$#REF!","$'Hommes Sinclair'.$#REF!$#REF!")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B4:C4">
     <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
       <formula>AND(("$'Hommes Sinclair'.$#REF!$#REF!"),"$'Hommes Sinclair'.$#REF!$#REF!","$'Hommes Sinclair'.$#REF!$#REF!")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="F4:F5">
+    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="F4:F5" xr:uid="{00000000-0002-0000-0800-000000000000}">
       <formula1>0</formula1>
       <formula2>200</formula2>
     </dataValidation>

--- a/owlcms/src/main/resources/templates/competitionBook/SnatchCJTotal-LETTER.xlsx
+++ b/owlcms/src/main/resources/templates/competitionBook/SnatchCJTotal-LETTER.xlsx
@@ -1,44 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lamyj\git\owlcms4\owlcms\src\main\resources\templates\competitionBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{127D338E-AD0C-46D1-8454-536F12F5FD0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C98B49-8B3E-49F9-827A-815C23CAC39C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="519" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4515" yWindow="2025" windowWidth="21765" windowHeight="13125" tabRatio="519" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C" sheetId="35" r:id="rId1"/>
     <sheet name="M6" sheetId="40" r:id="rId2"/>
-    <sheet name="MS" sheetId="28" r:id="rId3"/>
-    <sheet name="MQ" sheetId="44" r:id="rId4"/>
-    <sheet name="MR" sheetId="29" r:id="rId5"/>
-    <sheet name="W6" sheetId="41" r:id="rId6"/>
-    <sheet name="WS" sheetId="31" r:id="rId7"/>
-    <sheet name="WQ" sheetId="45" r:id="rId8"/>
-    <sheet name="WR" sheetId="32" r:id="rId9"/>
-    <sheet name="MCT" sheetId="15" r:id="rId10"/>
-    <sheet name="WCT" sheetId="14" r:id="rId11"/>
-    <sheet name="MWCT" sheetId="13" r:id="rId12"/>
-    <sheet name="Records" sheetId="43" r:id="rId13"/>
-    <sheet name="Points" sheetId="42" r:id="rId14"/>
+    <sheet name="W6" sheetId="41" r:id="rId3"/>
+    <sheet name="MB" sheetId="46" r:id="rId4"/>
+    <sheet name="WB" sheetId="47" r:id="rId5"/>
+    <sheet name="MCT" sheetId="15" r:id="rId6"/>
+    <sheet name="WCT" sheetId="14" r:id="rId7"/>
+    <sheet name="MWCT" sheetId="13" r:id="rId8"/>
+    <sheet name="Records" sheetId="43" r:id="rId9"/>
+    <sheet name="Points" sheetId="42" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'M6'!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">MQ!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="4">MR!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">MS!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="5">'W6'!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="7">WQ!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="8">WR!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="6">WS!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">MB!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">'W6'!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">WB!$1:$2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -54,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="158">
   <si>
     <t>${l.lastName}</t>
   </si>
@@ -176,30 +168,9 @@
     <t>${l.bestCleanJerk}</t>
   </si>
   <si>
-    <t>&lt;jx:forEach items="${mSinclair}" var="l" varStatus="lifterLoop"&gt;</t>
-  </si>
-  <si>
-    <t>${l.sinclair}</t>
-  </si>
-  <si>
-    <t>${l.categorySinclair}</t>
-  </si>
-  <si>
-    <t>${l.sinclairRank}</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
-    <t>&lt;jx:forEach items="${wSinclair}" var="l" varStatus="lifterLoop"&gt;</t>
-  </si>
-  <si>
-    <t>${l.robi}</t>
-  </si>
-  <si>
-    <t>&lt;jx:forEach items="${mRobi}" var="l" varStatus="lifterLoop"&gt;</t>
-  </si>
-  <si>
     <t>${l.formattedBirth}</t>
   </si>
   <si>
@@ -215,12 +186,6 @@
     <t>${t.get("Lot")}</t>
   </si>
   <si>
-    <t>${t.get("robi")}</t>
-  </si>
-  <si>
-    <t>&lt;jx:forEach items="${wRobi}" var="l" varStatus="lifterLoop"&gt;</t>
-  </si>
-  <si>
     <t>${t.get("Results.MenPerTeam")}</t>
   </si>
   <si>
@@ -284,9 +249,6 @@
     <t>${t.get("Results.Rank")}</t>
   </si>
   <si>
-    <t>${t.get("Results.Sinclair")}</t>
-  </si>
-  <si>
     <t>${t.get("Results.Points")}</t>
   </si>
   <si>
@@ -410,9 +372,6 @@
     <t>${l.totalRank}</t>
   </si>
   <si>
-    <t>${lifterLoop.index + 1}</t>
-  </si>
-  <si>
     <t>&lt;jx:forEach items="${mTot}" groupBy="category.code"&gt;</t>
   </si>
   <si>
@@ -542,16 +501,25 @@
     <t>${t.get("Results.Rank")} (${t.get("Results.Total")})</t>
   </si>
   <si>
-    <t>${t.get("Qpoints")}</t>
-  </si>
-  <si>
-    <t>${l.qPoints}</t>
-  </si>
-  <si>
-    <t>&lt;jx:forEach items="${mQPoints}" var="l" varStatus="lifterLoop"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;jx:forEach items="${wQPoints}" var="l" varStatus="lifterLoop"&gt;</t>
+    <t>${bestRankingTitle}</t>
+  </si>
+  <si>
+    <t>${t.get("Score")}</t>
+  </si>
+  <si>
+    <t>&lt;jx:forEach items="${mBest}" var="l" varStatus="lifterLoop"&gt;</t>
+  </si>
+  <si>
+    <t>${l.mastersLongCategory}</t>
+  </si>
+  <si>
+    <t>${l.bestLifterScore}</t>
+  </si>
+  <si>
+    <t>${l.bestLifterRank}</t>
+  </si>
+  <si>
+    <t>&lt;jx:forEach items="${wBest}" var="l" varStatus="lifterLoop"&gt;</t>
   </si>
 </sst>
 </file>
@@ -782,7 +750,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -898,19 +866,6 @@
       <left style="thin">
         <color indexed="8"/>
       </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="8"/>
       </right>
@@ -1112,43 +1067,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -1204,6 +1122,43 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1266,7 +1221,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1317,10 +1272,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1365,45 +1316,30 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="170" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1434,7 +1370,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1452,47 +1388,47 @@
     <xf numFmtId="171" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1509,28 +1445,28 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="18" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="17" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="16" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="15" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1545,18 +1481,39 @@
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -1566,36 +1523,23 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -1603,7 +1547,7 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -1611,10 +1555,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1623,19 +1563,11 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1645,7 +1577,7 @@
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1657,8 +1589,12 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1675,39 +1611,7 @@
     <cellStyle name="Titre 1 1 1" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="Titre de la feuille" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
   </cellStyles>
-  <dxfs count="17">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="34"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="34"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="34"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="34"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="13">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2253,76 +2157,76 @@
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="13" width="8.7109375" customWidth="1"/>
-    <col min="14" max="14" width="8.7109375" style="25" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" style="23" customWidth="1"/>
     <col min="15" max="17" width="8.7109375" style="1" customWidth="1"/>
     <col min="18" max="18" width="8.7109375" customWidth="1"/>
-    <col min="19" max="19" width="16.5703125" style="25" customWidth="1"/>
+    <col min="19" max="19" width="16.5703125" style="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1" s="108" t="s">
-        <v>83</v>
-      </c>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="K1" s="52" t="s">
-        <v>85</v>
+      <c r="A1" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="101" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1" s="45" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="51" t="s">
-        <v>86</v>
-      </c>
-      <c r="B2" s="109" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51" t="s">
-        <v>88</v>
-      </c>
-      <c r="K2" s="52" t="s">
-        <v>89</v>
+      <c r="A2" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="102" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="K2" s="45" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="51" t="s">
-        <v>90</v>
-      </c>
-      <c r="B3" s="109" t="s">
-        <v>123</v>
-      </c>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="51"/>
+      <c r="A3" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="102" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="44"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="51"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="H4" s="51"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="H4" s="44"/>
     </row>
     <row r="5" spans="1:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="53"/>
+      <c r="A5" s="46"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="N6"/>
@@ -2333,163 +2237,163 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J8" s="48"/>
+      <c r="L8" s="49"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="50"/>
+      <c r="Q8" s="48"/>
+    </row>
+    <row r="9" spans="1:19" s="3" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="51"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="45"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="K9"/>
+      <c r="L9" s="48"/>
+      <c r="N9" s="49"/>
+      <c r="Q9" s="50"/>
+      <c r="R9" s="50"/>
+      <c r="S9" s="48"/>
+    </row>
+    <row r="10" spans="1:19" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="H10" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="I10" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="L10" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="M10" s="45" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C11" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="45" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="54" t="s">
+      <c r="E11" s="1"/>
+      <c r="H11" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55" t="s">
+      <c r="I11" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="D8" s="52" t="s">
-        <v>114</v>
-      </c>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" t="s">
+      <c r="J11" s="45"/>
+      <c r="K11" s="1"/>
+      <c r="M11" s="45" t="s">
         <v>94</v>
-      </c>
-      <c r="J8" s="55"/>
-      <c r="L8" s="56"/>
-      <c r="O8" s="57"/>
-      <c r="P8" s="57"/>
-      <c r="Q8" s="55"/>
-    </row>
-    <row r="9" spans="1:19" s="3" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="58"/>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="52"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="K9"/>
-      <c r="L9" s="55"/>
-      <c r="N9" s="56"/>
-      <c r="Q9" s="57"/>
-      <c r="R9" s="57"/>
-      <c r="S9" s="55"/>
-    </row>
-    <row r="10" spans="1:19" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="51" t="s">
-        <v>95</v>
-      </c>
-      <c r="D10" s="52" t="s">
-        <v>96</v>
-      </c>
-      <c r="H10" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="I10" s="52" t="s">
-        <v>98</v>
-      </c>
-      <c r="L10" s="51" t="s">
-        <v>128</v>
-      </c>
-      <c r="M10" s="52" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="C11" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="D11" s="52" t="s">
-        <v>101</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="H11" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="I11" s="52" t="s">
-        <v>103</v>
-      </c>
-      <c r="J11" s="52"/>
-      <c r="K11" s="1"/>
-      <c r="M11" s="52" t="s">
-        <v>104</v>
       </c>
       <c r="N11" s="1"/>
       <c r="P11"/>
-      <c r="Q11" s="52"/>
-      <c r="R11" s="59"/>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="52"/>
       <c r="S11"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="C12" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="D12" s="52" t="s">
-        <v>106</v>
+      <c r="C12" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="45" t="s">
+        <v>96</v>
       </c>
       <c r="E12" s="1"/>
-      <c r="H12" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="I12" s="52" t="s">
-        <v>108</v>
-      </c>
-      <c r="J12" s="52"/>
+      <c r="H12" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="I12" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="J12" s="45"/>
       <c r="K12" s="1"/>
-      <c r="M12" s="52" t="s">
-        <v>109</v>
+      <c r="M12" s="45" t="s">
+        <v>99</v>
       </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="52"/>
-      <c r="Q12" s="60"/>
-      <c r="R12" s="59"/>
+      <c r="O12" s="45"/>
+      <c r="Q12" s="53"/>
+      <c r="R12" s="52"/>
       <c r="S12"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="C13" s="51" t="s">
-        <v>110</v>
-      </c>
-      <c r="D13" s="59" t="s">
-        <v>111</v>
+      <c r="C13" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" s="52" t="s">
+        <v>101</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="M13" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="N13"/>
       <c r="S13"/>
     </row>
     <row r="14" spans="1:19" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="52" t="s">
-        <v>113</v>
-      </c>
-      <c r="N14" s="52"/>
-      <c r="O14" s="52"/>
-      <c r="P14" s="52"/>
-      <c r="Q14" s="52"/>
-      <c r="R14" s="52"/>
-      <c r="S14" s="52"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="N14" s="45"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="45"/>
+      <c r="S14" s="45"/>
     </row>
     <row r="15" spans="1:19" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E15" s="52"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="52"/>
-      <c r="O15" s="52"/>
-      <c r="P15" s="52"/>
-      <c r="Q15" s="52"/>
-      <c r="R15" s="52"/>
-      <c r="S15" s="52"/>
+      <c r="E15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="45"/>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="45"/>
+      <c r="S15" s="45"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -2515,9 +2419,9 @@
       <c r="K17"/>
       <c r="L17"/>
       <c r="M17"/>
-      <c r="N17" s="25"/>
+      <c r="N17" s="23"/>
       <c r="R17"/>
-      <c r="S17" s="25"/>
+      <c r="S17" s="23"/>
     </row>
     <row r="18" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18"/>
@@ -2533,9 +2437,9 @@
       <c r="K18"/>
       <c r="L18"/>
       <c r="M18"/>
-      <c r="N18" s="25"/>
+      <c r="N18" s="23"/>
       <c r="R18"/>
-      <c r="S18" s="25"/>
+      <c r="S18" s="23"/>
     </row>
     <row r="19" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19"/>
@@ -2551,9 +2455,9 @@
       <c r="K19"/>
       <c r="L19"/>
       <c r="M19"/>
-      <c r="N19" s="25"/>
+      <c r="N19" s="23"/>
       <c r="R19"/>
-      <c r="S19" s="25"/>
+      <c r="S19" s="23"/>
     </row>
     <row r="20" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20"/>
@@ -2569,9 +2473,9 @@
       <c r="K20"/>
       <c r="L20"/>
       <c r="M20"/>
-      <c r="N20" s="25"/>
+      <c r="N20" s="23"/>
       <c r="R20"/>
-      <c r="S20" s="25"/>
+      <c r="S20" s="23"/>
     </row>
     <row r="21" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21"/>
@@ -2587,9 +2491,9 @@
       <c r="K21"/>
       <c r="L21"/>
       <c r="M21"/>
-      <c r="N21" s="25"/>
+      <c r="N21" s="23"/>
       <c r="R21"/>
-      <c r="S21" s="25"/>
+      <c r="S21" s="23"/>
     </row>
     <row r="22" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22"/>
@@ -2605,9 +2509,9 @@
       <c r="K22"/>
       <c r="L22"/>
       <c r="M22"/>
-      <c r="N22" s="25"/>
+      <c r="N22" s="23"/>
       <c r="R22"/>
-      <c r="S22" s="25"/>
+      <c r="S22" s="23"/>
     </row>
     <row r="23" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23"/>
@@ -2623,9 +2527,9 @@
       <c r="K23"/>
       <c r="L23"/>
       <c r="M23"/>
-      <c r="N23" s="25"/>
+      <c r="N23" s="23"/>
       <c r="R23"/>
-      <c r="S23" s="25"/>
+      <c r="S23" s="23"/>
     </row>
     <row r="24" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24"/>
@@ -2641,9 +2545,9 @@
       <c r="K24"/>
       <c r="L24"/>
       <c r="M24"/>
-      <c r="N24" s="25"/>
+      <c r="N24" s="23"/>
       <c r="R24"/>
-      <c r="S24" s="25"/>
+      <c r="S24" s="23"/>
     </row>
     <row r="25" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25"/>
@@ -2659,9 +2563,9 @@
       <c r="K25"/>
       <c r="L25"/>
       <c r="M25"/>
-      <c r="N25" s="25"/>
+      <c r="N25" s="23"/>
       <c r="R25"/>
-      <c r="S25" s="25"/>
+      <c r="S25" s="23"/>
     </row>
     <row r="26" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26"/>
@@ -2677,9 +2581,9 @@
       <c r="K26"/>
       <c r="L26"/>
       <c r="M26"/>
-      <c r="N26" s="25"/>
+      <c r="N26" s="23"/>
       <c r="R26"/>
-      <c r="S26" s="25"/>
+      <c r="S26" s="23"/>
     </row>
     <row r="27" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27"/>
@@ -2695,9 +2599,9 @@
       <c r="K27"/>
       <c r="L27"/>
       <c r="M27"/>
-      <c r="N27" s="25"/>
+      <c r="N27" s="23"/>
       <c r="R27"/>
-      <c r="S27" s="25"/>
+      <c r="S27" s="23"/>
     </row>
     <row r="28" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28"/>
@@ -2713,9 +2617,9 @@
       <c r="K28"/>
       <c r="L28"/>
       <c r="M28"/>
-      <c r="N28" s="25"/>
+      <c r="N28" s="23"/>
       <c r="R28"/>
-      <c r="S28" s="25"/>
+      <c r="S28" s="23"/>
     </row>
     <row r="29" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29"/>
@@ -2731,9 +2635,9 @@
       <c r="K29"/>
       <c r="L29"/>
       <c r="M29"/>
-      <c r="N29" s="25"/>
+      <c r="N29" s="23"/>
       <c r="R29"/>
-      <c r="S29" s="25"/>
+      <c r="S29" s="23"/>
     </row>
     <row r="30" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30"/>
@@ -2749,9 +2653,9 @@
       <c r="K30"/>
       <c r="L30"/>
       <c r="M30"/>
-      <c r="N30" s="25"/>
+      <c r="N30" s="23"/>
       <c r="R30"/>
-      <c r="S30" s="25"/>
+      <c r="S30" s="23"/>
     </row>
     <row r="31" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31"/>
@@ -2767,9 +2671,9 @@
       <c r="K31"/>
       <c r="L31"/>
       <c r="M31"/>
-      <c r="N31" s="25"/>
+      <c r="N31" s="23"/>
       <c r="R31"/>
-      <c r="S31" s="25"/>
+      <c r="S31" s="23"/>
     </row>
     <row r="32" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32"/>
@@ -2785,9 +2689,9 @@
       <c r="K32"/>
       <c r="L32"/>
       <c r="M32"/>
-      <c r="N32" s="25"/>
+      <c r="N32" s="23"/>
       <c r="R32"/>
-      <c r="S32" s="25"/>
+      <c r="S32" s="23"/>
     </row>
     <row r="33" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33"/>
@@ -2803,9 +2707,9 @@
       <c r="K33"/>
       <c r="L33"/>
       <c r="M33"/>
-      <c r="N33" s="25"/>
+      <c r="N33" s="23"/>
       <c r="R33"/>
-      <c r="S33" s="25"/>
+      <c r="S33" s="23"/>
     </row>
     <row r="34" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34"/>
@@ -2821,9 +2725,9 @@
       <c r="K34"/>
       <c r="L34"/>
       <c r="M34"/>
-      <c r="N34" s="25"/>
+      <c r="N34" s="23"/>
       <c r="R34"/>
-      <c r="S34" s="25"/>
+      <c r="S34" s="23"/>
     </row>
     <row r="35" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35"/>
@@ -2839,9 +2743,9 @@
       <c r="K35"/>
       <c r="L35"/>
       <c r="M35"/>
-      <c r="N35" s="25"/>
+      <c r="N35" s="23"/>
       <c r="R35"/>
-      <c r="S35" s="25"/>
+      <c r="S35" s="23"/>
     </row>
     <row r="36" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36"/>
@@ -2857,9 +2761,9 @@
       <c r="K36"/>
       <c r="L36"/>
       <c r="M36"/>
-      <c r="N36" s="25"/>
+      <c r="N36" s="23"/>
       <c r="R36"/>
-      <c r="S36" s="25"/>
+      <c r="S36" s="23"/>
     </row>
     <row r="37" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37"/>
@@ -2875,9 +2779,9 @@
       <c r="K37"/>
       <c r="L37"/>
       <c r="M37"/>
-      <c r="N37" s="25"/>
+      <c r="N37" s="23"/>
       <c r="R37"/>
-      <c r="S37" s="25"/>
+      <c r="S37" s="23"/>
     </row>
     <row r="38" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38"/>
@@ -2893,9 +2797,9 @@
       <c r="K38"/>
       <c r="L38"/>
       <c r="M38"/>
-      <c r="N38" s="25"/>
+      <c r="N38" s="23"/>
       <c r="R38"/>
-      <c r="S38" s="25"/>
+      <c r="S38" s="23"/>
     </row>
     <row r="39" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39"/>
@@ -2911,9 +2815,9 @@
       <c r="K39"/>
       <c r="L39"/>
       <c r="M39"/>
-      <c r="N39" s="25"/>
+      <c r="N39" s="23"/>
       <c r="R39"/>
-      <c r="S39" s="25"/>
+      <c r="S39" s="23"/>
     </row>
     <row r="40" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40"/>
@@ -2929,9 +2833,9 @@
       <c r="K40"/>
       <c r="L40"/>
       <c r="M40"/>
-      <c r="N40" s="25"/>
+      <c r="N40" s="23"/>
       <c r="R40"/>
-      <c r="S40" s="25"/>
+      <c r="S40" s="23"/>
     </row>
     <row r="41" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41"/>
@@ -2947,9 +2851,9 @@
       <c r="K41"/>
       <c r="L41"/>
       <c r="M41"/>
-      <c r="N41" s="25"/>
+      <c r="N41" s="23"/>
       <c r="R41"/>
-      <c r="S41" s="25"/>
+      <c r="S41" s="23"/>
     </row>
     <row r="42" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42"/>
@@ -2965,9 +2869,9 @@
       <c r="K42"/>
       <c r="L42"/>
       <c r="M42"/>
-      <c r="N42" s="25"/>
+      <c r="N42" s="23"/>
       <c r="R42"/>
-      <c r="S42" s="25"/>
+      <c r="S42" s="23"/>
     </row>
     <row r="43" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43"/>
@@ -2983,9 +2887,9 @@
       <c r="K43"/>
       <c r="L43"/>
       <c r="M43"/>
-      <c r="N43" s="25"/>
+      <c r="N43" s="23"/>
       <c r="R43"/>
-      <c r="S43" s="25"/>
+      <c r="S43" s="23"/>
     </row>
     <row r="44" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44"/>
@@ -3001,9 +2905,9 @@
       <c r="K44"/>
       <c r="L44"/>
       <c r="M44"/>
-      <c r="N44" s="25"/>
+      <c r="N44" s="23"/>
       <c r="R44"/>
-      <c r="S44" s="25"/>
+      <c r="S44" s="23"/>
     </row>
     <row r="45" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45"/>
@@ -3019,9 +2923,9 @@
       <c r="K45"/>
       <c r="L45"/>
       <c r="M45"/>
-      <c r="N45" s="25"/>
+      <c r="N45" s="23"/>
       <c r="R45"/>
-      <c r="S45" s="25"/>
+      <c r="S45" s="23"/>
     </row>
     <row r="46" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46"/>
@@ -3037,9 +2941,9 @@
       <c r="K46"/>
       <c r="L46"/>
       <c r="M46"/>
-      <c r="N46" s="25"/>
+      <c r="N46" s="23"/>
       <c r="R46"/>
-      <c r="S46" s="25"/>
+      <c r="S46" s="23"/>
     </row>
     <row r="47" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47"/>
@@ -3055,9 +2959,9 @@
       <c r="K47"/>
       <c r="L47"/>
       <c r="M47"/>
-      <c r="N47" s="25"/>
+      <c r="N47" s="23"/>
       <c r="R47"/>
-      <c r="S47" s="25"/>
+      <c r="S47" s="23"/>
     </row>
     <row r="48" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48"/>
@@ -3073,9 +2977,9 @@
       <c r="K48"/>
       <c r="L48"/>
       <c r="M48"/>
-      <c r="N48" s="25"/>
+      <c r="N48" s="23"/>
       <c r="R48"/>
-      <c r="S48" s="25"/>
+      <c r="S48" s="23"/>
     </row>
     <row r="49" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49"/>
@@ -3091,9 +2995,9 @@
       <c r="K49"/>
       <c r="L49"/>
       <c r="M49"/>
-      <c r="N49" s="25"/>
+      <c r="N49" s="23"/>
       <c r="R49"/>
-      <c r="S49" s="25"/>
+      <c r="S49" s="23"/>
     </row>
     <row r="50" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50"/>
@@ -3109,9 +3013,9 @@
       <c r="K50"/>
       <c r="L50"/>
       <c r="M50"/>
-      <c r="N50" s="25"/>
+      <c r="N50" s="23"/>
       <c r="R50"/>
-      <c r="S50" s="25"/>
+      <c r="S50" s="23"/>
     </row>
     <row r="51" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51"/>
@@ -3127,9 +3031,9 @@
       <c r="K51"/>
       <c r="L51"/>
       <c r="M51"/>
-      <c r="N51" s="25"/>
+      <c r="N51" s="23"/>
       <c r="R51"/>
-      <c r="S51" s="25"/>
+      <c r="S51" s="23"/>
     </row>
     <row r="52" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52"/>
@@ -3145,9 +3049,9 @@
       <c r="K52"/>
       <c r="L52"/>
       <c r="M52"/>
-      <c r="N52" s="25"/>
+      <c r="N52" s="23"/>
       <c r="R52"/>
-      <c r="S52" s="25"/>
+      <c r="S52" s="23"/>
     </row>
     <row r="53" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53"/>
@@ -3163,9 +3067,9 @@
       <c r="K53"/>
       <c r="L53"/>
       <c r="M53"/>
-      <c r="N53" s="25"/>
+      <c r="N53" s="23"/>
       <c r="R53"/>
-      <c r="S53" s="25"/>
+      <c r="S53" s="23"/>
     </row>
     <row r="54" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54"/>
@@ -3181,9 +3085,9 @@
       <c r="K54"/>
       <c r="L54"/>
       <c r="M54"/>
-      <c r="N54" s="25"/>
+      <c r="N54" s="23"/>
       <c r="R54"/>
-      <c r="S54" s="25"/>
+      <c r="S54" s="23"/>
     </row>
     <row r="55" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55"/>
@@ -3199,9 +3103,9 @@
       <c r="K55"/>
       <c r="L55"/>
       <c r="M55"/>
-      <c r="N55" s="25"/>
+      <c r="N55" s="23"/>
       <c r="R55"/>
-      <c r="S55" s="25"/>
+      <c r="S55" s="23"/>
     </row>
     <row r="56" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56"/>
@@ -3217,9 +3121,9 @@
       <c r="K56"/>
       <c r="L56"/>
       <c r="M56"/>
-      <c r="N56" s="25"/>
+      <c r="N56" s="23"/>
       <c r="R56"/>
-      <c r="S56" s="25"/>
+      <c r="S56" s="23"/>
     </row>
     <row r="57" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57"/>
@@ -3235,9 +3139,9 @@
       <c r="K57"/>
       <c r="L57"/>
       <c r="M57"/>
-      <c r="N57" s="25"/>
+      <c r="N57" s="23"/>
       <c r="R57"/>
-      <c r="S57" s="25"/>
+      <c r="S57" s="23"/>
     </row>
     <row r="58" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58"/>
@@ -3253,9 +3157,9 @@
       <c r="K58"/>
       <c r="L58"/>
       <c r="M58"/>
-      <c r="N58" s="25"/>
+      <c r="N58" s="23"/>
       <c r="R58"/>
-      <c r="S58" s="25"/>
+      <c r="S58" s="23"/>
     </row>
     <row r="59" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59"/>
@@ -3271,9 +3175,9 @@
       <c r="K59"/>
       <c r="L59"/>
       <c r="M59"/>
-      <c r="N59" s="25"/>
+      <c r="N59" s="23"/>
       <c r="R59"/>
-      <c r="S59" s="25"/>
+      <c r="S59" s="23"/>
     </row>
     <row r="60" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60"/>
@@ -3289,9 +3193,9 @@
       <c r="K60"/>
       <c r="L60"/>
       <c r="M60"/>
-      <c r="N60" s="25"/>
+      <c r="N60" s="23"/>
       <c r="R60"/>
-      <c r="S60" s="25"/>
+      <c r="S60" s="23"/>
     </row>
     <row r="61" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61"/>
@@ -3307,9 +3211,9 @@
       <c r="K61"/>
       <c r="L61"/>
       <c r="M61"/>
-      <c r="N61" s="25"/>
+      <c r="N61" s="23"/>
       <c r="R61"/>
-      <c r="S61" s="25"/>
+      <c r="S61" s="23"/>
     </row>
     <row r="62" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62"/>
@@ -3325,9 +3229,9 @@
       <c r="K62"/>
       <c r="L62"/>
       <c r="M62"/>
-      <c r="N62" s="25"/>
+      <c r="N62" s="23"/>
       <c r="R62"/>
-      <c r="S62" s="25"/>
+      <c r="S62" s="23"/>
     </row>
     <row r="63" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63"/>
@@ -3343,9 +3247,9 @@
       <c r="K63"/>
       <c r="L63"/>
       <c r="M63"/>
-      <c r="N63" s="25"/>
+      <c r="N63" s="23"/>
       <c r="R63"/>
-      <c r="S63" s="25"/>
+      <c r="S63" s="23"/>
     </row>
     <row r="64" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64"/>
@@ -3361,9 +3265,9 @@
       <c r="K64"/>
       <c r="L64"/>
       <c r="M64"/>
-      <c r="N64" s="25"/>
+      <c r="N64" s="23"/>
       <c r="R64"/>
-      <c r="S64" s="25"/>
+      <c r="S64" s="23"/>
     </row>
     <row r="65" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65"/>
@@ -3379,9 +3283,9 @@
       <c r="K65"/>
       <c r="L65"/>
       <c r="M65"/>
-      <c r="N65" s="25"/>
+      <c r="N65" s="23"/>
       <c r="R65"/>
-      <c r="S65" s="25"/>
+      <c r="S65" s="23"/>
     </row>
     <row r="66" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66"/>
@@ -3397,9 +3301,9 @@
       <c r="K66"/>
       <c r="L66"/>
       <c r="M66"/>
-      <c r="N66" s="25"/>
+      <c r="N66" s="23"/>
       <c r="R66"/>
-      <c r="S66" s="25"/>
+      <c r="S66" s="23"/>
     </row>
     <row r="67" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67"/>
@@ -3415,9 +3319,9 @@
       <c r="K67"/>
       <c r="L67"/>
       <c r="M67"/>
-      <c r="N67" s="25"/>
+      <c r="N67" s="23"/>
       <c r="R67"/>
-      <c r="S67" s="25"/>
+      <c r="S67" s="23"/>
     </row>
     <row r="68" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68"/>
@@ -3433,9 +3337,9 @@
       <c r="K68"/>
       <c r="L68"/>
       <c r="M68"/>
-      <c r="N68" s="25"/>
+      <c r="N68" s="23"/>
       <c r="R68"/>
-      <c r="S68" s="25"/>
+      <c r="S68" s="23"/>
     </row>
     <row r="69" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69"/>
@@ -3451,9 +3355,9 @@
       <c r="K69"/>
       <c r="L69"/>
       <c r="M69"/>
-      <c r="N69" s="25"/>
+      <c r="N69" s="23"/>
       <c r="R69"/>
-      <c r="S69" s="25"/>
+      <c r="S69" s="23"/>
     </row>
     <row r="70" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70"/>
@@ -3469,9 +3373,9 @@
       <c r="K70"/>
       <c r="L70"/>
       <c r="M70"/>
-      <c r="N70" s="25"/>
+      <c r="N70" s="23"/>
       <c r="R70"/>
-      <c r="S70" s="25"/>
+      <c r="S70" s="23"/>
     </row>
     <row r="71" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71"/>
@@ -3487,9 +3391,9 @@
       <c r="K71"/>
       <c r="L71"/>
       <c r="M71"/>
-      <c r="N71" s="25"/>
+      <c r="N71" s="23"/>
       <c r="R71"/>
-      <c r="S71" s="25"/>
+      <c r="S71" s="23"/>
     </row>
     <row r="72" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72"/>
@@ -3505,9 +3409,9 @@
       <c r="K72"/>
       <c r="L72"/>
       <c r="M72"/>
-      <c r="N72" s="25"/>
+      <c r="N72" s="23"/>
       <c r="R72"/>
-      <c r="S72" s="25"/>
+      <c r="S72" s="23"/>
     </row>
     <row r="73" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73"/>
@@ -3523,9 +3427,9 @@
       <c r="K73"/>
       <c r="L73"/>
       <c r="M73"/>
-      <c r="N73" s="25"/>
+      <c r="N73" s="23"/>
       <c r="R73"/>
-      <c r="S73" s="25"/>
+      <c r="S73" s="23"/>
     </row>
     <row r="74" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74"/>
@@ -3541,9 +3445,9 @@
       <c r="K74"/>
       <c r="L74"/>
       <c r="M74"/>
-      <c r="N74" s="25"/>
+      <c r="N74" s="23"/>
       <c r="R74"/>
-      <c r="S74" s="25"/>
+      <c r="S74" s="23"/>
     </row>
     <row r="75" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75"/>
@@ -3559,9 +3463,9 @@
       <c r="K75"/>
       <c r="L75"/>
       <c r="M75"/>
-      <c r="N75" s="25"/>
+      <c r="N75" s="23"/>
       <c r="R75"/>
-      <c r="S75" s="25"/>
+      <c r="S75" s="23"/>
     </row>
     <row r="76" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76"/>
@@ -3577,9 +3481,9 @@
       <c r="K76"/>
       <c r="L76"/>
       <c r="M76"/>
-      <c r="N76" s="25"/>
+      <c r="N76" s="23"/>
       <c r="R76"/>
-      <c r="S76" s="25"/>
+      <c r="S76" s="23"/>
     </row>
     <row r="77" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77"/>
@@ -3595,9 +3499,9 @@
       <c r="K77"/>
       <c r="L77"/>
       <c r="M77"/>
-      <c r="N77" s="25"/>
+      <c r="N77" s="23"/>
       <c r="R77"/>
-      <c r="S77" s="25"/>
+      <c r="S77" s="23"/>
     </row>
     <row r="78" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78"/>
@@ -3613,9 +3517,9 @@
       <c r="K78"/>
       <c r="L78"/>
       <c r="M78"/>
-      <c r="N78" s="25"/>
+      <c r="N78" s="23"/>
       <c r="R78"/>
-      <c r="S78" s="25"/>
+      <c r="S78" s="23"/>
     </row>
     <row r="79" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79"/>
@@ -3631,9 +3535,9 @@
       <c r="K79"/>
       <c r="L79"/>
       <c r="M79"/>
-      <c r="N79" s="25"/>
+      <c r="N79" s="23"/>
       <c r="R79"/>
-      <c r="S79" s="25"/>
+      <c r="S79" s="23"/>
     </row>
     <row r="80" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80"/>
@@ -3649,9 +3553,9 @@
       <c r="K80"/>
       <c r="L80"/>
       <c r="M80"/>
-      <c r="N80" s="25"/>
+      <c r="N80" s="23"/>
       <c r="R80"/>
-      <c r="S80" s="25"/>
+      <c r="S80" s="23"/>
     </row>
     <row r="81" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81"/>
@@ -3667,9 +3571,9 @@
       <c r="K81"/>
       <c r="L81"/>
       <c r="M81"/>
-      <c r="N81" s="25"/>
+      <c r="N81" s="23"/>
       <c r="R81"/>
-      <c r="S81" s="25"/>
+      <c r="S81" s="23"/>
     </row>
     <row r="82" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82"/>
@@ -3685,9 +3589,9 @@
       <c r="K82"/>
       <c r="L82"/>
       <c r="M82"/>
-      <c r="N82" s="25"/>
+      <c r="N82" s="23"/>
       <c r="R82"/>
-      <c r="S82" s="25"/>
+      <c r="S82" s="23"/>
     </row>
     <row r="83" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83"/>
@@ -3703,9 +3607,9 @@
       <c r="K83"/>
       <c r="L83"/>
       <c r="M83"/>
-      <c r="N83" s="25"/>
+      <c r="N83" s="23"/>
       <c r="R83"/>
-      <c r="S83" s="25"/>
+      <c r="S83" s="23"/>
     </row>
     <row r="84" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84"/>
@@ -3721,9 +3625,9 @@
       <c r="K84"/>
       <c r="L84"/>
       <c r="M84"/>
-      <c r="N84" s="25"/>
+      <c r="N84" s="23"/>
       <c r="R84"/>
-      <c r="S84" s="25"/>
+      <c r="S84" s="23"/>
     </row>
     <row r="85" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85"/>
@@ -3739,9 +3643,9 @@
       <c r="K85"/>
       <c r="L85"/>
       <c r="M85"/>
-      <c r="N85" s="25"/>
+      <c r="N85" s="23"/>
       <c r="R85"/>
-      <c r="S85" s="25"/>
+      <c r="S85" s="23"/>
     </row>
     <row r="86" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86"/>
@@ -3757,9 +3661,9 @@
       <c r="K86"/>
       <c r="L86"/>
       <c r="M86"/>
-      <c r="N86" s="25"/>
+      <c r="N86" s="23"/>
       <c r="R86"/>
-      <c r="S86" s="25"/>
+      <c r="S86" s="23"/>
     </row>
     <row r="87" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87"/>
@@ -3775,9 +3679,9 @@
       <c r="K87"/>
       <c r="L87"/>
       <c r="M87"/>
-      <c r="N87" s="25"/>
+      <c r="N87" s="23"/>
       <c r="R87"/>
-      <c r="S87" s="25"/>
+      <c r="S87" s="23"/>
     </row>
     <row r="88" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88"/>
@@ -3793,9 +3697,9 @@
       <c r="K88"/>
       <c r="L88"/>
       <c r="M88"/>
-      <c r="N88" s="25"/>
+      <c r="N88" s="23"/>
       <c r="R88"/>
-      <c r="S88" s="25"/>
+      <c r="S88" s="23"/>
     </row>
     <row r="89" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89"/>
@@ -3811,9 +3715,9 @@
       <c r="K89"/>
       <c r="L89"/>
       <c r="M89"/>
-      <c r="N89" s="25"/>
+      <c r="N89" s="23"/>
       <c r="R89"/>
-      <c r="S89" s="25"/>
+      <c r="S89" s="23"/>
     </row>
     <row r="90" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90"/>
@@ -3829,9 +3733,9 @@
       <c r="K90"/>
       <c r="L90"/>
       <c r="M90"/>
-      <c r="N90" s="25"/>
+      <c r="N90" s="23"/>
       <c r="R90"/>
-      <c r="S90" s="25"/>
+      <c r="S90" s="23"/>
     </row>
     <row r="91" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91"/>
@@ -3847,9 +3751,9 @@
       <c r="K91"/>
       <c r="L91"/>
       <c r="M91"/>
-      <c r="N91" s="25"/>
+      <c r="N91" s="23"/>
       <c r="R91"/>
-      <c r="S91" s="25"/>
+      <c r="S91" s="23"/>
     </row>
     <row r="92" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92"/>
@@ -3865,9 +3769,9 @@
       <c r="K92"/>
       <c r="L92"/>
       <c r="M92"/>
-      <c r="N92" s="25"/>
+      <c r="N92" s="23"/>
       <c r="R92"/>
-      <c r="S92" s="25"/>
+      <c r="S92" s="23"/>
     </row>
     <row r="93" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93"/>
@@ -3883,9 +3787,9 @@
       <c r="K93"/>
       <c r="L93"/>
       <c r="M93"/>
-      <c r="N93" s="25"/>
+      <c r="N93" s="23"/>
       <c r="R93"/>
-      <c r="S93" s="25"/>
+      <c r="S93" s="23"/>
     </row>
     <row r="94" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94"/>
@@ -3901,9 +3805,9 @@
       <c r="K94"/>
       <c r="L94"/>
       <c r="M94"/>
-      <c r="N94" s="25"/>
+      <c r="N94" s="23"/>
       <c r="R94"/>
-      <c r="S94" s="25"/>
+      <c r="S94" s="23"/>
     </row>
     <row r="95" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95"/>
@@ -3919,9 +3823,9 @@
       <c r="K95"/>
       <c r="L95"/>
       <c r="M95"/>
-      <c r="N95" s="25"/>
+      <c r="N95" s="23"/>
       <c r="R95"/>
-      <c r="S95" s="25"/>
+      <c r="S95" s="23"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -3930,7 +3834,7 @@
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="2">
+  <dataValidations count="2">
     <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="H16 H8:H9" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
       <formula2>200</formula2>
@@ -3948,1243 +3852,13 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:S17"/>
-  <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" customWidth="1"/>
-    <col min="7" max="11" width="11.42578125" customWidth="1"/>
-    <col min="12" max="12" width="10" customWidth="1"/>
-    <col min="13" max="19" width="11.42578125" style="4" customWidth="1"/>
-    <col min="20" max="20" width="3.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-    </row>
-    <row r="2" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="M2"/>
-      <c r="P2"/>
-    </row>
-    <row r="3" spans="1:19" s="8" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="49" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" s="49" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" s="75" t="s">
-        <v>60</v>
-      </c>
-      <c r="M3" s="50" t="s">
-        <v>69</v>
-      </c>
-      <c r="N3" s="49" t="s">
-        <v>159</v>
-      </c>
-      <c r="O3" s="75" t="s">
-        <v>160</v>
-      </c>
-      <c r="P3" s="75" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="16"/>
-      <c r="M4"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="N5" s="47" t="s">
-        <v>152</v>
-      </c>
-      <c r="O5" s="47" t="s">
-        <v>154</v>
-      </c>
-      <c r="P5" s="107" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="M6"/>
-      <c r="N6"/>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:19" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="74" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="M10" s="46" t="s">
-        <v>79</v>
-      </c>
-      <c r="N10" s="75" t="s">
-        <v>159</v>
-      </c>
-      <c r="O10" s="75" t="s">
-        <v>160</v>
-      </c>
-      <c r="P10" s="75" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="M11"/>
-      <c r="N11"/>
-      <c r="O11"/>
-      <c r="P11"/>
-      <c r="Q11"/>
-      <c r="R11"/>
-      <c r="S11"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="K12" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="L12" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="M12" s="73" t="s">
-        <v>16</v>
-      </c>
-      <c r="N12" s="73" t="s">
-        <v>155</v>
-      </c>
-      <c r="O12" s="73" t="s">
-        <v>156</v>
-      </c>
-      <c r="P12" s="73" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="M13"/>
-      <c r="N13"/>
-      <c r="O13"/>
-      <c r="P13"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10" t="str">
-        <f ca="1">IF(A14&gt;0,SUMIF(OFFSET($A$12,0,0,$C$15,1),A14,OFFSET($A$12,0,9,$C$15,1)),"")</f>
-        <v/>
-      </c>
-      <c r="C14" s="9" t="str">
-        <f ca="1">IF(A14&gt;0,RANK(B14,OFFSET(A$5,0,0,#REF!,2)),"")</f>
-        <v/>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" t="s">
-        <v>115</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="G6" xr:uid="{00000000-0002-0000-0900-000000000000}">
-      <formula1>0</formula1>
-      <formula2>200</formula2>
-    </dataValidation>
-  </dataValidations>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.43307086614173229" header="0.23622047244094491" footer="0.15748031496062992"/>
-  <pageSetup scale="64" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;14Classement Sinclair - Sinclair Ranking&amp;R&amp;14Hommes - Men</oddHeader>
-    <oddFooter>&amp;R&amp;P</oddFooter>
-  </headerFooter>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="19" max="1048575" man="1"/>
-  </colBreaks>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:S18"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" customWidth="1"/>
-    <col min="7" max="11" width="11.42578125" customWidth="1"/>
-    <col min="12" max="12" width="10" customWidth="1"/>
-    <col min="13" max="19" width="11.42578125" style="4" customWidth="1"/>
-    <col min="20" max="20" width="3.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-    </row>
-    <row r="2" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="M2"/>
-      <c r="P2"/>
-    </row>
-    <row r="3" spans="1:19" s="8" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="49" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" s="49" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" s="75" t="s">
-        <v>62</v>
-      </c>
-      <c r="M3" s="50" t="s">
-        <v>69</v>
-      </c>
-      <c r="N3" s="49" t="s">
-        <v>159</v>
-      </c>
-      <c r="O3" s="75" t="s">
-        <v>160</v>
-      </c>
-      <c r="P3" s="75" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="16"/>
-      <c r="M4"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="N5" s="47" t="s">
-        <v>152</v>
-      </c>
-      <c r="O5" s="47" t="s">
-        <v>154</v>
-      </c>
-      <c r="P5" s="107" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="M6"/>
-      <c r="N6"/>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:19" ht="40.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="74" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="M10" s="46" t="s">
-        <v>79</v>
-      </c>
-      <c r="N10" s="75" t="s">
-        <v>159</v>
-      </c>
-      <c r="O10" s="75" t="s">
-        <v>160</v>
-      </c>
-      <c r="P10" s="75" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="M11"/>
-      <c r="N11"/>
-      <c r="O11"/>
-      <c r="P11"/>
-      <c r="Q11"/>
-      <c r="R11"/>
-      <c r="S11"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="K12" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="L12" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="M12" s="73" t="s">
-        <v>16</v>
-      </c>
-      <c r="N12" s="73" t="s">
-        <v>155</v>
-      </c>
-      <c r="O12" s="73" t="s">
-        <v>156</v>
-      </c>
-      <c r="P12" s="73" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="M13"/>
-      <c r="N13"/>
-      <c r="O13"/>
-      <c r="P13"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10" t="str">
-        <f ca="1">IF(A14&gt;0,SUMIF(OFFSET($A$12,0,0,$C$15,1),A14,OFFSET($A$12,0,9,$C$15,1)),"")</f>
-        <v/>
-      </c>
-      <c r="C14" s="9" t="str">
-        <f ca="1">IF(A14&gt;0,RANK(B14,OFFSET(A$5,0,0,#REF!,2)),"")</f>
-        <v/>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" t="s">
-        <v>116</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="G6" xr:uid="{00000000-0002-0000-0A00-000000000000}">
-      <formula1>0</formula1>
-      <formula2>200</formula2>
-    </dataValidation>
-  </dataValidations>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.43307086614173229" header="0.23622047244094491" footer="0.15748031496062992"/>
-  <pageSetup scale="64" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;14Classement Sinclair - Sinclair Ranking&amp;R&amp;14Hommes - Men</oddHeader>
-    <oddFooter>&amp;R&amp;P</oddFooter>
-  </headerFooter>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="19" max="1048575" man="1"/>
-  </colBreaks>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:S18"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" customWidth="1"/>
-    <col min="7" max="11" width="11.42578125" customWidth="1"/>
-    <col min="12" max="12" width="10" customWidth="1"/>
-    <col min="13" max="19" width="11.42578125" style="4" customWidth="1"/>
-    <col min="20" max="20" width="3.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-    </row>
-    <row r="2" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="M2"/>
-      <c r="P2"/>
-    </row>
-    <row r="3" spans="1:19" s="8" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="49" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" s="49" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" s="49" t="s">
-        <v>60</v>
-      </c>
-      <c r="E3" s="75" t="s">
-        <v>62</v>
-      </c>
-      <c r="M3" s="50" t="s">
-        <v>69</v>
-      </c>
-      <c r="N3" s="49" t="s">
-        <v>159</v>
-      </c>
-      <c r="O3" s="75" t="s">
-        <v>160</v>
-      </c>
-      <c r="P3" s="75" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="16"/>
-      <c r="M4"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="107" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="N5" s="47" t="s">
-        <v>152</v>
-      </c>
-      <c r="O5" s="47" t="s">
-        <v>154</v>
-      </c>
-      <c r="P5" s="107" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="M6"/>
-      <c r="N6"/>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="Q8"/>
-    </row>
-    <row r="9" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:19" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="74" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="M10" s="46" t="s">
-        <v>79</v>
-      </c>
-      <c r="N10" s="75" t="s">
-        <v>159</v>
-      </c>
-      <c r="O10" s="75" t="s">
-        <v>160</v>
-      </c>
-      <c r="P10" s="75" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="M11"/>
-      <c r="N11"/>
-      <c r="O11"/>
-      <c r="P11"/>
-      <c r="Q11"/>
-      <c r="R11"/>
-      <c r="S11"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="K12" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="L12" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="M12" s="73" t="s">
-        <v>16</v>
-      </c>
-      <c r="N12" s="73" t="s">
-        <v>155</v>
-      </c>
-      <c r="O12" s="73" t="s">
-        <v>156</v>
-      </c>
-      <c r="P12" s="73" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="M13"/>
-      <c r="N13"/>
-      <c r="O13"/>
-      <c r="P13"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10" t="str">
-        <f ca="1">IF(A14&gt;0,SUMIF(OFFSET($A$12,0,0,$C$15,1),A14,OFFSET($A$12,0,9,$C$15,1)),"")</f>
-        <v/>
-      </c>
-      <c r="C14" s="9" t="str">
-        <f ca="1">IF(A14&gt;0,RANK(B14,OFFSET(A$5,0,0,#REF!,2)),"")</f>
-        <v/>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" t="s">
-        <v>116</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="G6" xr:uid="{00000000-0002-0000-0B00-000000000000}">
-      <formula1>0</formula1>
-      <formula2>200</formula2>
-    </dataValidation>
-  </dataValidations>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.43307086614173229" header="0.23622047244094491" footer="0.15748031496062992"/>
-  <pageSetup scale="64" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;14Classement Sinclair - Sinclair Ranking&amp;R&amp;14Hommes - Men</oddHeader>
-    <oddFooter>&amp;R&amp;P</oddFooter>
-  </headerFooter>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="19" max="1048575" man="1"/>
-  </colBreaks>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:X8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="7.85546875" customWidth="1"/>
-    <col min="2" max="2" width="5.42578125" customWidth="1"/>
-    <col min="3" max="3" width="5.28515625" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" customWidth="1"/>
-    <col min="8" max="8" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" customWidth="1"/>
-    <col min="11" max="19" width="7.7109375" customWidth="1"/>
-    <col min="20" max="20" width="8.42578125" customWidth="1"/>
-    <col min="21" max="21" width="8.140625" customWidth="1"/>
-    <col min="22" max="22" width="10.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>129</v>
-      </c>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:24" s="76" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
-        <v>130</v>
-      </c>
-      <c r="J2" s="77"/>
-    </row>
-    <row r="3" spans="1:24" s="76" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="78"/>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="78"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="79"/>
-      <c r="Q3" s="79"/>
-      <c r="R3" s="79"/>
-      <c r="S3" s="78"/>
-      <c r="T3" s="78"/>
-      <c r="U3" s="79"/>
-      <c r="V3" s="79"/>
-    </row>
-    <row r="4" spans="1:24" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A4" s="80" t="s">
-        <v>131</v>
-      </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="83" t="s">
-        <v>132</v>
-      </c>
-      <c r="E4" s="84" t="s">
-        <v>133</v>
-      </c>
-      <c r="F4" s="83" t="s">
-        <v>67</v>
-      </c>
-      <c r="G4" s="85" t="s">
-        <v>134</v>
-      </c>
-      <c r="H4" s="86"/>
-      <c r="I4" s="83" t="s">
-        <v>135</v>
-      </c>
-      <c r="J4" s="80" t="s">
-        <v>136</v>
-      </c>
-      <c r="K4" s="87"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="82"/>
-      <c r="N4" s="80" t="s">
-        <v>69</v>
-      </c>
-      <c r="O4" s="81"/>
-      <c r="P4" s="88"/>
-      <c r="Q4" s="80" t="s">
-        <v>70</v>
-      </c>
-      <c r="R4" s="81"/>
-      <c r="S4" s="80" t="s">
-        <v>137</v>
-      </c>
-      <c r="T4" s="87"/>
-      <c r="U4" s="80" t="s">
-        <v>138</v>
-      </c>
-      <c r="V4" s="88"/>
-      <c r="X4" s="82"/>
-    </row>
-    <row r="5" spans="1:24" s="94" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="90" t="s">
-        <v>139</v>
-      </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="92"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="92"/>
-      <c r="J5" s="91"/>
-      <c r="K5" s="93"/>
-      <c r="M5" s="93"/>
-    </row>
-    <row r="6" spans="1:24" s="103" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="95" t="s">
-        <v>140</v>
-      </c>
-      <c r="B6" s="96"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="98" t="s">
-        <v>141</v>
-      </c>
-      <c r="E6" s="99" t="s">
-        <v>142</v>
-      </c>
-      <c r="F6" s="95" t="s">
-        <v>143</v>
-      </c>
-      <c r="G6" s="99" t="s">
-        <v>150</v>
-      </c>
-      <c r="H6" s="97"/>
-      <c r="I6" s="101" t="s">
-        <v>144</v>
-      </c>
-      <c r="J6" s="99" t="s">
-        <v>151</v>
-      </c>
-      <c r="K6" s="96"/>
-      <c r="L6" s="96"/>
-      <c r="M6" s="97"/>
-      <c r="N6" s="99" t="s">
-        <v>145</v>
-      </c>
-      <c r="O6" s="96"/>
-      <c r="P6" s="97"/>
-      <c r="Q6" s="95" t="s">
-        <v>146</v>
-      </c>
-      <c r="R6" s="96"/>
-      <c r="S6" s="100" t="s">
-        <v>147</v>
-      </c>
-      <c r="T6" s="96"/>
-      <c r="U6" s="102" t="s">
-        <v>148</v>
-      </c>
-      <c r="V6" s="97"/>
-      <c r="X6" s="97"/>
-    </row>
-    <row r="7" spans="1:24" s="103" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="103" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="91"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="92"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="104"/>
-      <c r="J7" s="105"/>
-      <c r="K7" s="104"/>
-      <c r="L7" s="106"/>
-      <c r="M7" s="104"/>
-      <c r="N7" s="106"/>
-      <c r="O7" s="91"/>
-      <c r="W7"/>
-    </row>
-    <row r="8" spans="1:24" s="103" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="103" t="s">
-        <v>149</v>
-      </c>
-      <c r="B8" s="91"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="91"/>
-      <c r="E8" s="92"/>
-      <c r="F8" s="92"/>
-      <c r="G8" s="92"/>
-      <c r="H8" s="92"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="105"/>
-      <c r="K8" s="104"/>
-      <c r="L8" s="106"/>
-      <c r="M8" s="104"/>
-      <c r="N8" s="106"/>
-      <c r="O8" s="91"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="C5:D5">
-    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
-      <formula>AND((#REF!),#REF!,#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
-      <formula>AND((#REF!),#REF!,#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D1:F3">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
-      <formula>AND((#REF!),#REF!,#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5" xr:uid="{00000000-0002-0000-0C00-000000000000}">
-      <formula1>0</formula1>
-      <formula2>200</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="H1:H3" xr:uid="{00000000-0002-0000-0C00-000001000000}">
-      <formula1>0</formula1>
-      <formula2>200</formula2>
-    </dataValidation>
-  </dataValidations>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.43307086614173229" header="0.23622047244094491" footer="0.15748031496062992"/>
-  <pageSetup scale="60" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;14Classement Sinclair - Sinclair Ranking&amp;R&amp;14Hommes - Men</oddHeader>
-    <oddFooter>&amp;R&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:B202"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:G1"/>
     </sheetView>
   </sheetViews>
@@ -5192,10 +3866,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="B1" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -6824,8 +5498,8 @@
   </sheetPr>
   <dimension ref="A1:W107"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G2"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6843,7 +5517,7 @@
     <col min="11" max="11" width="6.28515625" style="1" customWidth="1"/>
     <col min="12" max="12" width="6.140625" style="1" customWidth="1"/>
     <col min="13" max="13" width="6.140625" customWidth="1"/>
-    <col min="14" max="14" width="7" style="25" customWidth="1"/>
+    <col min="14" max="14" width="7" style="23" customWidth="1"/>
     <col min="15" max="15" width="6.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="6.42578125" style="1" customWidth="1"/>
     <col min="17" max="17" width="6.5703125" style="1" customWidth="1"/>
@@ -6854,59 +5528,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="117" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="119" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" s="121" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="123" t="s">
+      <c r="A1" s="110" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="112" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="114" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="116" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="110" t="s">
-        <v>67</v>
-      </c>
-      <c r="F1" s="110" t="s">
-        <v>68</v>
-      </c>
-      <c r="G1" s="110" t="s">
-        <v>69</v>
-      </c>
-      <c r="H1" s="110" t="s">
-        <v>70</v>
-      </c>
-      <c r="I1" s="112" t="s">
-        <v>71</v>
-      </c>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="113"/>
-      <c r="N1" s="112" t="s">
-        <v>72</v>
-      </c>
-      <c r="O1" s="113"/>
-      <c r="P1" s="113"/>
-      <c r="Q1" s="113"/>
-      <c r="R1" s="113"/>
-      <c r="S1" s="114" t="s">
-        <v>73</v>
-      </c>
-      <c r="T1" s="115"/>
+      <c r="E1" s="106" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="106" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="106" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="106" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" s="108" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="108" t="s">
+        <v>63</v>
+      </c>
+      <c r="O1" s="109"/>
+      <c r="P1" s="109"/>
+      <c r="Q1" s="109"/>
+      <c r="R1" s="109"/>
+      <c r="S1" s="103" t="s">
+        <v>64</v>
+      </c>
+      <c r="T1" s="104"/>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="118"/>
-      <c r="B2" s="120"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="36">
+      <c r="A2" s="111"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="34">
         <v>1</v>
       </c>
       <c r="J2" s="17">
@@ -6915,11 +5589,11 @@
       <c r="K2" s="17">
         <v>3</v>
       </c>
-      <c r="L2" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="M2" s="63" t="s">
-        <v>75</v>
+      <c r="L2" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="M2" s="56" t="s">
+        <v>66</v>
       </c>
       <c r="N2" s="17">
         <v>1</v>
@@ -6930,77 +5604,77 @@
       <c r="P2" s="17">
         <v>3</v>
       </c>
-      <c r="Q2" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="R2" s="63" t="s">
-        <v>75</v>
-      </c>
-      <c r="S2" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="T2" s="63" t="s">
-        <v>75</v>
+      <c r="Q2" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="R2" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="S2" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="T2" s="56" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:23" s="19" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="64" t="s">
-        <v>119</v>
-      </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="67"/>
+      <c r="A3" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="60"/>
     </row>
     <row r="4" spans="1:23" s="19" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="65"/>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="67"/>
+      <c r="A4" s="58"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="60"/>
     </row>
     <row r="5" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="68" t="s">
-        <v>120</v>
-      </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="70"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="70"/>
-      <c r="T5" s="71"/>
+      <c r="A5" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="62"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="63"/>
+      <c r="O5" s="63"/>
+      <c r="P5" s="63"/>
+      <c r="Q5" s="63"/>
+      <c r="R5" s="63"/>
+      <c r="S5" s="63"/>
+      <c r="T5" s="64"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
@@ -7019,63 +5693,63 @@
       <c r="T6"/>
     </row>
     <row r="7" spans="1:23" s="19" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="32" t="s">
+      <c r="B7" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="18"/>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="31" t="s">
+      <c r="F7" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="30" t="s">
+      <c r="G7" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" s="28" t="s">
+      <c r="H7" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="J7" s="28" t="s">
+      <c r="J7" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="K7" s="28" t="s">
+      <c r="K7" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="L7" s="27" t="s">
+      <c r="L7" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="62" t="s">
+      <c r="M7" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="N7" s="28" t="s">
+      <c r="N7" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="O7" s="28" t="s">
+      <c r="O7" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="P7" s="28" t="s">
+      <c r="P7" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="Q7" s="27" t="s">
+      <c r="Q7" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="R7" s="62" t="s">
+      <c r="R7" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="S7" s="26" t="s">
+      <c r="S7" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="T7" s="61" t="s">
-        <v>117</v>
+      <c r="T7" s="54" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
@@ -7134,11 +5808,11 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1"/>
-      <c r="R15" s="116"/>
+      <c r="R15" s="105"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C16" s="1"/>
-      <c r="R16" s="116"/>
+      <c r="R16" s="105"/>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C17" s="1"/>
@@ -7416,34 +6090,34 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="12">
-    <mergeCell ref="R15:R16"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="R15:R16"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:M1"/>
     <mergeCell ref="N1:R1"/>
-    <mergeCell ref="S1:T1"/>
   </mergeCells>
   <conditionalFormatting sqref="B8:C8">
-    <cfRule type="expression" dxfId="16" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="4" stopIfTrue="1">
       <formula>AND((#REF!),#REF!,#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:C9">
-    <cfRule type="expression" dxfId="15" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="1" stopIfTrue="1">
       <formula>AND((#REF!),#REF!,#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:D4">
-    <cfRule type="expression" dxfId="14" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="2" stopIfTrue="1">
       <formula>AND((#REF!),#REF!,#REF!)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="3" stopIfTrue="1">
       <formula>AND((#REF!),#REF!,#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7468,1691 +6142,13 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:W102"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5.28515625" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="12" width="7.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="7.7109375" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" style="25" customWidth="1"/>
-    <col min="15" max="17" width="7.7109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="10" style="1" customWidth="1"/>
-    <col min="19" max="19" width="10" customWidth="1"/>
-    <col min="20" max="20" width="8.42578125" style="25" customWidth="1"/>
-    <col min="21" max="22" width="10.140625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="125" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="125" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" s="127" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="123" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="110" t="s">
-        <v>67</v>
-      </c>
-      <c r="F1" s="133" t="s">
-        <v>68</v>
-      </c>
-      <c r="G1" s="134" t="s">
-        <v>69</v>
-      </c>
-      <c r="H1" s="135" t="s">
-        <v>70</v>
-      </c>
-      <c r="I1" s="137" t="s">
-        <v>71</v>
-      </c>
-      <c r="J1" s="137"/>
-      <c r="K1" s="137"/>
-      <c r="L1" s="137"/>
-      <c r="M1" s="137" t="s">
-        <v>72</v>
-      </c>
-      <c r="N1" s="137"/>
-      <c r="O1" s="137"/>
-      <c r="P1" s="137"/>
-      <c r="Q1" s="130" t="s">
-        <v>73</v>
-      </c>
-      <c r="R1" s="132" t="s">
-        <v>76</v>
-      </c>
-      <c r="S1" s="132"/>
-      <c r="T1" s="132"/>
-      <c r="V1"/>
-      <c r="W1"/>
-    </row>
-    <row r="2" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="126"/>
-      <c r="B2" s="126"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="134"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="17">
-        <v>1</v>
-      </c>
-      <c r="J2" s="17">
-        <v>2</v>
-      </c>
-      <c r="K2" s="17">
-        <v>3</v>
-      </c>
-      <c r="L2" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" s="17">
-        <v>1</v>
-      </c>
-      <c r="N2" s="17">
-        <v>2</v>
-      </c>
-      <c r="O2" s="17">
-        <v>3</v>
-      </c>
-      <c r="P2" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q2" s="131"/>
-      <c r="R2" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="S2" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="T2" s="42" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="N3"/>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3"/>
-      <c r="T3"/>
-      <c r="U3"/>
-      <c r="V3"/>
-      <c r="W3"/>
-    </row>
-    <row r="4" spans="1:23" s="19" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="L4" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="M4" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="N4" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="O4" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="P4" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q4" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="R4" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="S4" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="T4" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="W4" s="21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5"/>
-      <c r="W5"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B8" s="20"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C10" s="1"/>
-      <c r="R10" s="116"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C11" s="1"/>
-      <c r="R11" s="116"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C31" s="1"/>
-    </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C32" s="1"/>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C33" s="1"/>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C34" s="1"/>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C35" s="1"/>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C36" s="1"/>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C37" s="1"/>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C38" s="1"/>
-    </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C39" s="1"/>
-    </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C40" s="1"/>
-    </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C41" s="1"/>
-    </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C42" s="1"/>
-    </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C43" s="1"/>
-    </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C44" s="1"/>
-    </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C45" s="1"/>
-    </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C46" s="1"/>
-    </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C47" s="1"/>
-    </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C48" s="1"/>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C49" s="1"/>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C50" s="1"/>
-    </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C51" s="1"/>
-    </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C52" s="1"/>
-    </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C53" s="1"/>
-    </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C54" s="1"/>
-    </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C55" s="1"/>
-    </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C56" s="1"/>
-    </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C57" s="1"/>
-    </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C58" s="1"/>
-    </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C59" s="1"/>
-    </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C60" s="1"/>
-    </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C61" s="1"/>
-    </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C62" s="1"/>
-    </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C63" s="1"/>
-    </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C64" s="1"/>
-    </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C65" s="1"/>
-    </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C66" s="1"/>
-    </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C67" s="1"/>
-    </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C68" s="1"/>
-    </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C69" s="1"/>
-    </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C70" s="1"/>
-    </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C71" s="1"/>
-    </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C72" s="1"/>
-    </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C73" s="1"/>
-    </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C74" s="1"/>
-    </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C75" s="1"/>
-    </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C76" s="1"/>
-    </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C77" s="1"/>
-    </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C78" s="1"/>
-    </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C79" s="1"/>
-    </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C80" s="1"/>
-    </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C81" s="1"/>
-    </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C82" s="1"/>
-    </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C83" s="1"/>
-    </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C84" s="1"/>
-    </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C85" s="1"/>
-    </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C86" s="1"/>
-    </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C87" s="1"/>
-    </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C88" s="1"/>
-    </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C89" s="1"/>
-    </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C90" s="1"/>
-    </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C91" s="1"/>
-    </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C92" s="1"/>
-    </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C93" s="1"/>
-    </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C94" s="1"/>
-    </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C95" s="1"/>
-    </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C96" s="1"/>
-    </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C97" s="1"/>
-    </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C98" s="1"/>
-    </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C99" s="1"/>
-    </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C100" s="1"/>
-    </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C101" s="1"/>
-    </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C102" s="1"/>
-    </row>
-  </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <mergeCells count="13">
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="Q1:Q2"/>
-  </mergeCells>
-  <conditionalFormatting sqref="B4:C4">
-    <cfRule type="expression" dxfId="12" priority="1" stopIfTrue="1">
-      <formula>AND(("$'Hommes Sinclair'.$#REF!$#REF!"),"$'Hommes Sinclair'.$#REF!$#REF!","$'Hommes Sinclair'.$#REF!$#REF!")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="F4:F5" xr:uid="{00000000-0002-0000-0200-000000000000}">
-      <formula1>0</formula1>
-      <formula2>200</formula2>
-    </dataValidation>
-  </dataValidations>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.43307086614173229" header="0.23622047244094491" footer="0.15748031496062992"/>
-  <pageSetup scale="70" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;14Classement Sinclair - Sinclair Ranking&amp;R&amp;14Hommes - Men</oddHeader>
-    <oddFooter>&amp;R&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:V102"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5.28515625" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="23" customWidth="1"/>
-    <col min="9" max="12" width="7.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="7.7109375" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" style="25" customWidth="1"/>
-    <col min="15" max="17" width="7.7109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="10" style="1" customWidth="1"/>
-    <col min="19" max="19" width="10" customWidth="1"/>
-    <col min="20" max="21" width="10.140625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="125" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="125" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" s="127" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="123" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="110" t="s">
-        <v>67</v>
-      </c>
-      <c r="F1" s="133" t="s">
-        <v>68</v>
-      </c>
-      <c r="G1" s="134" t="s">
-        <v>69</v>
-      </c>
-      <c r="H1" s="138" t="s">
-        <v>70</v>
-      </c>
-      <c r="I1" s="137" t="s">
-        <v>71</v>
-      </c>
-      <c r="J1" s="137"/>
-      <c r="K1" s="137"/>
-      <c r="L1" s="137"/>
-      <c r="M1" s="137" t="s">
-        <v>72</v>
-      </c>
-      <c r="N1" s="137"/>
-      <c r="O1" s="137"/>
-      <c r="P1" s="137"/>
-      <c r="Q1" s="130" t="s">
-        <v>73</v>
-      </c>
-      <c r="R1" s="132" t="s">
-        <v>162</v>
-      </c>
-      <c r="S1" s="132"/>
-      <c r="U1"/>
-      <c r="V1"/>
-    </row>
-    <row r="2" spans="1:22" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="126"/>
-      <c r="B2" s="126"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="134"/>
-      <c r="H2" s="138"/>
-      <c r="I2" s="17">
-        <v>1</v>
-      </c>
-      <c r="J2" s="17">
-        <v>2</v>
-      </c>
-      <c r="K2" s="17">
-        <v>3</v>
-      </c>
-      <c r="L2" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" s="17">
-        <v>1</v>
-      </c>
-      <c r="N2" s="17">
-        <v>2</v>
-      </c>
-      <c r="O2" s="17">
-        <v>3</v>
-      </c>
-      <c r="P2" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q2" s="131"/>
-      <c r="R2" s="43" t="s">
-        <v>162</v>
-      </c>
-      <c r="S2" s="42" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3" s="22"/>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="N3"/>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3"/>
-      <c r="T3"/>
-      <c r="U3"/>
-      <c r="V3"/>
-    </row>
-    <row r="4" spans="1:22" s="19" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="L4" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="M4" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="N4" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="O4" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="P4" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q4" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="R4" s="40" t="s">
-        <v>163</v>
-      </c>
-      <c r="S4" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="V4" s="21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5" s="22"/>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B8" s="20"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C10" s="1"/>
-      <c r="R10" s="116"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C11" s="1"/>
-      <c r="R11" s="116"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C31" s="1"/>
-    </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C32" s="1"/>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C33" s="1"/>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C34" s="1"/>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C35" s="1"/>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C36" s="1"/>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C37" s="1"/>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C38" s="1"/>
-    </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C39" s="1"/>
-    </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C40" s="1"/>
-    </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C41" s="1"/>
-    </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C42" s="1"/>
-    </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C43" s="1"/>
-    </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C44" s="1"/>
-    </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C45" s="1"/>
-    </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C46" s="1"/>
-    </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C47" s="1"/>
-    </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C48" s="1"/>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C49" s="1"/>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C50" s="1"/>
-    </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C51" s="1"/>
-    </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C52" s="1"/>
-    </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C53" s="1"/>
-    </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C54" s="1"/>
-    </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C55" s="1"/>
-    </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C56" s="1"/>
-    </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C57" s="1"/>
-    </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C58" s="1"/>
-    </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C59" s="1"/>
-    </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C60" s="1"/>
-    </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C61" s="1"/>
-    </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C62" s="1"/>
-    </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C63" s="1"/>
-    </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C64" s="1"/>
-    </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C65" s="1"/>
-    </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C66" s="1"/>
-    </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C67" s="1"/>
-    </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C68" s="1"/>
-    </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C69" s="1"/>
-    </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C70" s="1"/>
-    </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C71" s="1"/>
-    </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C72" s="1"/>
-    </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C73" s="1"/>
-    </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C74" s="1"/>
-    </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C75" s="1"/>
-    </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C76" s="1"/>
-    </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C77" s="1"/>
-    </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C78" s="1"/>
-    </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C79" s="1"/>
-    </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C80" s="1"/>
-    </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C81" s="1"/>
-    </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C82" s="1"/>
-    </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C83" s="1"/>
-    </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C84" s="1"/>
-    </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C85" s="1"/>
-    </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C86" s="1"/>
-    </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C87" s="1"/>
-    </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C88" s="1"/>
-    </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C89" s="1"/>
-    </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C90" s="1"/>
-    </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C91" s="1"/>
-    </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C92" s="1"/>
-    </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C93" s="1"/>
-    </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C94" s="1"/>
-    </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C95" s="1"/>
-    </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C96" s="1"/>
-    </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C97" s="1"/>
-    </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C98" s="1"/>
-    </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C99" s="1"/>
-    </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C100" s="1"/>
-    </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C101" s="1"/>
-    </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C102" s="1"/>
-    </row>
-  </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <mergeCells count="13">
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:S1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="B4:C4">
-    <cfRule type="expression" dxfId="11" priority="1" stopIfTrue="1">
-      <formula>AND(("$'Hommes Sinclair'.$#REF!$#REF!"),"$'Hommes Sinclair'.$#REF!$#REF!","$'Hommes Sinclair'.$#REF!$#REF!")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="F4:F5" xr:uid="{00000000-0002-0000-0300-000000000000}">
-      <formula1>0</formula1>
-      <formula2>200</formula2>
-    </dataValidation>
-  </dataValidations>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.43307086614173229" header="0.23622047244094491" footer="0.15748031496062992"/>
-  <pageSetup scale="73" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;14Classement Sinclair - Sinclair Ranking&amp;R&amp;14Hommes - Men</oddHeader>
-    <oddFooter>&amp;R&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:V102"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5.28515625" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="23" customWidth="1"/>
-    <col min="9" max="12" width="7.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="7.7109375" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" style="25" customWidth="1"/>
-    <col min="15" max="17" width="7.7109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="10" style="1" customWidth="1"/>
-    <col min="19" max="19" width="10" customWidth="1"/>
-    <col min="20" max="21" width="10.140625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="125" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="125" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" s="127" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="123" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="110" t="s">
-        <v>67</v>
-      </c>
-      <c r="F1" s="133" t="s">
-        <v>68</v>
-      </c>
-      <c r="G1" s="134" t="s">
-        <v>69</v>
-      </c>
-      <c r="H1" s="138" t="s">
-        <v>70</v>
-      </c>
-      <c r="I1" s="137" t="s">
-        <v>71</v>
-      </c>
-      <c r="J1" s="137"/>
-      <c r="K1" s="137"/>
-      <c r="L1" s="137"/>
-      <c r="M1" s="137" t="s">
-        <v>72</v>
-      </c>
-      <c r="N1" s="137"/>
-      <c r="O1" s="137"/>
-      <c r="P1" s="137"/>
-      <c r="Q1" s="130" t="s">
-        <v>73</v>
-      </c>
-      <c r="R1" s="132" t="s">
-        <v>53</v>
-      </c>
-      <c r="S1" s="132"/>
-      <c r="U1"/>
-      <c r="V1"/>
-    </row>
-    <row r="2" spans="1:22" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="126"/>
-      <c r="B2" s="126"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="134"/>
-      <c r="H2" s="138"/>
-      <c r="I2" s="17">
-        <v>1</v>
-      </c>
-      <c r="J2" s="17">
-        <v>2</v>
-      </c>
-      <c r="K2" s="17">
-        <v>3</v>
-      </c>
-      <c r="L2" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" s="17">
-        <v>1</v>
-      </c>
-      <c r="N2" s="17">
-        <v>2</v>
-      </c>
-      <c r="O2" s="17">
-        <v>3</v>
-      </c>
-      <c r="P2" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q2" s="131"/>
-      <c r="R2" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="S2" s="42" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3" s="22"/>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="N3"/>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3"/>
-      <c r="T3"/>
-      <c r="U3"/>
-      <c r="V3"/>
-    </row>
-    <row r="4" spans="1:22" s="19" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="L4" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="M4" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="N4" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="O4" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="P4" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q4" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="R4" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="S4" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="V4" s="21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5" s="22"/>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B8" s="20"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C10" s="1"/>
-      <c r="R10" s="116"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C11" s="1"/>
-      <c r="R11" s="116"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C31" s="1"/>
-    </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C32" s="1"/>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C33" s="1"/>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C34" s="1"/>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C35" s="1"/>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C36" s="1"/>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C37" s="1"/>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C38" s="1"/>
-    </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C39" s="1"/>
-    </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C40" s="1"/>
-    </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C41" s="1"/>
-    </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C42" s="1"/>
-    </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C43" s="1"/>
-    </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C44" s="1"/>
-    </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C45" s="1"/>
-    </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C46" s="1"/>
-    </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C47" s="1"/>
-    </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C48" s="1"/>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C49" s="1"/>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C50" s="1"/>
-    </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C51" s="1"/>
-    </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C52" s="1"/>
-    </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C53" s="1"/>
-    </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C54" s="1"/>
-    </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C55" s="1"/>
-    </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C56" s="1"/>
-    </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C57" s="1"/>
-    </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C58" s="1"/>
-    </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C59" s="1"/>
-    </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C60" s="1"/>
-    </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C61" s="1"/>
-    </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C62" s="1"/>
-    </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C63" s="1"/>
-    </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C64" s="1"/>
-    </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C65" s="1"/>
-    </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C66" s="1"/>
-    </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C67" s="1"/>
-    </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C68" s="1"/>
-    </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C69" s="1"/>
-    </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C70" s="1"/>
-    </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C71" s="1"/>
-    </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C72" s="1"/>
-    </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C73" s="1"/>
-    </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C74" s="1"/>
-    </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C75" s="1"/>
-    </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C76" s="1"/>
-    </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C77" s="1"/>
-    </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C78" s="1"/>
-    </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C79" s="1"/>
-    </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C80" s="1"/>
-    </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C81" s="1"/>
-    </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C82" s="1"/>
-    </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C83" s="1"/>
-    </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C84" s="1"/>
-    </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C85" s="1"/>
-    </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C86" s="1"/>
-    </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C87" s="1"/>
-    </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C88" s="1"/>
-    </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C89" s="1"/>
-    </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C90" s="1"/>
-    </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C91" s="1"/>
-    </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C92" s="1"/>
-    </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C93" s="1"/>
-    </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C94" s="1"/>
-    </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C95" s="1"/>
-    </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C96" s="1"/>
-    </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C97" s="1"/>
-    </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C98" s="1"/>
-    </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C99" s="1"/>
-    </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C100" s="1"/>
-    </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C101" s="1"/>
-    </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C102" s="1"/>
-    </row>
-  </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <mergeCells count="13">
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="Q1:Q2"/>
-  </mergeCells>
-  <conditionalFormatting sqref="B4:C4">
-    <cfRule type="expression" dxfId="10" priority="1" stopIfTrue="1">
-      <formula>AND(("$'Hommes Sinclair'.$#REF!$#REF!"),"$'Hommes Sinclair'.$#REF!$#REF!","$'Hommes Sinclair'.$#REF!$#REF!")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="F4:F5" xr:uid="{00000000-0002-0000-0400-000000000000}">
-      <formula1>0</formula1>
-      <formula2>200</formula2>
-    </dataValidation>
-  </dataValidations>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.43307086614173229" header="0.23622047244094491" footer="0.15748031496062992"/>
-  <pageSetup scale="73" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;14Classement Sinclair - Sinclair Ranking&amp;R&amp;14Hommes - Men</oddHeader>
-    <oddFooter>&amp;R&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:W108"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:G1"/>
     </sheetView>
   </sheetViews>
@@ -9181,59 +6177,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="117" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="119" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" s="121" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="123" t="s">
+      <c r="A1" s="110" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="112" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="114" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="116" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="110" t="s">
-        <v>67</v>
-      </c>
-      <c r="F1" s="110" t="s">
-        <v>68</v>
-      </c>
-      <c r="G1" s="110" t="s">
-        <v>69</v>
-      </c>
-      <c r="H1" s="110" t="s">
-        <v>70</v>
-      </c>
-      <c r="I1" s="112" t="s">
-        <v>71</v>
-      </c>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="113"/>
-      <c r="N1" s="112" t="s">
-        <v>72</v>
-      </c>
-      <c r="O1" s="113"/>
-      <c r="P1" s="113"/>
-      <c r="Q1" s="113"/>
-      <c r="R1" s="113"/>
-      <c r="S1" s="114" t="s">
-        <v>73</v>
-      </c>
-      <c r="T1" s="115"/>
+      <c r="E1" s="106" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="106" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="106" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="106" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" s="108" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="108" t="s">
+        <v>63</v>
+      </c>
+      <c r="O1" s="109"/>
+      <c r="P1" s="109"/>
+      <c r="Q1" s="109"/>
+      <c r="R1" s="109"/>
+      <c r="S1" s="103" t="s">
+        <v>64</v>
+      </c>
+      <c r="T1" s="104"/>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="118"/>
-      <c r="B2" s="120"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="36">
+      <c r="A2" s="111"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="34">
         <v>1</v>
       </c>
       <c r="J2" s="17">
@@ -9242,11 +6238,11 @@
       <c r="K2" s="17">
         <v>3</v>
       </c>
-      <c r="L2" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="M2" s="63" t="s">
-        <v>75</v>
+      <c r="L2" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="M2" s="56" t="s">
+        <v>66</v>
       </c>
       <c r="N2" s="17">
         <v>1</v>
@@ -9257,77 +6253,77 @@
       <c r="P2" s="17">
         <v>3</v>
       </c>
-      <c r="Q2" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="R2" s="63" t="s">
-        <v>75</v>
-      </c>
-      <c r="S2" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="T2" s="63" t="s">
-        <v>75</v>
+      <c r="Q2" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="R2" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="S2" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="T2" s="56" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:23" s="19" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="64" t="s">
-        <v>122</v>
-      </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="67"/>
+      <c r="A3" s="57" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="60"/>
     </row>
     <row r="4" spans="1:23" s="19" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="65"/>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="67"/>
+      <c r="A4" s="58"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="60"/>
     </row>
     <row r="5" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="68" t="s">
-        <v>120</v>
-      </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="70"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="70"/>
-      <c r="T5" s="71"/>
+      <c r="A5" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="62"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="63"/>
+      <c r="O5" s="63"/>
+      <c r="P5" s="63"/>
+      <c r="Q5" s="63"/>
+      <c r="R5" s="63"/>
+      <c r="S5" s="63"/>
+      <c r="T5" s="64"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
@@ -9344,63 +6340,63 @@
       <c r="R6"/>
     </row>
     <row r="7" spans="1:23" s="19" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="32" t="s">
+      <c r="B7" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="18"/>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="31" t="s">
+      <c r="F7" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="30" t="s">
+      <c r="G7" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" s="28" t="s">
+      <c r="H7" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="J7" s="28" t="s">
+      <c r="J7" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="K7" s="28" t="s">
+      <c r="K7" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="L7" s="27" t="s">
+      <c r="L7" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="62" t="s">
+      <c r="M7" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="N7" s="28" t="s">
+      <c r="N7" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="O7" s="28" t="s">
+      <c r="O7" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="P7" s="28" t="s">
+      <c r="P7" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="Q7" s="27" t="s">
+      <c r="Q7" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="R7" s="62" t="s">
+      <c r="R7" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="S7" s="26" t="s">
+      <c r="S7" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="T7" s="61" t="s">
-        <v>117</v>
+      <c r="T7" s="54" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
@@ -9460,11 +6456,11 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C16" s="1"/>
-      <c r="P16" s="116"/>
+      <c r="P16" s="105"/>
     </row>
     <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1"/>
-      <c r="P17" s="116"/>
+      <c r="P17" s="105"/>
     </row>
     <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1"/>
@@ -9742,34 +6738,34 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="12">
-    <mergeCell ref="P16:P17"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="P16:P17"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:M1"/>
     <mergeCell ref="N1:R1"/>
-    <mergeCell ref="S1:T1"/>
   </mergeCells>
   <conditionalFormatting sqref="B8:C8">
-    <cfRule type="expression" dxfId="9" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="4" stopIfTrue="1">
       <formula>AND((#REF!),#REF!,#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:C9">
-    <cfRule type="expression" dxfId="8" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="1" stopIfTrue="1">
       <formula>AND((#REF!),#REF!,#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:D4">
-    <cfRule type="expression" dxfId="7" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="2" stopIfTrue="1">
       <formula>AND((#REF!),#REF!,#REF!)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="3" stopIfTrue="1">
       <formula>AND((#REF!),#REF!,#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9793,18 +6789,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F035301-E39A-412F-8DAA-0E7E10E7CC84}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:W97"/>
+  <dimension ref="A1:V102"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.28515625" customWidth="1"/>
     <col min="2" max="2" width="22.7109375" customWidth="1"/>
@@ -9816,72 +6812,71 @@
     <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
     <col min="9" max="12" width="7.7109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="7.7109375" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" style="25" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" style="23" customWidth="1"/>
     <col min="15" max="17" width="7.7109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="10" style="1" customWidth="1"/>
-    <col min="19" max="19" width="10" customWidth="1"/>
-    <col min="20" max="20" width="8.42578125" style="25" customWidth="1"/>
-    <col min="21" max="23" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="0" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="18.7109375" customWidth="1"/>
+    <col min="19" max="19" width="9.85546875" style="23" customWidth="1"/>
+    <col min="20" max="21" width="10.140625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="125" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="125" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" s="127" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="123" t="s">
+    <row r="1" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="118" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="118" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="120" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="116" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="110" t="s">
-        <v>67</v>
-      </c>
-      <c r="F1" s="133" t="s">
-        <v>68</v>
-      </c>
-      <c r="G1" s="134" t="s">
-        <v>69</v>
-      </c>
-      <c r="H1" s="135" t="s">
-        <v>70</v>
-      </c>
-      <c r="I1" s="137" t="s">
-        <v>71</v>
-      </c>
-      <c r="J1" s="137"/>
-      <c r="K1" s="137"/>
-      <c r="L1" s="137"/>
-      <c r="M1" s="137" t="s">
-        <v>72</v>
-      </c>
-      <c r="N1" s="137"/>
-      <c r="O1" s="137"/>
-      <c r="P1" s="137"/>
-      <c r="Q1" s="130" t="s">
-        <v>73</v>
-      </c>
-      <c r="R1" s="132" t="s">
-        <v>76</v>
-      </c>
-      <c r="S1" s="132"/>
-      <c r="T1" s="132"/>
+      <c r="E1" s="106" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="125" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="126" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="127" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" s="129" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="129" t="s">
+        <v>63</v>
+      </c>
+      <c r="N1" s="129"/>
+      <c r="O1" s="129"/>
+      <c r="P1" s="129"/>
+      <c r="Q1" s="123" t="s">
+        <v>64</v>
+      </c>
+      <c r="R1" s="130" t="s">
+        <v>151</v>
+      </c>
+      <c r="S1" s="130"/>
+      <c r="U1"/>
       <c r="V1"/>
-      <c r="W1"/>
-    </row>
-    <row r="2" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="126"/>
-      <c r="B2" s="126"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="134"/>
-      <c r="H2" s="136"/>
+    </row>
+    <row r="2" spans="1:22" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="119"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="128"/>
       <c r="I2" s="17">
         <v>1</v>
       </c>
@@ -9891,7 +6886,7 @@
       <c r="K2" s="17">
         <v>3</v>
       </c>
-      <c r="L2" s="35" t="s">
+      <c r="L2" s="33" t="s">
         <v>29</v>
       </c>
       <c r="M2" s="17">
@@ -9903,23 +6898,20 @@
       <c r="O2" s="17">
         <v>3</v>
       </c>
-      <c r="P2" s="44" t="s">
+      <c r="P2" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="131"/>
-      <c r="R2" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="S2" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="T2" s="42" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Q2" s="124"/>
+      <c r="R2" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="S2" s="56" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>153</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -9934,76 +6926,72 @@
       <c r="O3"/>
       <c r="P3"/>
       <c r="Q3"/>
-      <c r="R3"/>
+      <c r="S3"/>
       <c r="T3"/>
       <c r="U3"/>
       <c r="V3"/>
-      <c r="W3"/>
-    </row>
-    <row r="4" spans="1:23" s="19" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="33" t="s">
+    </row>
+    <row r="4" spans="1:22" s="19" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="41" t="s">
+      <c r="B4" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="37" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="30" t="s">
+      <c r="E4" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="F4" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="G4" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" s="28" t="s">
+      <c r="H4" s="131" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="28" t="s">
+      <c r="J4" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="28" t="s">
+      <c r="K4" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="27" t="s">
+      <c r="L4" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="28" t="s">
+      <c r="M4" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="N4" s="28" t="s">
+      <c r="N4" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="O4" s="28" t="s">
+      <c r="O4" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="P4" s="27" t="s">
+      <c r="P4" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="Q4" s="26" t="s">
+      <c r="Q4" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="R4" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="S4" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="T4" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="W4" s="21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="R4" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="S4" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="V4" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -10020,44 +7008,43 @@
       <c r="O5"/>
       <c r="P5"/>
       <c r="Q5"/>
-      <c r="R5"/>
+      <c r="S5"/>
       <c r="T5"/>
       <c r="U5"/>
       <c r="V5"/>
-      <c r="W5"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C6" s="1"/>
-      <c r="R6" s="8"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B8" s="20"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C16" s="1"/>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.2">
@@ -10302,37 +7289,52 @@
     </row>
     <row r="97" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C97" s="1"/>
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C98" s="1"/>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C99" s="1"/>
+    </row>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C100" s="1"/>
+    </row>
+    <row r="101" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C101" s="1"/>
+    </row>
+    <row r="102" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C102" s="1"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="12">
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:L1"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:S1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
-    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:C4">
-    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
       <formula>AND(("$'Hommes Sinclair'.$#REF!$#REF!"),"$'Hommes Sinclair'.$#REF!$#REF!","$'Hommes Sinclair'.$#REF!$#REF!")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="F4:F5" xr:uid="{00000000-0002-0000-0600-000000000000}">
+    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="F4:F5" xr:uid="{3C0F7F9D-CD17-4545-965C-72382DE4BD7C}">
       <formula1>0</formula1>
       <formula2>200</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.43307086614173229" header="0.23622047244094491" footer="0.15748031496062992"/>
-  <pageSetup scale="69" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup scale="70" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;14Classement Sinclair - Sinclair Ranking&amp;R&amp;14Hommes - Men</oddHeader>
     <oddFooter>&amp;R&amp;P</oddFooter>
@@ -10340,18 +7342,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21418C7B-5960-4DBD-877B-44C6697E073E}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V97"/>
+  <dimension ref="A1:S97"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.28515625" customWidth="1"/>
     <col min="2" max="2" width="22.7109375" customWidth="1"/>
@@ -10360,73 +7362,70 @@
     <col min="5" max="5" width="9.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="7.28515625" style="1" customWidth="1"/>
     <col min="7" max="7" width="7.42578125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="23" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
     <col min="9" max="12" width="7.7109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="7.7109375" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" style="25" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" style="23" customWidth="1"/>
     <col min="15" max="17" width="7.7109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="10" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.42578125" style="25" customWidth="1"/>
-    <col min="20" max="22" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="0" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="18.7109375" customWidth="1"/>
+    <col min="19" max="19" width="9.85546875" style="23" customWidth="1"/>
+    <col min="20" max="20" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="125" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="125" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" s="127" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="123" t="s">
+    <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="118" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="118" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="120" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="116" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="110" t="s">
-        <v>67</v>
-      </c>
-      <c r="F1" s="133" t="s">
-        <v>68</v>
-      </c>
-      <c r="G1" s="134" t="s">
-        <v>69</v>
-      </c>
-      <c r="H1" s="138" t="s">
-        <v>70</v>
-      </c>
-      <c r="I1" s="137" t="s">
-        <v>71</v>
-      </c>
-      <c r="J1" s="137"/>
-      <c r="K1" s="137"/>
-      <c r="L1" s="137"/>
-      <c r="M1" s="137" t="s">
-        <v>72</v>
-      </c>
-      <c r="N1" s="137"/>
-      <c r="O1" s="137"/>
-      <c r="P1" s="137"/>
-      <c r="Q1" s="130" t="s">
-        <v>73</v>
-      </c>
-      <c r="R1" s="132" t="s">
-        <v>162</v>
-      </c>
-      <c r="S1" s="132"/>
-      <c r="U1"/>
-      <c r="V1"/>
-    </row>
-    <row r="2" spans="1:22" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="126"/>
-      <c r="B2" s="126"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="134"/>
-      <c r="H2" s="138"/>
+      <c r="E1" s="106" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="125" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="126" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="127" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" s="129" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="129" t="s">
+        <v>63</v>
+      </c>
+      <c r="N1" s="129"/>
+      <c r="O1" s="129"/>
+      <c r="P1" s="129"/>
+      <c r="Q1" s="123" t="s">
+        <v>64</v>
+      </c>
+      <c r="R1" s="130" t="s">
+        <v>151</v>
+      </c>
+      <c r="S1" s="130"/>
+    </row>
+    <row r="2" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="119"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="128"/>
       <c r="I2" s="17">
         <v>1</v>
       </c>
@@ -10436,7 +7435,7 @@
       <c r="K2" s="17">
         <v>3</v>
       </c>
-      <c r="L2" s="35" t="s">
+      <c r="L2" s="33" t="s">
         <v>29</v>
       </c>
       <c r="M2" s="17">
@@ -10448,26 +7447,26 @@
       <c r="O2" s="17">
         <v>3</v>
       </c>
-      <c r="P2" s="44" t="s">
+      <c r="P2" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="131"/>
-      <c r="R2" s="43" t="s">
-        <v>162</v>
-      </c>
-      <c r="S2" s="42" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="Q2" s="124"/>
+      <c r="R2" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="S2" s="56" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3"/>
-      <c r="H3" s="22"/>
+      <c r="H3"/>
       <c r="I3"/>
       <c r="J3"/>
       <c r="K3"/>
@@ -10476,73 +7475,66 @@
       <c r="O3"/>
       <c r="P3"/>
       <c r="Q3"/>
-      <c r="R3"/>
       <c r="S3"/>
-      <c r="T3"/>
-      <c r="U3"/>
-      <c r="V3"/>
-    </row>
-    <row r="4" spans="1:22" s="19" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="33" t="s">
+    </row>
+    <row r="4" spans="1:19" s="19" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="41" t="s">
+      <c r="B4" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="37" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="31" t="s">
+      <c r="E4" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="F4" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="G4" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" s="28" t="s">
+      <c r="H4" s="131" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="28" t="s">
+      <c r="J4" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="28" t="s">
+      <c r="K4" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="27" t="s">
+      <c r="L4" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="28" t="s">
+      <c r="M4" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="N4" s="28" t="s">
+      <c r="N4" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="O4" s="28" t="s">
+      <c r="O4" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="P4" s="27" t="s">
+      <c r="P4" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="Q4" s="26" t="s">
+      <c r="Q4" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="R4" s="40" t="s">
-        <v>163</v>
-      </c>
-      <c r="S4" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="V4" s="21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="R4" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="S4" s="35" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -10550,7 +7542,7 @@
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5"/>
-      <c r="H5" s="22"/>
+      <c r="H5"/>
       <c r="I5"/>
       <c r="J5"/>
       <c r="K5"/>
@@ -10559,44 +7551,39 @@
       <c r="O5"/>
       <c r="P5"/>
       <c r="Q5"/>
-      <c r="R5"/>
       <c r="S5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C6" s="1"/>
-      <c r="R6" s="8"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C16" s="1"/>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.2">
@@ -10845,6 +7832,11 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="12">
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="R1:S1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -10852,26 +7844,21 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:C4">
-    <cfRule type="expression" dxfId="4" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>AND(("$'Hommes Sinclair'.$#REF!$#REF!"),"$'Hommes Sinclair'.$#REF!$#REF!","$'Hommes Sinclair'.$#REF!$#REF!")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="F4:F5" xr:uid="{00000000-0002-0000-0700-000000000000}">
+    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="F4:F5" xr:uid="{D62832B7-D8C1-43A5-9CF6-538F5C388EF1}">
       <formula1>0</formula1>
       <formula2>200</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.43307086614173229" header="0.23622047244094491" footer="0.15748031496062992"/>
-  <pageSetup scale="73" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup scale="70" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;14Classement Sinclair - Sinclair Ranking&amp;R&amp;14Hommes - Men</oddHeader>
     <oddFooter>&amp;R&amp;P</oddFooter>
@@ -10879,538 +7866,1229 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V97"/>
+  <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="23" customWidth="1"/>
-    <col min="9" max="12" width="7.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="7.7109375" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" style="25" customWidth="1"/>
-    <col min="15" max="17" width="7.7109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="10" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.42578125" style="25" customWidth="1"/>
-    <col min="20" max="22" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="11" width="11.42578125" customWidth="1"/>
+    <col min="12" max="12" width="10" customWidth="1"/>
+    <col min="13" max="19" width="11.42578125" style="4" customWidth="1"/>
+    <col min="20" max="20" width="3.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="125" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="125" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M2"/>
+      <c r="P2"/>
+    </row>
+    <row r="3" spans="1:19" s="8" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="127" t="s">
+      <c r="M3" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="N3" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="O3" s="68" t="s">
+        <v>149</v>
+      </c>
+      <c r="P3" s="68" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="16"/>
+      <c r="M4"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="O5" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="P5" s="100" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="123" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="110" t="s">
-        <v>67</v>
-      </c>
-      <c r="F1" s="133" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:19" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="134" t="s">
+      <c r="M10" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="H1" s="138" t="s">
-        <v>70</v>
-      </c>
-      <c r="I1" s="137" t="s">
-        <v>71</v>
-      </c>
-      <c r="J1" s="137"/>
-      <c r="K1" s="137"/>
-      <c r="L1" s="137"/>
-      <c r="M1" s="137" t="s">
-        <v>72</v>
-      </c>
-      <c r="N1" s="137"/>
-      <c r="O1" s="137"/>
-      <c r="P1" s="137"/>
-      <c r="Q1" s="130" t="s">
-        <v>73</v>
-      </c>
-      <c r="R1" s="132" t="s">
-        <v>53</v>
-      </c>
-      <c r="S1" s="132"/>
-      <c r="U1"/>
-      <c r="V1"/>
-    </row>
-    <row r="2" spans="1:22" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="126"/>
-      <c r="B2" s="126"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="134"/>
-      <c r="H2" s="138"/>
-      <c r="I2" s="17">
+      <c r="N10" s="68" t="s">
+        <v>148</v>
+      </c>
+      <c r="O10" s="68" t="s">
+        <v>149</v>
+      </c>
+      <c r="P10" s="68" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="17">
+      <c r="C12" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="17">
-        <v>3</v>
-      </c>
-      <c r="L2" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" s="17">
-        <v>1</v>
-      </c>
-      <c r="N2" s="17">
-        <v>2</v>
-      </c>
-      <c r="O2" s="17">
-        <v>3</v>
-      </c>
-      <c r="P2" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q2" s="131"/>
-      <c r="R2" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="S2" s="42" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3" s="22"/>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="N3"/>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3"/>
-      <c r="U3"/>
-      <c r="V3"/>
-    </row>
-    <row r="4" spans="1:22" s="19" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="29" t="s">
+      <c r="F12" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="M12" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="N12" s="66" t="s">
+        <v>144</v>
+      </c>
+      <c r="O12" s="66" t="s">
+        <v>145</v>
+      </c>
+      <c r="P12" s="66" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" s="9"/>
+      <c r="B14" s="10" t="str">
+        <f ca="1">IF(A14&gt;0,SUMIF(OFFSET($A$12,0,0,$C$15,1),A14,OFFSET($A$12,0,9,$C$15,1)),"")</f>
+        <v/>
+      </c>
+      <c r="C14" s="9" t="str">
+        <f ca="1">IF(A14&gt;0,RANK(B14,OFFSET(A$5,0,0,#REF!,2)),"")</f>
+        <v/>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="L4" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="M4" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="N4" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="O4" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="P4" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q4" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="R4" s="40" t="s">
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>46</v>
       </c>
-      <c r="S4" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="V4" s="21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5" s="22"/>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C6" s="1"/>
-      <c r="R6" s="8"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C31" s="1"/>
-    </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C32" s="1"/>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C33" s="1"/>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C34" s="1"/>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C35" s="1"/>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C36" s="1"/>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C37" s="1"/>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C38" s="1"/>
-    </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C39" s="1"/>
-    </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C40" s="1"/>
-    </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C41" s="1"/>
-    </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C42" s="1"/>
-    </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C43" s="1"/>
-    </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C44" s="1"/>
-    </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C45" s="1"/>
-    </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C46" s="1"/>
-    </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C47" s="1"/>
-    </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C48" s="1"/>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C49" s="1"/>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C50" s="1"/>
-    </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C51" s="1"/>
-    </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C52" s="1"/>
-    </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C53" s="1"/>
-    </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C54" s="1"/>
-    </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C55" s="1"/>
-    </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C56" s="1"/>
-    </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C57" s="1"/>
-    </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C58" s="1"/>
-    </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C59" s="1"/>
-    </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C60" s="1"/>
-    </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C61" s="1"/>
-    </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C62" s="1"/>
-    </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C63" s="1"/>
-    </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C64" s="1"/>
-    </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C65" s="1"/>
-    </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C66" s="1"/>
-    </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C67" s="1"/>
-    </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C68" s="1"/>
-    </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C69" s="1"/>
-    </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C70" s="1"/>
-    </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C71" s="1"/>
-    </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C72" s="1"/>
-    </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C73" s="1"/>
-    </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C74" s="1"/>
-    </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C75" s="1"/>
-    </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C76" s="1"/>
-    </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C77" s="1"/>
-    </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C78" s="1"/>
-    </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C79" s="1"/>
-    </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C80" s="1"/>
-    </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C81" s="1"/>
-    </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C82" s="1"/>
-    </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C83" s="1"/>
-    </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C84" s="1"/>
-    </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C85" s="1"/>
-    </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C86" s="1"/>
-    </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C87" s="1"/>
-    </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C88" s="1"/>
-    </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C89" s="1"/>
-    </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C90" s="1"/>
-    </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C91" s="1"/>
-    </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C92" s="1"/>
-    </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C93" s="1"/>
-    </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C94" s="1"/>
-    </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C95" s="1"/>
-    </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C96" s="1"/>
-    </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C97" s="1"/>
+      <c r="C17" t="s">
+        <v>105</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <mergeCells count="12">
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="Q1:Q2"/>
-  </mergeCells>
-  <conditionalFormatting sqref="B4:C4">
-    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
-      <formula>AND(("$'Hommes Sinclair'.$#REF!$#REF!"),"$'Hommes Sinclair'.$#REF!$#REF!","$'Hommes Sinclair'.$#REF!$#REF!")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="F4:F5" xr:uid="{00000000-0002-0000-0800-000000000000}">
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="G6" xr:uid="{00000000-0002-0000-0900-000000000000}">
       <formula1>0</formula1>
       <formula2>200</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.43307086614173229" header="0.23622047244094491" footer="0.15748031496062992"/>
-  <pageSetup scale="73" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup scale="64" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;L&amp;14Classement Sinclair - Sinclair Ranking&amp;R&amp;14Hommes - Men</oddHeader>
+    <oddFooter>&amp;R&amp;P</oddFooter>
+  </headerFooter>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="19" max="1048575" man="1"/>
+  </colBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:S18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="11" width="11.42578125" customWidth="1"/>
+    <col min="12" max="12" width="10" customWidth="1"/>
+    <col min="13" max="19" width="11.42578125" style="4" customWidth="1"/>
+    <col min="20" max="20" width="3.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M2"/>
+      <c r="P2"/>
+    </row>
+    <row r="3" spans="1:19" s="8" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="68" t="s">
+        <v>53</v>
+      </c>
+      <c r="M3" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="N3" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="O3" s="68" t="s">
+        <v>149</v>
+      </c>
+      <c r="P3" s="68" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="16"/>
+      <c r="M4"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="O5" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="P5" s="100" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:19" ht="40.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="M10" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="N10" s="68" t="s">
+        <v>148</v>
+      </c>
+      <c r="O10" s="68" t="s">
+        <v>149</v>
+      </c>
+      <c r="P10" s="68" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="M12" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="N12" s="66" t="s">
+        <v>144</v>
+      </c>
+      <c r="O12" s="66" t="s">
+        <v>145</v>
+      </c>
+      <c r="P12" s="66" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" s="9"/>
+      <c r="B14" s="10" t="str">
+        <f ca="1">IF(A14&gt;0,SUMIF(OFFSET($A$12,0,0,$C$15,1),A14,OFFSET($A$12,0,9,$C$15,1)),"")</f>
+        <v/>
+      </c>
+      <c r="C14" s="9" t="str">
+        <f ca="1">IF(A14&gt;0,RANK(B14,OFFSET(A$5,0,0,#REF!,2)),"")</f>
+        <v/>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="G6" xr:uid="{00000000-0002-0000-0A00-000000000000}">
+      <formula1>0</formula1>
+      <formula2>200</formula2>
+    </dataValidation>
+  </dataValidations>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.43307086614173229" header="0.23622047244094491" footer="0.15748031496062992"/>
+  <pageSetup scale="64" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;L&amp;14Classement Sinclair - Sinclair Ranking&amp;R&amp;14Hommes - Men</oddHeader>
+    <oddFooter>&amp;R&amp;P</oddFooter>
+  </headerFooter>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="19" max="1048575" man="1"/>
+  </colBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:S18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="11" width="11.42578125" customWidth="1"/>
+    <col min="12" max="12" width="10" customWidth="1"/>
+    <col min="13" max="19" width="11.42578125" style="4" customWidth="1"/>
+    <col min="20" max="20" width="3.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M2"/>
+      <c r="P2"/>
+    </row>
+    <row r="3" spans="1:19" s="8" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="68" t="s">
+        <v>53</v>
+      </c>
+      <c r="M3" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="N3" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="O3" s="68" t="s">
+        <v>149</v>
+      </c>
+      <c r="P3" s="68" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="16"/>
+      <c r="M4"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="100" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="O5" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="P5" s="100" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="Q8"/>
+    </row>
+    <row r="9" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:19" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="M10" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="N10" s="68" t="s">
+        <v>148</v>
+      </c>
+      <c r="O10" s="68" t="s">
+        <v>149</v>
+      </c>
+      <c r="P10" s="68" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="M12" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="N12" s="66" t="s">
+        <v>144</v>
+      </c>
+      <c r="O12" s="66" t="s">
+        <v>145</v>
+      </c>
+      <c r="P12" s="66" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" s="9"/>
+      <c r="B14" s="10" t="str">
+        <f ca="1">IF(A14&gt;0,SUMIF(OFFSET($A$12,0,0,$C$15,1),A14,OFFSET($A$12,0,9,$C$15,1)),"")</f>
+        <v/>
+      </c>
+      <c r="C14" s="9" t="str">
+        <f ca="1">IF(A14&gt;0,RANK(B14,OFFSET(A$5,0,0,#REF!,2)),"")</f>
+        <v/>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="G6" xr:uid="{00000000-0002-0000-0B00-000000000000}">
+      <formula1>0</formula1>
+      <formula2>200</formula2>
+    </dataValidation>
+  </dataValidations>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.43307086614173229" header="0.23622047244094491" footer="0.15748031496062992"/>
+  <pageSetup scale="64" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;L&amp;14Classement Sinclair - Sinclair Ranking&amp;R&amp;14Hommes - Men</oddHeader>
+    <oddFooter>&amp;R&amp;P</oddFooter>
+  </headerFooter>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="19" max="1048575" man="1"/>
+  </colBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:X8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.85546875" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" customWidth="1"/>
+    <col min="11" max="19" width="7.7109375" customWidth="1"/>
+    <col min="20" max="20" width="8.42578125" customWidth="1"/>
+    <col min="21" max="21" width="8.140625" customWidth="1"/>
+    <col min="22" max="22" width="10.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:24" s="69" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="69" t="s">
+        <v>119</v>
+      </c>
+      <c r="J2" s="70"/>
+    </row>
+    <row r="3" spans="1:24" s="69" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="71"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="72"/>
+      <c r="Q3" s="72"/>
+      <c r="R3" s="72"/>
+      <c r="S3" s="71"/>
+      <c r="T3" s="71"/>
+      <c r="U3" s="72"/>
+      <c r="V3" s="72"/>
+    </row>
+    <row r="4" spans="1:24" s="82" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A4" s="73" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" s="74"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="76" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="F4" s="76" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="78" t="s">
+        <v>123</v>
+      </c>
+      <c r="H4" s="79"/>
+      <c r="I4" s="76" t="s">
+        <v>124</v>
+      </c>
+      <c r="J4" s="73" t="s">
+        <v>125</v>
+      </c>
+      <c r="K4" s="80"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="73" t="s">
+        <v>60</v>
+      </c>
+      <c r="O4" s="74"/>
+      <c r="P4" s="81"/>
+      <c r="Q4" s="73" t="s">
+        <v>61</v>
+      </c>
+      <c r="R4" s="74"/>
+      <c r="S4" s="73" t="s">
+        <v>126</v>
+      </c>
+      <c r="T4" s="80"/>
+      <c r="U4" s="73" t="s">
+        <v>127</v>
+      </c>
+      <c r="V4" s="81"/>
+      <c r="X4" s="75"/>
+    </row>
+    <row r="5" spans="1:24" s="87" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="83" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" s="84"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="86"/>
+      <c r="M5" s="86"/>
+    </row>
+    <row r="6" spans="1:24" s="96" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="88" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" s="89"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="91" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6" s="92" t="s">
+        <v>131</v>
+      </c>
+      <c r="F6" s="88" t="s">
+        <v>132</v>
+      </c>
+      <c r="G6" s="92" t="s">
+        <v>139</v>
+      </c>
+      <c r="H6" s="90"/>
+      <c r="I6" s="94" t="s">
+        <v>133</v>
+      </c>
+      <c r="J6" s="92" t="s">
+        <v>140</v>
+      </c>
+      <c r="K6" s="89"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="90"/>
+      <c r="N6" s="92" t="s">
+        <v>134</v>
+      </c>
+      <c r="O6" s="89"/>
+      <c r="P6" s="90"/>
+      <c r="Q6" s="88" t="s">
+        <v>135</v>
+      </c>
+      <c r="R6" s="89"/>
+      <c r="S6" s="93" t="s">
+        <v>136</v>
+      </c>
+      <c r="T6" s="89"/>
+      <c r="U6" s="95" t="s">
+        <v>137</v>
+      </c>
+      <c r="V6" s="90"/>
+      <c r="X6" s="90"/>
+    </row>
+    <row r="7" spans="1:24" s="96" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="84"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="97"/>
+      <c r="J7" s="98"/>
+      <c r="K7" s="97"/>
+      <c r="L7" s="99"/>
+      <c r="M7" s="97"/>
+      <c r="N7" s="99"/>
+      <c r="O7" s="84"/>
+      <c r="W7"/>
+    </row>
+    <row r="8" spans="1:24" s="96" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="96" t="s">
+        <v>138</v>
+      </c>
+      <c r="B8" s="84"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="97"/>
+      <c r="J8" s="98"/>
+      <c r="K8" s="97"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="97"/>
+      <c r="N8" s="99"/>
+      <c r="O8" s="84"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C5:D5">
+    <cfRule type="expression" dxfId="4" priority="1" stopIfTrue="1">
+      <formula>AND((#REF!),#REF!,#REF!)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2" stopIfTrue="1">
+      <formula>AND((#REF!),#REF!,#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:F3">
+    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
+      <formula>AND((#REF!),#REF!,#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5" xr:uid="{00000000-0002-0000-0C00-000000000000}">
+      <formula1>0</formula1>
+      <formula2>200</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="H1:H3" xr:uid="{00000000-0002-0000-0C00-000001000000}">
+      <formula1>0</formula1>
+      <formula2>200</formula2>
+    </dataValidation>
+  </dataValidations>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.43307086614173229" header="0.23622047244094491" footer="0.15748031496062992"/>
+  <pageSetup scale="60" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;14Classement Sinclair - Sinclair Ranking&amp;R&amp;14Hommes - Men</oddHeader>
     <oddFooter>&amp;R&amp;P</oddFooter>

--- a/owlcms/src/main/resources/templates/competitionBook/SnatchCJTotal-LETTER.xlsx
+++ b/owlcms/src/main/resources/templates/competitionBook/SnatchCJTotal-LETTER.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lamyj\git\owlcms4\owlcms\src\main\resources\templates\competitionBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C98B49-8B3E-49F9-827A-815C23CAC39C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F5797A-07B0-4A7A-8233-7B54181308B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4515" yWindow="2025" windowWidth="21765" windowHeight="13125" tabRatio="519" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="519" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C" sheetId="35" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="161">
   <si>
     <t>${l.lastName}</t>
   </si>
@@ -516,10 +516,19 @@
     <t>${l.bestLifterScore}</t>
   </si>
   <si>
-    <t>${l.bestLifterRank}</t>
-  </si>
-  <si>
     <t>&lt;jx:forEach items="${wBest}" var="l" varStatus="lifterLoop"&gt;</t>
+  </si>
+  <si>
+    <t>${l.snatchRank &lt; 0 ? t.get("Results.Extra/Invited") : l.snatchRank}</t>
+  </si>
+  <si>
+    <t>${l.cleanJerkRank &lt; 0 ? t.get("Results.Extra/Invited") : l.cleanJerkRank}</t>
+  </si>
+  <si>
+    <t>${l.totalRank &lt; 0 ? t.get("Results.Extra/Invited") : l.totalRank}</t>
+  </si>
+  <si>
+    <t>${l.bestLifterRank &lt; 0 ? t.get("Results.Extra/Invited") : l.bestLifterRank}</t>
   </si>
 </sst>
 </file>
@@ -1482,6 +1491,10 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1543,6 +1556,10 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1563,12 +1580,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1589,13 +1600,11 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -2150,7 +2159,7 @@
   </sheetPr>
   <dimension ref="A1:S95"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:G1"/>
     </sheetView>
   </sheetViews>
@@ -2167,14 +2176,14 @@
       <c r="A1" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="101" t="s">
+      <c r="B1" s="102" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
       <c r="H1" s="44"/>
       <c r="I1" s="44"/>
       <c r="J1" s="44" t="s">
@@ -2188,14 +2197,14 @@
       <c r="A2" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="102" t="s">
+      <c r="B2" s="103" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
       <c r="H2" s="44"/>
       <c r="I2" s="44"/>
       <c r="J2" s="44" t="s">
@@ -2209,14 +2218,14 @@
       <c r="A3" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="102" t="s">
+      <c r="B3" s="103" t="s">
         <v>112</v>
       </c>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
       <c r="H3" s="44"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
@@ -3858,7 +3867,7 @@
   </sheetPr>
   <dimension ref="A1:B202"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:G1"/>
     </sheetView>
   </sheetViews>
@@ -5498,8 +5507,8 @@
   </sheetPr>
   <dimension ref="A1:W107"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G1"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5528,58 +5537,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="111" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="112" t="s">
+      <c r="B1" s="113" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="114" t="s">
+      <c r="C1" s="115" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="116" t="s">
+      <c r="D1" s="117" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="106" t="s">
+      <c r="E1" s="107" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="106" t="s">
+      <c r="F1" s="107" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="106" t="s">
+      <c r="G1" s="107" t="s">
         <v>60</v>
       </c>
-      <c r="H1" s="106" t="s">
+      <c r="H1" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="108" t="s">
+      <c r="I1" s="109" t="s">
         <v>62</v>
       </c>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="108" t="s">
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="109" t="s">
         <v>63</v>
       </c>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="103" t="s">
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="104" t="s">
         <v>64</v>
       </c>
-      <c r="T1" s="104"/>
+      <c r="T1" s="105"/>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="111"/>
-      <c r="B2" s="113"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
+      <c r="A2" s="112"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
       <c r="I2" s="34">
         <v>1</v>
       </c>
@@ -5728,7 +5737,7 @@
         <v>35</v>
       </c>
       <c r="M7" s="55" t="s">
-        <v>6</v>
+        <v>157</v>
       </c>
       <c r="N7" s="26" t="s">
         <v>36</v>
@@ -5743,13 +5752,13 @@
         <v>39</v>
       </c>
       <c r="R7" s="55" t="s">
-        <v>7</v>
+        <v>158</v>
       </c>
       <c r="S7" s="24" t="s">
         <v>4</v>
       </c>
       <c r="T7" s="54" t="s">
-        <v>107</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
@@ -5808,11 +5817,11 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1"/>
-      <c r="R15" s="105"/>
+      <c r="R15" s="106"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C16" s="1"/>
-      <c r="R16" s="105"/>
+      <c r="R16" s="106"/>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C17" s="1"/>
@@ -6133,7 +6142,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.43307086614173229" header="0.23622047244094491" footer="0.15748031496062992"/>
-  <pageSetup scale="79" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup scale="74" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;14Classement Sinclair - Sinclair Ranking&amp;R&amp;14Hommes - Men</oddHeader>
     <oddFooter>&amp;R&amp;P</oddFooter>
@@ -6148,8 +6157,8 @@
   </sheetPr>
   <dimension ref="A1:W108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6177,58 +6186,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="111" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="112" t="s">
+      <c r="B1" s="113" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="114" t="s">
+      <c r="C1" s="115" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="116" t="s">
+      <c r="D1" s="117" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="106" t="s">
+      <c r="E1" s="107" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="106" t="s">
+      <c r="F1" s="107" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="106" t="s">
+      <c r="G1" s="107" t="s">
         <v>60</v>
       </c>
-      <c r="H1" s="106" t="s">
+      <c r="H1" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="108" t="s">
+      <c r="I1" s="109" t="s">
         <v>62</v>
       </c>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="108" t="s">
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="109" t="s">
         <v>63</v>
       </c>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="103" t="s">
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="104" t="s">
         <v>64</v>
       </c>
-      <c r="T1" s="104"/>
+      <c r="T1" s="105"/>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="111"/>
-      <c r="B2" s="113"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
+      <c r="A2" s="112"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
       <c r="I2" s="34">
         <v>1</v>
       </c>
@@ -6375,7 +6384,7 @@
         <v>35</v>
       </c>
       <c r="M7" s="55" t="s">
-        <v>6</v>
+        <v>157</v>
       </c>
       <c r="N7" s="26" t="s">
         <v>36</v>
@@ -6390,13 +6399,13 @@
         <v>39</v>
       </c>
       <c r="R7" s="55" t="s">
-        <v>7</v>
+        <v>158</v>
       </c>
       <c r="S7" s="24" t="s">
         <v>4</v>
       </c>
       <c r="T7" s="54" t="s">
-        <v>107</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
@@ -6456,11 +6465,11 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C16" s="1"/>
-      <c r="P16" s="105"/>
+      <c r="P16" s="106"/>
     </row>
     <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1"/>
-      <c r="P17" s="105"/>
+      <c r="P17" s="106"/>
     </row>
     <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1"/>
@@ -6781,7 +6790,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.43307086614173229" header="0.23622047244094491" footer="0.15748031496062992"/>
-  <pageSetup scale="79" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup scale="70" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;14Classement Sinclair - Sinclair Ranking&amp;R&amp;14Hommes - Men</oddHeader>
     <oddFooter>&amp;R&amp;P</oddFooter>
@@ -6797,7 +6806,7 @@
   <dimension ref="A1:V102"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G1"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6822,19 +6831,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="120" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="118" t="s">
+      <c r="B1" s="120" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="120" t="s">
+      <c r="C1" s="122" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="116" t="s">
+      <c r="D1" s="117" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="106" t="s">
+      <c r="E1" s="107" t="s">
         <v>58</v>
       </c>
       <c r="F1" s="125" t="s">
@@ -6858,22 +6867,22 @@
       <c r="N1" s="129"/>
       <c r="O1" s="129"/>
       <c r="P1" s="129"/>
-      <c r="Q1" s="123" t="s">
+      <c r="Q1" s="130" t="s">
         <v>64</v>
       </c>
-      <c r="R1" s="130" t="s">
+      <c r="R1" s="119" t="s">
         <v>151</v>
       </c>
-      <c r="S1" s="130"/>
+      <c r="S1" s="119"/>
       <c r="U1"/>
       <c r="V1"/>
     </row>
     <row r="2" spans="1:22" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="119"/>
-      <c r="B2" s="119"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="106"/>
+      <c r="A2" s="121"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="107"/>
       <c r="F2" s="125"/>
       <c r="G2" s="126"/>
       <c r="H2" s="128"/>
@@ -6901,7 +6910,7 @@
       <c r="P2" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="124"/>
+      <c r="Q2" s="131"/>
       <c r="R2" s="32" t="s">
         <v>152</v>
       </c>
@@ -6951,7 +6960,7 @@
       <c r="G4" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="131" t="s">
+      <c r="H4" s="101" t="s">
         <v>41</v>
       </c>
       <c r="I4" s="26" t="s">
@@ -6985,7 +6994,7 @@
         <v>155</v>
       </c>
       <c r="S4" s="35" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="V4" s="21" t="s">
         <v>40</v>
@@ -7308,11 +7317,6 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="12">
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="R1:S1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -7320,9 +7324,14 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:C4">
-    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="1" stopIfTrue="1">
       <formula>AND(("$'Hommes Sinclair'.$#REF!$#REF!"),"$'Hommes Sinclair'.$#REF!$#REF!","$'Hommes Sinclair'.$#REF!$#REF!")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7334,7 +7343,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.43307086614173229" header="0.23622047244094491" footer="0.15748031496062992"/>
-  <pageSetup scale="70" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup scale="63" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;14Classement Sinclair - Sinclair Ranking&amp;R&amp;14Hommes - Men</oddHeader>
     <oddFooter>&amp;R&amp;P</oddFooter>
@@ -7349,8 +7358,8 @@
   </sheetPr>
   <dimension ref="A1:S97"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G1"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7373,19 +7382,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="120" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="118" t="s">
+      <c r="B1" s="120" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="120" t="s">
+      <c r="C1" s="122" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="116" t="s">
+      <c r="D1" s="117" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="106" t="s">
+      <c r="E1" s="107" t="s">
         <v>58</v>
       </c>
       <c r="F1" s="125" t="s">
@@ -7409,20 +7418,20 @@
       <c r="N1" s="129"/>
       <c r="O1" s="129"/>
       <c r="P1" s="129"/>
-      <c r="Q1" s="123" t="s">
+      <c r="Q1" s="130" t="s">
         <v>64</v>
       </c>
-      <c r="R1" s="130" t="s">
+      <c r="R1" s="119" t="s">
         <v>151</v>
       </c>
-      <c r="S1" s="130"/>
+      <c r="S1" s="119"/>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="119"/>
-      <c r="B2" s="119"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="106"/>
+      <c r="A2" s="121"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="107"/>
       <c r="F2" s="125"/>
       <c r="G2" s="126"/>
       <c r="H2" s="128"/>
@@ -7450,7 +7459,7 @@
       <c r="P2" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="124"/>
+      <c r="Q2" s="131"/>
       <c r="R2" s="32" t="s">
         <v>152</v>
       </c>
@@ -7460,7 +7469,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -7497,7 +7506,7 @@
       <c r="G4" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="131" t="s">
+      <c r="H4" s="101" t="s">
         <v>41</v>
       </c>
       <c r="I4" s="26" t="s">
@@ -7531,7 +7540,7 @@
         <v>155</v>
       </c>
       <c r="S4" s="35" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
@@ -7832,11 +7841,6 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="12">
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="R1:S1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -7844,9 +7848,14 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:C4">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
       <formula>AND(("$'Hommes Sinclair'.$#REF!$#REF!"),"$'Hommes Sinclair'.$#REF!$#REF!","$'Hommes Sinclair'.$#REF!$#REF!")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7858,7 +7867,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.43307086614173229" header="0.23622047244094491" footer="0.15748031496062992"/>
-  <pageSetup scale="70" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup scale="62" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;14Classement Sinclair - Sinclair Ranking&amp;R&amp;14Hommes - Men</oddHeader>
     <oddFooter>&amp;R&amp;P</oddFooter>
@@ -7873,7 +7882,7 @@
   </sheetPr>
   <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:G1"/>
     </sheetView>
   </sheetViews>
@@ -8195,7 +8204,7 @@
   </sheetPr>
   <dimension ref="A1:S18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:G1"/>
     </sheetView>
   </sheetViews>
@@ -8517,7 +8526,7 @@
   </sheetPr>
   <dimension ref="A1:S18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:G1"/>
     </sheetView>
   </sheetViews>
@@ -8855,7 +8864,7 @@
   </sheetPr>
   <dimension ref="A1:X8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:G1"/>
     </sheetView>
   </sheetViews>
@@ -9064,15 +9073,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C5:D5">
-    <cfRule type="expression" dxfId="4" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
       <formula>AND((#REF!),#REF!,#REF!)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>AND((#REF!),#REF!,#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:F3">
-    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>AND((#REF!),#REF!,#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
